--- a/originals/Jupiter.xlsx
+++ b/originals/Jupiter.xlsx
@@ -2,25 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faerar\PycharmProjects\excl-TMZ\originals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD34396-2EAD-4B28-8533-E0FA7FDF9264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41523F63-5450-41E0-8058-3DBABBE3279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="7470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$AK$666</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -721,10 +719,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -758,7 +756,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -781,44 +779,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -845,32 +843,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -897,24 +877,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,177 +888,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK667"/>
+  <dimension ref="A1:AK666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A668" sqref="A668:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -1217,7 +1182,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1">
-        <v>45015.193634259304</v>
+        <v>45015.19363425926</v>
       </c>
       <c r="C2">
         <v>1320</v>
@@ -1279,7 +1244,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="1">
-        <v>45015.195011574098</v>
+        <v>45015.195011574076</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1347,7 +1312,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>45015.1969791667</v>
+        <v>45015.196979166663</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -1415,7 +1380,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="1">
-        <v>45015.197048611102</v>
+        <v>45015.197048611109</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -1483,7 +1448,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>45015.197615740697</v>
+        <v>45015.197615740741</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -1551,7 +1516,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>45015.198090277801</v>
+        <v>45015.19809027778</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -1619,7 +1584,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="1">
-        <v>45015.205833333297</v>
+        <v>45015.205833333333</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -1701,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>45015.206956018497</v>
+        <v>45015.206956018519</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -1742,7 +1707,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="1">
-        <v>45015.207650463002</v>
+        <v>45015.207650462973</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1824,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1">
-        <v>45015.222939814797</v>
+        <v>45015.222939814812</v>
       </c>
       <c r="C13">
         <v>2827</v>
@@ -1886,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="1">
-        <v>45015.224027777796</v>
+        <v>45015.224027777767</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
@@ -1927,7 +1892,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="1">
-        <v>45015.225115740701</v>
+        <v>45015.225115740737</v>
       </c>
       <c r="C15">
         <v>34</v>
@@ -1992,7 +1957,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="1">
-        <v>45015.232071759303</v>
+        <v>45015.232071759259</v>
       </c>
       <c r="C16">
         <v>97</v>
@@ -2057,7 +2022,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="1">
-        <v>45015.2813425926</v>
+        <v>45015.281342592592</v>
       </c>
       <c r="C17">
         <v>522</v>
@@ -2119,7 +2084,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="1">
-        <v>45015.295138888898</v>
+        <v>45015.295138888891</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -2160,7 +2125,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="1">
-        <v>45015.296793981499</v>
+        <v>45015.296793981477</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2201,7 +2166,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="1">
-        <v>45015.296990740702</v>
+        <v>45015.296990740739</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -2242,7 +2207,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="1">
-        <v>45015.297175925902</v>
+        <v>45015.297175925924</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2283,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>45015.298055555599</v>
+        <v>45015.298055555562</v>
       </c>
       <c r="C22">
         <v>640</v>
@@ -2345,7 +2310,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="1">
-        <v>45015.318611111099</v>
+        <v>45015.318611111114</v>
       </c>
       <c r="C23">
         <v>45</v>
@@ -2407,7 +2372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="1">
-        <v>45015.320069444497</v>
+        <v>45015.320069444453</v>
       </c>
       <c r="C24">
         <v>1009</v>
@@ -2469,7 +2434,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="1">
-        <v>45015.333912037</v>
+        <v>45015.333912037036</v>
       </c>
       <c r="D25" t="s">
         <v>62</v>
@@ -2510,7 +2475,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>45015.335960648197</v>
+        <v>45015.335960648154</v>
       </c>
       <c r="D26" t="s">
         <v>62</v>
@@ -2551,7 +2516,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1">
-        <v>45015.3364351852</v>
+        <v>45015.336435185192</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -2654,7 +2619,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="1">
-        <v>45015.375393518501</v>
+        <v>45015.375393518523</v>
       </c>
       <c r="D29" t="s">
         <v>63</v>
@@ -2790,7 +2755,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="1">
-        <v>45015.377280092602</v>
+        <v>45015.377280092587</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -2858,7 +2823,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1">
-        <v>45015.377592592602</v>
+        <v>45015.377592592587</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
@@ -2926,7 +2891,7 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>45015.378356481502</v>
+        <v>45015.37835648148</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -2994,7 +2959,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>45015.417337963001</v>
+        <v>45015.417337962957</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -3062,7 +3027,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>45015.418460648201</v>
+        <v>45015.41846064815</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -3130,7 +3095,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="1">
-        <v>45015.419143518498</v>
+        <v>45015.41914351852</v>
       </c>
       <c r="D36" t="s">
         <v>49</v>
@@ -3198,7 +3163,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="1">
-        <v>45015.426585648202</v>
+        <v>45015.426585648151</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -3239,7 +3204,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="1">
-        <v>45015.427928240701</v>
+        <v>45015.427928240737</v>
       </c>
       <c r="D38" t="s">
         <v>58</v>
@@ -3280,7 +3245,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>45015.428229166697</v>
+        <v>45015.428229166668</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
@@ -3321,7 +3286,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>45015.458715277797</v>
+        <v>45015.458715277768</v>
       </c>
       <c r="C40">
         <v>4899</v>
@@ -3383,7 +3348,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>45015.5262268519</v>
+        <v>45015.526226851849</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -3424,7 +3389,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="1">
-        <v>45015.530254629601</v>
+        <v>45015.53025462963</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
@@ -3465,7 +3430,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>45015.568981481498</v>
+        <v>45015.568981481483</v>
       </c>
       <c r="C43">
         <v>16200</v>
@@ -3527,7 +3492,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="1">
-        <v>45015.604189814803</v>
+        <v>45015.604189814818</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
@@ -3568,7 +3533,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="1">
-        <v>45015.658622685201</v>
+        <v>45015.658622685187</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
@@ -3636,7 +3601,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="1">
-        <v>45015.659490740698</v>
+        <v>45015.659490740742</v>
       </c>
       <c r="D46" t="s">
         <v>38</v>
@@ -3704,7 +3669,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>45015.659814814797</v>
+        <v>45015.659814814811</v>
       </c>
       <c r="D47" t="s">
         <v>74</v>
@@ -3772,7 +3737,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>45015.660081018497</v>
+        <v>45015.660081018519</v>
       </c>
       <c r="D48" t="s">
         <v>74</v>
@@ -3840,7 +3805,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>45015.660833333299</v>
+        <v>45015.660833333342</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
@@ -3908,7 +3873,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="1">
-        <v>45015.679745370398</v>
+        <v>45015.679745370369</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -3973,7 +3938,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="1">
-        <v>45015.878449074102</v>
+        <v>45015.878449074073</v>
       </c>
       <c r="C51">
         <v>58</v>
@@ -4035,7 +4000,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="1">
-        <v>45015.879513888904</v>
+        <v>45015.879513888889</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -4097,7 +4062,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="1">
-        <v>45015.890914351898</v>
+        <v>45015.890914351847</v>
       </c>
       <c r="C53">
         <v>12</v>
@@ -4159,7 +4124,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="1">
-        <v>45015.897685185198</v>
+        <v>45015.897685185177</v>
       </c>
       <c r="C54">
         <v>583</v>
@@ -4221,7 +4186,7 @@
         <v>37</v>
       </c>
       <c r="B55" s="1">
-        <v>45015.9121759259</v>
+        <v>45015.912175925929</v>
       </c>
       <c r="C55">
         <v>2655</v>
@@ -4283,7 +4248,7 @@
         <v>37</v>
       </c>
       <c r="B56" s="1">
-        <v>45015.970983796302</v>
+        <v>45015.970983796287</v>
       </c>
       <c r="C56">
         <v>46</v>
@@ -4345,7 +4310,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="1">
-        <v>45015.979918981502</v>
+        <v>45015.97991898148</v>
       </c>
       <c r="D57" t="s">
         <v>38</v>
@@ -4427,7 +4392,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="1">
-        <v>45015.982037037</v>
+        <v>45015.982037037043</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
@@ -4468,7 +4433,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="1">
-        <v>45015.982094907398</v>
+        <v>45015.982094907413</v>
       </c>
       <c r="D60" t="s">
         <v>79</v>
@@ -4509,7 +4474,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="1">
-        <v>45015.982291666704</v>
+        <v>45015.982291666667</v>
       </c>
       <c r="D61" t="s">
         <v>38</v>
@@ -4612,7 +4577,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="1">
-        <v>45015.9828935185</v>
+        <v>45015.982893518521</v>
       </c>
       <c r="D63" t="s">
         <v>38</v>
@@ -4694,7 +4659,7 @@
         <v>48</v>
       </c>
       <c r="B65" s="1">
-        <v>45015.983622685198</v>
+        <v>45015.983622685177</v>
       </c>
       <c r="D65" t="s">
         <v>38</v>
@@ -4735,7 +4700,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="1">
-        <v>45015.984363425901</v>
+        <v>45015.984363425923</v>
       </c>
       <c r="D66" t="s">
         <v>38</v>
@@ -4803,7 +4768,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="1">
-        <v>45015.984432870398</v>
+        <v>45015.984432870369</v>
       </c>
       <c r="D67" t="s">
         <v>38</v>
@@ -4844,7 +4809,7 @@
         <v>48</v>
       </c>
       <c r="B68" s="1">
-        <v>45015.9855902778</v>
+        <v>45015.985590277778</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -4912,7 +4877,7 @@
         <v>48</v>
       </c>
       <c r="B69" s="1">
-        <v>45015.986226851899</v>
+        <v>45015.986226851863</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -4980,7 +4945,7 @@
         <v>48</v>
       </c>
       <c r="B70" s="1">
-        <v>45015.986631944397</v>
+        <v>45015.986631944441</v>
       </c>
       <c r="D70" t="s">
         <v>61</v>
@@ -5021,7 +4986,7 @@
         <v>48</v>
       </c>
       <c r="B71" s="1">
-        <v>45015.986921296302</v>
+        <v>45015.986921296288</v>
       </c>
       <c r="D71" t="s">
         <v>61</v>
@@ -5062,7 +5027,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="1">
-        <v>45015.986944444398</v>
+        <v>45015.986944444441</v>
       </c>
       <c r="D72" t="s">
         <v>38</v>
@@ -5192,7 +5157,7 @@
         <v>48</v>
       </c>
       <c r="B74" s="1">
-        <v>45015.987743055601</v>
+        <v>45015.987743055557</v>
       </c>
       <c r="D74" t="s">
         <v>38</v>
@@ -5274,7 +5239,7 @@
         <v>48</v>
       </c>
       <c r="B76" s="1">
-        <v>45016.017847222203</v>
+        <v>45016.017847222232</v>
       </c>
       <c r="D76" t="s">
         <v>61</v>
@@ -5315,7 +5280,7 @@
         <v>48</v>
       </c>
       <c r="B77" s="1">
-        <v>45016.018310185202</v>
+        <v>45016.018310185187</v>
       </c>
       <c r="D77" t="s">
         <v>38</v>
@@ -5356,7 +5321,7 @@
         <v>48</v>
       </c>
       <c r="B78" s="1">
-        <v>45016.018761574102</v>
+        <v>45016.018761574072</v>
       </c>
       <c r="D78" t="s">
         <v>61</v>
@@ -5397,7 +5362,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="1">
-        <v>45016.019201388903</v>
+        <v>45016.019201388888</v>
       </c>
       <c r="D79" t="s">
         <v>38</v>
@@ -5438,7 +5403,7 @@
         <v>48</v>
       </c>
       <c r="B80" s="1">
-        <v>45016.019583333298</v>
+        <v>45016.019583333327</v>
       </c>
       <c r="D80" t="s">
         <v>38</v>
@@ -5479,7 +5444,7 @@
         <v>37</v>
       </c>
       <c r="B81" s="1">
-        <v>45016.0491203704</v>
+        <v>45016.049120370371</v>
       </c>
       <c r="C81">
         <v>7</v>
@@ -5541,7 +5506,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="1">
-        <v>45016.050763888903</v>
+        <v>45016.050763888888</v>
       </c>
       <c r="C82">
         <v>14</v>
@@ -5603,7 +5568,7 @@
         <v>37</v>
       </c>
       <c r="B83" s="1">
-        <v>45016.054259259297</v>
+        <v>45016.054259259261</v>
       </c>
       <c r="C83">
         <v>13</v>
@@ -5665,7 +5630,7 @@
         <v>37</v>
       </c>
       <c r="B84" s="1">
-        <v>45016.0574768519</v>
+        <v>45016.057476851849</v>
       </c>
       <c r="C84">
         <v>105</v>
@@ -5727,7 +5692,7 @@
         <v>48</v>
       </c>
       <c r="B85" s="1">
-        <v>45016.059467592597</v>
+        <v>45016.059467592589</v>
       </c>
       <c r="D85" t="s">
         <v>49</v>
@@ -5795,7 +5760,7 @@
         <v>37</v>
       </c>
       <c r="B86" s="1">
-        <v>45016.061134259297</v>
+        <v>45016.06113425926</v>
       </c>
       <c r="C86">
         <v>48</v>
@@ -5857,7 +5822,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="1">
-        <v>45016.061168981498</v>
+        <v>45016.061168981483</v>
       </c>
       <c r="D87" t="s">
         <v>38</v>
@@ -5925,7 +5890,7 @@
         <v>48</v>
       </c>
       <c r="B88" s="1">
-        <v>45016.061631944503</v>
+        <v>45016.061631944453</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
@@ -5993,7 +5958,7 @@
         <v>48</v>
       </c>
       <c r="B89" s="1">
-        <v>45016.0624074074</v>
+        <v>45016.062407407408</v>
       </c>
       <c r="D89" t="s">
         <v>49</v>
@@ -6061,7 +6026,7 @@
         <v>37</v>
       </c>
       <c r="B90" s="1">
-        <v>45016.072280092601</v>
+        <v>45016.072280092587</v>
       </c>
       <c r="C90">
         <v>6014</v>
@@ -6123,7 +6088,7 @@
         <v>48</v>
       </c>
       <c r="B91" s="1">
-        <v>45016.094756944498</v>
+        <v>45016.094756944447</v>
       </c>
       <c r="D91" t="s">
         <v>61</v>
@@ -6164,7 +6129,7 @@
         <v>48</v>
       </c>
       <c r="B92" s="1">
-        <v>45016.096168981501</v>
+        <v>45016.096168981479</v>
       </c>
       <c r="D92" t="s">
         <v>61</v>
@@ -6205,7 +6170,7 @@
         <v>48</v>
       </c>
       <c r="B93" s="1">
-        <v>45016.096666666701</v>
+        <v>45016.096666666657</v>
       </c>
       <c r="D93" t="s">
         <v>38</v>
@@ -6246,7 +6211,7 @@
         <v>48</v>
       </c>
       <c r="B94" s="1">
-        <v>45016.097106481502</v>
+        <v>45016.09710648148</v>
       </c>
       <c r="D94" t="s">
         <v>61</v>
@@ -6287,7 +6252,7 @@
         <v>48</v>
       </c>
       <c r="B95" s="1">
-        <v>45016.144004629597</v>
+        <v>45016.144004629627</v>
       </c>
       <c r="D95" t="s">
         <v>38</v>
@@ -6328,7 +6293,7 @@
         <v>48</v>
       </c>
       <c r="B96" s="1">
-        <v>45016.146377314799</v>
+        <v>45016.146377314813</v>
       </c>
       <c r="D96" t="s">
         <v>61</v>
@@ -6369,7 +6334,7 @@
         <v>48</v>
       </c>
       <c r="B97" s="1">
-        <v>45016.146516203698</v>
+        <v>45016.146516203713</v>
       </c>
       <c r="D97" t="s">
         <v>61</v>
@@ -6410,7 +6375,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="1">
-        <v>45016.181111111102</v>
+        <v>45016.181111111109</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6472,7 +6437,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="1">
-        <v>45016.185729166697</v>
+        <v>45016.185729166667</v>
       </c>
       <c r="D99" t="s">
         <v>61</v>
@@ -6513,7 +6478,7 @@
         <v>48</v>
       </c>
       <c r="B100" s="1">
-        <v>45016.186469907399</v>
+        <v>45016.186469907407</v>
       </c>
       <c r="D100" t="s">
         <v>61</v>
@@ -6554,7 +6519,7 @@
         <v>48</v>
       </c>
       <c r="B101" s="1">
-        <v>45016.186747685198</v>
+        <v>45016.186747685177</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
@@ -6595,7 +6560,7 @@
         <v>48</v>
       </c>
       <c r="B102" s="1">
-        <v>45016.187083333301</v>
+        <v>45016.187083333331</v>
       </c>
       <c r="D102" t="s">
         <v>38</v>
@@ -6636,7 +6601,7 @@
         <v>48</v>
       </c>
       <c r="B103" s="1">
-        <v>45016.187708333302</v>
+        <v>45016.187708333331</v>
       </c>
       <c r="D103" t="s">
         <v>38</v>
@@ -6718,7 +6683,7 @@
         <v>37</v>
       </c>
       <c r="B105" s="1">
-        <v>45016.189004629603</v>
+        <v>45016.189004629632</v>
       </c>
       <c r="C105">
         <v>408</v>
@@ -6780,7 +6745,7 @@
         <v>37</v>
       </c>
       <c r="B106" s="1">
-        <v>45016.206550925897</v>
+        <v>45016.206550925926</v>
       </c>
       <c r="C106">
         <v>4019</v>
@@ -6842,7 +6807,7 @@
         <v>48</v>
       </c>
       <c r="B107" s="1">
-        <v>45016.211712962999</v>
+        <v>45016.211712962962</v>
       </c>
       <c r="D107" t="s">
         <v>61</v>
@@ -6883,7 +6848,7 @@
         <v>48</v>
       </c>
       <c r="B108" s="1">
-        <v>45016.212986111103</v>
+        <v>45016.21298611111</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
@@ -6924,7 +6889,7 @@
         <v>48</v>
       </c>
       <c r="B109" s="1">
-        <v>45016.213472222204</v>
+        <v>45016.213472222233</v>
       </c>
       <c r="D109" t="s">
         <v>61</v>
@@ -7006,7 +6971,7 @@
         <v>48</v>
       </c>
       <c r="B111" s="1">
-        <v>45016.215150463002</v>
+        <v>45016.215150462973</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
@@ -7047,7 +7012,7 @@
         <v>48</v>
       </c>
       <c r="B112" s="1">
-        <v>45016.215324074103</v>
+        <v>45016.215324074074</v>
       </c>
       <c r="D112" t="s">
         <v>61</v>
@@ -7088,7 +7053,7 @@
         <v>48</v>
       </c>
       <c r="B113" s="1">
-        <v>45016.236608796302</v>
+        <v>45016.236608796287</v>
       </c>
       <c r="D113" t="s">
         <v>38</v>
@@ -7129,7 +7094,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="1">
-        <v>45016.238043981502</v>
+        <v>45016.238043981481</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
@@ -7170,7 +7135,7 @@
         <v>48</v>
       </c>
       <c r="B115" s="1">
-        <v>45016.238379629598</v>
+        <v>45016.238379629627</v>
       </c>
       <c r="D115" t="s">
         <v>61</v>
@@ -7211,7 +7176,7 @@
         <v>48</v>
       </c>
       <c r="B116" s="1">
-        <v>45016.238935185203</v>
+        <v>45016.238935185182</v>
       </c>
       <c r="D116" t="s">
         <v>38</v>
@@ -7334,7 +7299,7 @@
         <v>48</v>
       </c>
       <c r="B119" s="1">
-        <v>45016.249756944497</v>
+        <v>45016.249756944453</v>
       </c>
       <c r="D119" t="s">
         <v>38</v>
@@ -7375,7 +7340,7 @@
         <v>48</v>
       </c>
       <c r="B120" s="1">
-        <v>45016.251319444498</v>
+        <v>45016.251319444447</v>
       </c>
       <c r="D120" t="s">
         <v>38</v>
@@ -7416,7 +7381,7 @@
         <v>48</v>
       </c>
       <c r="B121" s="1">
-        <v>45016.251909722203</v>
+        <v>45016.251909722218</v>
       </c>
       <c r="D121" t="s">
         <v>60</v>
@@ -7457,7 +7422,7 @@
         <v>48</v>
       </c>
       <c r="B122" s="1">
-        <v>45016.252627314803</v>
+        <v>45016.252627314818</v>
       </c>
       <c r="D122" t="s">
         <v>38</v>
@@ -7498,7 +7463,7 @@
         <v>48</v>
       </c>
       <c r="B123" s="1">
-        <v>45016.252800925897</v>
+        <v>45016.252800925933</v>
       </c>
       <c r="D123" t="s">
         <v>38</v>
@@ -7539,7 +7504,7 @@
         <v>48</v>
       </c>
       <c r="B124" s="1">
-        <v>45016.253356481502</v>
+        <v>45016.25335648148</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
@@ -7580,7 +7545,7 @@
         <v>48</v>
       </c>
       <c r="B125" s="1">
-        <v>45016.258020833302</v>
+        <v>45016.258020833331</v>
       </c>
       <c r="D125" t="s">
         <v>38</v>
@@ -7621,7 +7586,7 @@
         <v>48</v>
       </c>
       <c r="B126" s="1">
-        <v>45016.261134259301</v>
+        <v>45016.261134259257</v>
       </c>
       <c r="D126" t="s">
         <v>38</v>
@@ -7662,7 +7627,7 @@
         <v>48</v>
       </c>
       <c r="B127" s="1">
-        <v>45016.263159722199</v>
+        <v>45016.263159722221</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
@@ -7703,7 +7668,7 @@
         <v>48</v>
       </c>
       <c r="B128" s="1">
-        <v>45016.263402777797</v>
+        <v>45016.263402777768</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
@@ -7744,7 +7709,7 @@
         <v>48</v>
       </c>
       <c r="B129" s="1">
-        <v>45016.264918981498</v>
+        <v>45016.264918981477</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
@@ -7785,7 +7750,7 @@
         <v>48</v>
       </c>
       <c r="B130" s="1">
-        <v>45016.266134259298</v>
+        <v>45016.266134259262</v>
       </c>
       <c r="D130" t="s">
         <v>38</v>
@@ -7867,7 +7832,7 @@
         <v>48</v>
       </c>
       <c r="B132" s="1">
-        <v>45016.267048611102</v>
+        <v>45016.267048611109</v>
       </c>
       <c r="D132" t="s">
         <v>38</v>
@@ -7949,7 +7914,7 @@
         <v>48</v>
       </c>
       <c r="B134" s="1">
-        <v>45016.267650463</v>
+        <v>45016.267650462964</v>
       </c>
       <c r="D134" t="s">
         <v>38</v>
@@ -7990,7 +7955,7 @@
         <v>48</v>
       </c>
       <c r="B135" s="1">
-        <v>45016.2676967593</v>
+        <v>45016.267696759263</v>
       </c>
       <c r="D135" t="s">
         <v>38</v>
@@ -8031,7 +7996,7 @@
         <v>48</v>
       </c>
       <c r="B136" s="1">
-        <v>45016.268449074101</v>
+        <v>45016.268449074072</v>
       </c>
       <c r="D136" t="s">
         <v>72</v>
@@ -8072,7 +8037,7 @@
         <v>48</v>
       </c>
       <c r="B137" s="1">
-        <v>45016.268645833297</v>
+        <v>45016.268645833326</v>
       </c>
       <c r="D137" t="s">
         <v>38</v>
@@ -8113,7 +8078,7 @@
         <v>48</v>
       </c>
       <c r="B138" s="1">
-        <v>45016.269340277802</v>
+        <v>45016.26934027778</v>
       </c>
       <c r="D138" t="s">
         <v>72</v>
@@ -8154,7 +8119,7 @@
         <v>48</v>
       </c>
       <c r="B139" s="1">
-        <v>45016.269837963002</v>
+        <v>45016.269837962973</v>
       </c>
       <c r="D139" t="s">
         <v>38</v>
@@ -8195,7 +8160,7 @@
         <v>48</v>
       </c>
       <c r="B140" s="1">
-        <v>45016.271574074097</v>
+        <v>45016.271574074082</v>
       </c>
       <c r="D140" t="s">
         <v>61</v>
@@ -8236,7 +8201,7 @@
         <v>59</v>
       </c>
       <c r="B141" s="1">
-        <v>45016.271585648101</v>
+        <v>45016.271585648137</v>
       </c>
       <c r="C141">
         <v>42</v>
@@ -8301,7 +8266,7 @@
         <v>48</v>
       </c>
       <c r="B142" s="1">
-        <v>45016.272465277798</v>
+        <v>45016.272465277783</v>
       </c>
       <c r="D142" t="s">
         <v>38</v>
@@ -8342,7 +8307,7 @@
         <v>48</v>
       </c>
       <c r="B143" s="1">
-        <v>45016.273055555597</v>
+        <v>45016.273055555554</v>
       </c>
       <c r="D143" t="s">
         <v>61</v>
@@ -8383,7 +8348,7 @@
         <v>48</v>
       </c>
       <c r="B144" s="1">
-        <v>45016.273136574098</v>
+        <v>45016.273136574076</v>
       </c>
       <c r="D144" t="s">
         <v>61</v>
@@ -8424,7 +8389,7 @@
         <v>48</v>
       </c>
       <c r="B145" s="1">
-        <v>45016.276597222197</v>
+        <v>45016.276597222219</v>
       </c>
       <c r="D145" t="s">
         <v>38</v>
@@ -8465,7 +8430,7 @@
         <v>59</v>
       </c>
       <c r="B146" s="1">
-        <v>45016.287916666697</v>
+        <v>45016.287916666668</v>
       </c>
       <c r="C146">
         <v>105</v>
@@ -8530,7 +8495,7 @@
         <v>37</v>
       </c>
       <c r="B147" s="1">
-        <v>45016.2976388889</v>
+        <v>45016.297638888893</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -8654,7 +8619,7 @@
         <v>48</v>
       </c>
       <c r="B149" s="1">
-        <v>45016.337430555599</v>
+        <v>45016.337430555563</v>
       </c>
       <c r="D149" t="s">
         <v>38</v>
@@ -8695,7 +8660,7 @@
         <v>48</v>
       </c>
       <c r="B150" s="1">
-        <v>45016.339675925898</v>
+        <v>45016.339675925927</v>
       </c>
       <c r="D150" t="s">
         <v>57</v>
@@ -8736,7 +8701,7 @@
         <v>48</v>
       </c>
       <c r="B151" s="1">
-        <v>45016.339895833298</v>
+        <v>45016.339895833327</v>
       </c>
       <c r="D151" t="s">
         <v>57</v>
@@ -8777,7 +8742,7 @@
         <v>48</v>
       </c>
       <c r="B152" s="1">
-        <v>45016.340208333299</v>
+        <v>45016.340208333328</v>
       </c>
       <c r="D152" t="s">
         <v>38</v>
@@ -8818,7 +8783,7 @@
         <v>48</v>
       </c>
       <c r="B153" s="1">
-        <v>45016.3406944444</v>
+        <v>45016.340694444443</v>
       </c>
       <c r="D153" t="s">
         <v>38</v>
@@ -8859,7 +8824,7 @@
         <v>48</v>
       </c>
       <c r="B154" s="1">
-        <v>45016.341585648202</v>
+        <v>45016.341585648152</v>
       </c>
       <c r="D154" t="s">
         <v>57</v>
@@ -8941,7 +8906,7 @@
         <v>48</v>
       </c>
       <c r="B156" s="1">
-        <v>45016.342615740701</v>
+        <v>45016.342615740738</v>
       </c>
       <c r="D156" t="s">
         <v>38</v>
@@ -8982,7 +8947,7 @@
         <v>37</v>
       </c>
       <c r="B157" s="1">
-        <v>45016.343553240702</v>
+        <v>45016.343553240738</v>
       </c>
       <c r="C157">
         <v>7325</v>
@@ -9044,7 +9009,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="1">
-        <v>45016.353611111103</v>
+        <v>45016.35361111111</v>
       </c>
       <c r="D158" t="s">
         <v>38</v>
@@ -9085,7 +9050,7 @@
         <v>48</v>
       </c>
       <c r="B159" s="1">
-        <v>45016.354965277802</v>
+        <v>45016.35496527778</v>
       </c>
       <c r="D159" t="s">
         <v>58</v>
@@ -9167,7 +9132,7 @@
         <v>48</v>
       </c>
       <c r="B161" s="1">
-        <v>45016.355520833298</v>
+        <v>45016.355520833327</v>
       </c>
       <c r="D161" t="s">
         <v>38</v>
@@ -9208,7 +9173,7 @@
         <v>48</v>
       </c>
       <c r="B162" s="1">
-        <v>45016.355694444399</v>
+        <v>45016.355694444443</v>
       </c>
       <c r="D162" t="s">
         <v>58</v>
@@ -9249,7 +9214,7 @@
         <v>48</v>
       </c>
       <c r="B163" s="1">
-        <v>45016.356168981503</v>
+        <v>45016.356168981481</v>
       </c>
       <c r="D163" t="s">
         <v>38</v>
@@ -9290,7 +9255,7 @@
         <v>48</v>
       </c>
       <c r="B164" s="1">
-        <v>45016.356435185196</v>
+        <v>45016.356435185182</v>
       </c>
       <c r="D164" t="s">
         <v>58</v>
@@ -9372,7 +9337,7 @@
         <v>48</v>
       </c>
       <c r="B166" s="1">
-        <v>45016.364652777796</v>
+        <v>45016.364652777767</v>
       </c>
       <c r="D166" t="s">
         <v>38</v>
@@ -9413,7 +9378,7 @@
         <v>48</v>
       </c>
       <c r="B167" s="1">
-        <v>45016.366898148197</v>
+        <v>45016.366898148153</v>
       </c>
       <c r="D167" t="s">
         <v>38</v>
@@ -9454,7 +9419,7 @@
         <v>48</v>
       </c>
       <c r="B168" s="1">
-        <v>45016.367615740703</v>
+        <v>45016.367615740739</v>
       </c>
       <c r="D168" t="s">
         <v>38</v>
@@ -9495,7 +9460,7 @@
         <v>48</v>
       </c>
       <c r="B169" s="1">
-        <v>45016.368298611102</v>
+        <v>45016.368298611109</v>
       </c>
       <c r="D169" t="s">
         <v>61</v>
@@ -9536,7 +9501,7 @@
         <v>48</v>
       </c>
       <c r="B170" s="1">
-        <v>45016.368877314802</v>
+        <v>45016.368877314817</v>
       </c>
       <c r="D170" t="s">
         <v>61</v>
@@ -9577,7 +9542,7 @@
         <v>48</v>
       </c>
       <c r="B171" s="1">
-        <v>45016.3690740741</v>
+        <v>45016.369074074071</v>
       </c>
       <c r="D171" t="s">
         <v>38</v>
@@ -9659,7 +9624,7 @@
         <v>48</v>
       </c>
       <c r="B173" s="1">
-        <v>45016.369942129597</v>
+        <v>45016.369942129633</v>
       </c>
       <c r="D173" t="s">
         <v>38</v>
@@ -9700,7 +9665,7 @@
         <v>59</v>
       </c>
       <c r="B174" s="1">
-        <v>45016.3921064815</v>
+        <v>45016.392106481479</v>
       </c>
       <c r="C174">
         <v>23</v>
@@ -9765,7 +9730,7 @@
         <v>48</v>
       </c>
       <c r="B175" s="1">
-        <v>45016.452303240701</v>
+        <v>45016.452303240738</v>
       </c>
       <c r="D175" t="s">
         <v>38</v>
@@ -9806,7 +9771,7 @@
         <v>48</v>
       </c>
       <c r="B176" s="1">
-        <v>45016.454259259299</v>
+        <v>45016.454259259262</v>
       </c>
       <c r="D176" t="s">
         <v>38</v>
@@ -9847,7 +9812,7 @@
         <v>48</v>
       </c>
       <c r="B177" s="1">
-        <v>45016.455034722203</v>
+        <v>45016.455034722218</v>
       </c>
       <c r="D177" t="s">
         <v>38</v>
@@ -9888,7 +9853,7 @@
         <v>48</v>
       </c>
       <c r="B178" s="1">
-        <v>45016.4554166667</v>
+        <v>45016.455416666657</v>
       </c>
       <c r="D178" t="s">
         <v>58</v>
@@ -9929,7 +9894,7 @@
         <v>48</v>
       </c>
       <c r="B179" s="1">
-        <v>45016.455856481502</v>
+        <v>45016.45585648148</v>
       </c>
       <c r="D179" t="s">
         <v>38</v>
@@ -10100,7 +10065,7 @@
         <v>48</v>
       </c>
       <c r="B182" s="1">
-        <v>45016.468217592599</v>
+        <v>45016.468217592592</v>
       </c>
       <c r="D182" t="s">
         <v>88</v>
@@ -10168,7 +10133,7 @@
         <v>48</v>
       </c>
       <c r="B183" s="1">
-        <v>45016.468379629601</v>
+        <v>45016.46837962963</v>
       </c>
       <c r="D183" t="s">
         <v>88</v>
@@ -10236,7 +10201,7 @@
         <v>37</v>
       </c>
       <c r="B184" s="1">
-        <v>45016.486296296302</v>
+        <v>45016.486296296287</v>
       </c>
       <c r="C184">
         <v>49</v>
@@ -10298,7 +10263,7 @@
         <v>37</v>
       </c>
       <c r="B185" s="1">
-        <v>45016.498310185198</v>
+        <v>45016.498310185183</v>
       </c>
       <c r="C185">
         <v>16200</v>
@@ -10360,7 +10325,7 @@
         <v>48</v>
       </c>
       <c r="B186" s="1">
-        <v>45016.515844907401</v>
+        <v>45016.515844907408</v>
       </c>
       <c r="D186" t="s">
         <v>38</v>
@@ -10428,7 +10393,7 @@
         <v>48</v>
       </c>
       <c r="B187" s="1">
-        <v>45016.517997685201</v>
+        <v>45016.517997685187</v>
       </c>
       <c r="D187" t="s">
         <v>63</v>
@@ -10496,7 +10461,7 @@
         <v>48</v>
       </c>
       <c r="B188" s="1">
-        <v>45016.518067129597</v>
+        <v>45016.518067129633</v>
       </c>
       <c r="D188" t="s">
         <v>63</v>
@@ -10564,7 +10529,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="1">
-        <v>45016.5217708333</v>
+        <v>45016.521770833337</v>
       </c>
       <c r="D189" t="s">
         <v>38</v>
@@ -10632,7 +10597,7 @@
         <v>48</v>
       </c>
       <c r="B190" s="1">
-        <v>45016.522916666698</v>
+        <v>45016.522916666669</v>
       </c>
       <c r="D190" t="s">
         <v>38</v>
@@ -10700,7 +10665,7 @@
         <v>48</v>
       </c>
       <c r="B191" s="1">
-        <v>45016.523634259298</v>
+        <v>45016.523634259262</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -10836,7 +10801,7 @@
         <v>48</v>
       </c>
       <c r="B193" s="1">
-        <v>45016.524618055599</v>
+        <v>45016.524618055562</v>
       </c>
       <c r="D193" t="s">
         <v>38</v>
@@ -10904,7 +10869,7 @@
         <v>48</v>
       </c>
       <c r="B194" s="1">
-        <v>45016.525173611102</v>
+        <v>45016.525173611109</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -10972,7 +10937,7 @@
         <v>59</v>
       </c>
       <c r="B195" s="1">
-        <v>45016.5297222222</v>
+        <v>45016.529722222222</v>
       </c>
       <c r="C195">
         <v>481</v>
@@ -11085,7 +11050,7 @@
         <v>48</v>
       </c>
       <c r="B196" s="1">
-        <v>45016.530833333301</v>
+        <v>45016.530833333331</v>
       </c>
       <c r="D196" t="s">
         <v>72</v>
@@ -11126,7 +11091,7 @@
         <v>48</v>
       </c>
       <c r="B197" s="1">
-        <v>45016.5324652778</v>
+        <v>45016.532465277778</v>
       </c>
       <c r="D197" t="s">
         <v>72</v>
@@ -11167,7 +11132,7 @@
         <v>48</v>
       </c>
       <c r="B198" s="1">
-        <v>45016.533171296302</v>
+        <v>45016.533171296287</v>
       </c>
       <c r="D198" t="s">
         <v>38</v>
@@ -11208,7 +11173,7 @@
         <v>48</v>
       </c>
       <c r="B199" s="1">
-        <v>45016.533356481501</v>
+        <v>45016.533356481479</v>
       </c>
       <c r="D199" t="s">
         <v>72</v>
@@ -11249,7 +11214,7 @@
         <v>48</v>
       </c>
       <c r="B200" s="1">
-        <v>45016.533854166701</v>
+        <v>45016.533854166657</v>
       </c>
       <c r="D200" t="s">
         <v>38</v>
@@ -11290,7 +11255,7 @@
         <v>48</v>
       </c>
       <c r="B201" s="1">
-        <v>45016.534212963001</v>
+        <v>45016.534212962957</v>
       </c>
       <c r="D201" t="s">
         <v>72</v>
@@ -11331,7 +11296,7 @@
         <v>48</v>
       </c>
       <c r="B202" s="1">
-        <v>45016.534791666701</v>
+        <v>45016.534791666672</v>
       </c>
       <c r="D202" t="s">
         <v>72</v>
@@ -11372,7 +11337,7 @@
         <v>48</v>
       </c>
       <c r="B203" s="1">
-        <v>45016.534976851901</v>
+        <v>45016.53497685185</v>
       </c>
       <c r="D203" t="s">
         <v>38</v>
@@ -11495,7 +11460,7 @@
         <v>48</v>
       </c>
       <c r="B206" s="1">
-        <v>45016.536307870403</v>
+        <v>45016.536307870367</v>
       </c>
       <c r="D206" t="s">
         <v>38</v>
@@ -11563,7 +11528,7 @@
         <v>48</v>
       </c>
       <c r="B207" s="1">
-        <v>45016.536388888897</v>
+        <v>45016.53638888889</v>
       </c>
       <c r="D207" t="s">
         <v>72</v>
@@ -11604,7 +11569,7 @@
         <v>59</v>
       </c>
       <c r="B208" s="1">
-        <v>45016.536759259303</v>
+        <v>45016.536759259259</v>
       </c>
       <c r="C208">
         <v>115</v>
@@ -11669,7 +11634,7 @@
         <v>48</v>
       </c>
       <c r="B209" s="1">
-        <v>45016.536886574097</v>
+        <v>45016.536886574067</v>
       </c>
       <c r="D209" t="s">
         <v>38</v>
@@ -11710,7 +11675,7 @@
         <v>48</v>
       </c>
       <c r="B210" s="1">
-        <v>45016.537094907399</v>
+        <v>45016.537094907413</v>
       </c>
       <c r="D210" t="s">
         <v>38</v>
@@ -11751,7 +11716,7 @@
         <v>48</v>
       </c>
       <c r="B211" s="1">
-        <v>45016.537210648101</v>
+        <v>45016.537210648137</v>
       </c>
       <c r="D211" t="s">
         <v>38</v>
@@ -11792,7 +11757,7 @@
         <v>59</v>
       </c>
       <c r="B212" s="1">
-        <v>45016.538541666698</v>
+        <v>45016.538541666669</v>
       </c>
       <c r="C212">
         <v>82</v>
@@ -11905,7 +11870,7 @@
         <v>48</v>
       </c>
       <c r="B213" s="1">
-        <v>45016.544050925899</v>
+        <v>45016.544050925928</v>
       </c>
       <c r="D213" t="s">
         <v>72</v>
@@ -11946,7 +11911,7 @@
         <v>48</v>
       </c>
       <c r="B214" s="1">
-        <v>45016.545694444401</v>
+        <v>45016.545694444438</v>
       </c>
       <c r="D214" t="s">
         <v>72</v>
@@ -11987,7 +11952,7 @@
         <v>48</v>
       </c>
       <c r="B215" s="1">
-        <v>45016.546458333301</v>
+        <v>45016.546458333331</v>
       </c>
       <c r="D215" t="s">
         <v>38</v>
@@ -12028,7 +11993,7 @@
         <v>48</v>
       </c>
       <c r="B216" s="1">
-        <v>45016.547106481499</v>
+        <v>45016.547106481477</v>
       </c>
       <c r="D216" t="s">
         <v>72</v>
@@ -12069,7 +12034,7 @@
         <v>48</v>
       </c>
       <c r="B217" s="1">
-        <v>45016.587430555599</v>
+        <v>45016.587430555563</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
@@ -12110,7 +12075,7 @@
         <v>48</v>
       </c>
       <c r="B218" s="1">
-        <v>45016.594432870399</v>
+        <v>45016.59443287037</v>
       </c>
       <c r="D218" t="s">
         <v>95</v>
@@ -12151,7 +12116,7 @@
         <v>59</v>
       </c>
       <c r="B219" s="1">
-        <v>45016.601006944496</v>
+        <v>45016.601006944453</v>
       </c>
       <c r="C219">
         <v>26</v>
@@ -12264,7 +12229,7 @@
         <v>48</v>
       </c>
       <c r="B220" s="1">
-        <v>45016.601817129602</v>
+        <v>45016.601817129631</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
@@ -12332,7 +12297,7 @@
         <v>48</v>
       </c>
       <c r="B221" s="1">
-        <v>45016.620474536998</v>
+        <v>45016.620474537027</v>
       </c>
       <c r="D221" t="s">
         <v>38</v>
@@ -12373,7 +12338,7 @@
         <v>48</v>
       </c>
       <c r="B222" s="1">
-        <v>45016.6225694444</v>
+        <v>45016.622569444437</v>
       </c>
       <c r="D222" t="s">
         <v>38</v>
@@ -12414,7 +12379,7 @@
         <v>48</v>
       </c>
       <c r="B223" s="1">
-        <v>45016.623182870397</v>
+        <v>45016.623182870368</v>
       </c>
       <c r="D223" t="s">
         <v>62</v>
@@ -12455,7 +12420,7 @@
         <v>59</v>
       </c>
       <c r="B224" s="1">
-        <v>45016.6518981482</v>
+        <v>45016.651898148149</v>
       </c>
       <c r="C224">
         <v>29</v>
@@ -12520,7 +12485,7 @@
         <v>59</v>
       </c>
       <c r="B225" s="1">
-        <v>45016.653518518498</v>
+        <v>45016.65351851852</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -12585,7 +12550,7 @@
         <v>48</v>
       </c>
       <c r="B226" s="1">
-        <v>45016.655277777798</v>
+        <v>45016.655277777783</v>
       </c>
       <c r="D226" t="s">
         <v>38</v>
@@ -12626,7 +12591,7 @@
         <v>48</v>
       </c>
       <c r="B227" s="1">
-        <v>45016.657627314802</v>
+        <v>45016.657627314817</v>
       </c>
       <c r="D227" t="s">
         <v>58</v>
@@ -12667,7 +12632,7 @@
         <v>48</v>
       </c>
       <c r="B228" s="1">
-        <v>45016.658298611103</v>
+        <v>45016.65829861111</v>
       </c>
       <c r="D228" t="s">
         <v>58</v>
@@ -12708,7 +12673,7 @@
         <v>37</v>
       </c>
       <c r="B229" s="1">
-        <v>45016.840972222199</v>
+        <v>45016.84097222222</v>
       </c>
       <c r="C229">
         <v>6</v>
@@ -12770,7 +12735,7 @@
         <v>37</v>
       </c>
       <c r="B230" s="1">
-        <v>45016.849710648101</v>
+        <v>45016.849710648137</v>
       </c>
       <c r="C230">
         <v>21</v>
@@ -12832,7 +12797,7 @@
         <v>37</v>
       </c>
       <c r="B231" s="1">
-        <v>45016.8588773148</v>
+        <v>45016.858877314808</v>
       </c>
       <c r="C231">
         <v>1550</v>
@@ -12956,7 +12921,7 @@
         <v>37</v>
       </c>
       <c r="B233" s="1">
-        <v>45016.895821759303</v>
+        <v>45016.895821759259</v>
       </c>
       <c r="C233">
         <v>544</v>
@@ -13018,7 +12983,7 @@
         <v>37</v>
       </c>
       <c r="B234" s="1">
-        <v>45016.909236111103</v>
+        <v>45016.909236111111</v>
       </c>
       <c r="C234">
         <v>176</v>
@@ -13080,7 +13045,7 @@
         <v>37</v>
       </c>
       <c r="B235" s="1">
-        <v>45016.919594907398</v>
+        <v>45016.919594907413</v>
       </c>
       <c r="C235">
         <v>468</v>
@@ -13142,7 +13107,7 @@
         <v>37</v>
       </c>
       <c r="B236" s="1">
-        <v>45016.937314814801</v>
+        <v>45016.937314814822</v>
       </c>
       <c r="C236">
         <v>10</v>
@@ -13204,7 +13169,7 @@
         <v>37</v>
       </c>
       <c r="B237" s="1">
-        <v>45016.946296296301</v>
+        <v>45016.946296296293</v>
       </c>
       <c r="C237">
         <v>4</v>
@@ -13328,7 +13293,7 @@
         <v>37</v>
       </c>
       <c r="B239" s="1">
-        <v>45017.013668981497</v>
+        <v>45017.013668981483</v>
       </c>
       <c r="C239">
         <v>43</v>
@@ -13390,7 +13355,7 @@
         <v>37</v>
       </c>
       <c r="B240" s="1">
-        <v>45017.024363425902</v>
+        <v>45017.024363425917</v>
       </c>
       <c r="C240">
         <v>2643</v>
@@ -13452,7 +13417,7 @@
         <v>48</v>
       </c>
       <c r="B241" s="1">
-        <v>45017.055671296301</v>
+        <v>45017.055671296293</v>
       </c>
       <c r="D241" t="s">
         <v>38</v>
@@ -13493,7 +13458,7 @@
         <v>48</v>
       </c>
       <c r="B242" s="1">
-        <v>45017.057418981502</v>
+        <v>45017.05741898148</v>
       </c>
       <c r="D242" t="s">
         <v>62</v>
@@ -13534,7 +13499,7 @@
         <v>48</v>
       </c>
       <c r="B243" s="1">
-        <v>45017.057997685202</v>
+        <v>45017.057997685188</v>
       </c>
       <c r="D243" t="s">
         <v>38</v>
@@ -13616,7 +13581,7 @@
         <v>48</v>
       </c>
       <c r="B245" s="1">
-        <v>45017.059224536999</v>
+        <v>45017.059224537043</v>
       </c>
       <c r="D245" t="s">
         <v>38</v>
@@ -13657,7 +13622,7 @@
         <v>48</v>
       </c>
       <c r="B246" s="1">
-        <v>45017.059571759302</v>
+        <v>45017.059571759259</v>
       </c>
       <c r="D246" t="s">
         <v>62</v>
@@ -13698,7 +13663,7 @@
         <v>48</v>
       </c>
       <c r="B247" s="1">
-        <v>45017.060266203698</v>
+        <v>45017.060266203713</v>
       </c>
       <c r="D247" t="s">
         <v>38</v>
@@ -13739,7 +13704,7 @@
         <v>48</v>
       </c>
       <c r="B248" s="1">
-        <v>45017.060347222199</v>
+        <v>45017.060347222221</v>
       </c>
       <c r="D248" t="s">
         <v>38</v>
@@ -13821,7 +13786,7 @@
         <v>48</v>
       </c>
       <c r="B250" s="1">
-        <v>45017.060856481497</v>
+        <v>45017.060856481483</v>
       </c>
       <c r="D250" t="s">
         <v>38</v>
@@ -13862,7 +13827,7 @@
         <v>37</v>
       </c>
       <c r="B251" s="1">
-        <v>45017.078298611101</v>
+        <v>45017.078298611108</v>
       </c>
       <c r="C251">
         <v>581</v>
@@ -13924,7 +13889,7 @@
         <v>37</v>
       </c>
       <c r="B252" s="1">
-        <v>45017.100162037001</v>
+        <v>45017.100162037037</v>
       </c>
       <c r="C252">
         <v>486</v>
@@ -13986,7 +13951,7 @@
         <v>48</v>
       </c>
       <c r="B253" s="1">
-        <v>45017.109293981499</v>
+        <v>45017.109293981477</v>
       </c>
       <c r="D253" t="s">
         <v>38</v>
@@ -14027,7 +13992,7 @@
         <v>48</v>
       </c>
       <c r="B254" s="1">
-        <v>45017.111608796302</v>
+        <v>45017.111608796287</v>
       </c>
       <c r="D254" t="s">
         <v>38</v>
@@ -14109,7 +14074,7 @@
         <v>48</v>
       </c>
       <c r="B256" s="1">
-        <v>45017.1124305556</v>
+        <v>45017.112430555557</v>
       </c>
       <c r="D256" t="s">
         <v>58</v>
@@ -14150,7 +14115,7 @@
         <v>48</v>
       </c>
       <c r="B257" s="1">
-        <v>45017.112951388903</v>
+        <v>45017.112951388888</v>
       </c>
       <c r="D257" t="s">
         <v>38</v>
@@ -14232,7 +14197,7 @@
         <v>48</v>
       </c>
       <c r="B259" s="1">
-        <v>45017.113252314797</v>
+        <v>45017.113252314812</v>
       </c>
       <c r="D259" t="s">
         <v>58</v>
@@ -14273,7 +14238,7 @@
         <v>37</v>
       </c>
       <c r="B260" s="1">
-        <v>45017.113518518498</v>
+        <v>45017.113518518519</v>
       </c>
       <c r="C260">
         <v>13</v>
@@ -14335,7 +14300,7 @@
         <v>48</v>
       </c>
       <c r="B261" s="1">
-        <v>45017.113854166702</v>
+        <v>45017.113854166673</v>
       </c>
       <c r="D261" t="s">
         <v>58</v>
@@ -14376,7 +14341,7 @@
         <v>48</v>
       </c>
       <c r="B262" s="1">
-        <v>45017.114745370403</v>
+        <v>45017.114745370367</v>
       </c>
       <c r="D262" t="s">
         <v>38</v>
@@ -14417,7 +14382,7 @@
         <v>48</v>
       </c>
       <c r="B263" s="1">
-        <v>45017.115555555603</v>
+        <v>45017.115555555552</v>
       </c>
       <c r="D263" t="s">
         <v>38</v>
@@ -14458,7 +14423,7 @@
         <v>37</v>
       </c>
       <c r="B264" s="1">
-        <v>45017.120601851901</v>
+        <v>45017.12060185185</v>
       </c>
       <c r="C264">
         <v>107</v>
@@ -14520,7 +14485,7 @@
         <v>37</v>
       </c>
       <c r="B265" s="1">
-        <v>45017.132627314801</v>
+        <v>45017.132627314822</v>
       </c>
       <c r="C265">
         <v>1932</v>
@@ -14695,7 +14660,7 @@
         <v>37</v>
       </c>
       <c r="B267" s="1">
-        <v>45017.171539351897</v>
+        <v>45017.171539351853</v>
       </c>
       <c r="C267">
         <v>14</v>
@@ -14757,7 +14722,7 @@
         <v>37</v>
       </c>
       <c r="B268" s="1">
-        <v>45017.1809953704</v>
+        <v>45017.180995370371</v>
       </c>
       <c r="C268">
         <v>5230</v>
@@ -14819,7 +14784,7 @@
         <v>48</v>
       </c>
       <c r="B269" s="1">
-        <v>45017.201932870397</v>
+        <v>45017.201932870368</v>
       </c>
       <c r="D269" t="s">
         <v>38</v>
@@ -14860,7 +14825,7 @@
         <v>48</v>
       </c>
       <c r="B270" s="1">
-        <v>45017.202881944497</v>
+        <v>45017.202881944453</v>
       </c>
       <c r="D270" t="s">
         <v>58</v>
@@ -14901,7 +14866,7 @@
         <v>48</v>
       </c>
       <c r="B271" s="1">
-        <v>45017.203275462998</v>
+        <v>45017.203275462962</v>
       </c>
       <c r="D271" t="s">
         <v>58</v>
@@ -14942,7 +14907,7 @@
         <v>48</v>
       </c>
       <c r="B272" s="1">
-        <v>45017.203518518501</v>
+        <v>45017.203518518523</v>
       </c>
       <c r="D272" t="s">
         <v>38</v>
@@ -14983,7 +14948,7 @@
         <v>48</v>
       </c>
       <c r="B273" s="1">
-        <v>45017.2038425926</v>
+        <v>45017.203842592593</v>
       </c>
       <c r="D273" t="s">
         <v>58</v>
@@ -15024,7 +14989,7 @@
         <v>48</v>
       </c>
       <c r="B274" s="1">
-        <v>45017.204120370399</v>
+        <v>45017.20412037037</v>
       </c>
       <c r="D274" t="s">
         <v>38</v>
@@ -15106,7 +15071,7 @@
         <v>48</v>
       </c>
       <c r="B276" s="1">
-        <v>45017.205590277801</v>
+        <v>45017.205590277779</v>
       </c>
       <c r="D276" t="s">
         <v>58</v>
@@ -15147,7 +15112,7 @@
         <v>48</v>
       </c>
       <c r="B277" s="1">
-        <v>45017.205787036997</v>
+        <v>45017.205787037034</v>
       </c>
       <c r="D277" t="s">
         <v>38</v>
@@ -15188,7 +15153,7 @@
         <v>48</v>
       </c>
       <c r="B278" s="1">
-        <v>45017.215231481503</v>
+        <v>45017.215231481481</v>
       </c>
       <c r="D278" t="s">
         <v>38</v>
@@ -15229,7 +15194,7 @@
         <v>48</v>
       </c>
       <c r="B279" s="1">
-        <v>45017.216099537</v>
+        <v>45017.216099537043</v>
       </c>
       <c r="D279" t="s">
         <v>57</v>
@@ -15270,7 +15235,7 @@
         <v>48</v>
       </c>
       <c r="B280" s="1">
-        <v>45017.216851851903</v>
+        <v>45017.216851851852</v>
       </c>
       <c r="D280" t="s">
         <v>57</v>
@@ -15311,7 +15276,7 @@
         <v>48</v>
       </c>
       <c r="B281" s="1">
-        <v>45017.217094907399</v>
+        <v>45017.217094907413</v>
       </c>
       <c r="D281" t="s">
         <v>38</v>
@@ -15352,7 +15317,7 @@
         <v>48</v>
       </c>
       <c r="B282" s="1">
-        <v>45017.2175347222</v>
+        <v>45017.217534722222</v>
       </c>
       <c r="D282" t="s">
         <v>57</v>
@@ -15393,7 +15358,7 @@
         <v>48</v>
       </c>
       <c r="B283" s="1">
-        <v>45017.2178935185</v>
+        <v>45017.217893518522</v>
       </c>
       <c r="D283" t="s">
         <v>57</v>
@@ -15434,7 +15399,7 @@
         <v>48</v>
       </c>
       <c r="B284" s="1">
-        <v>45017.218113425901</v>
+        <v>45017.218113425923</v>
       </c>
       <c r="D284" t="s">
         <v>38</v>
@@ -15475,7 +15440,7 @@
         <v>48</v>
       </c>
       <c r="B285" s="1">
-        <v>45017.218692129602</v>
+        <v>45017.218692129631</v>
       </c>
       <c r="D285" t="s">
         <v>38</v>
@@ -15516,7 +15481,7 @@
         <v>48</v>
       </c>
       <c r="B286" s="1">
-        <v>45017.218958333302</v>
+        <v>45017.218958333331</v>
       </c>
       <c r="D286" t="s">
         <v>57</v>
@@ -15557,7 +15522,7 @@
         <v>48</v>
       </c>
       <c r="B287" s="1">
-        <v>45017.238287036998</v>
+        <v>45017.238287037027</v>
       </c>
       <c r="D287" t="s">
         <v>38</v>
@@ -15625,7 +15590,7 @@
         <v>48</v>
       </c>
       <c r="B288" s="1">
-        <v>45017.240173611099</v>
+        <v>45017.240173611113</v>
       </c>
       <c r="D288" t="s">
         <v>38</v>
@@ -15693,7 +15658,7 @@
         <v>48</v>
       </c>
       <c r="B289" s="1">
-        <v>45017.240868055596</v>
+        <v>45017.240868055553</v>
       </c>
       <c r="D289" t="s">
         <v>74</v>
@@ -15761,7 +15726,7 @@
         <v>48</v>
       </c>
       <c r="B290" s="1">
-        <v>45017.241388888899</v>
+        <v>45017.241388888891</v>
       </c>
       <c r="D290" t="s">
         <v>74</v>
@@ -15897,7 +15862,7 @@
         <v>48</v>
       </c>
       <c r="B292" s="1">
-        <v>45017.2426388889</v>
+        <v>45017.242638888893</v>
       </c>
       <c r="D292" t="s">
         <v>38</v>
@@ -15965,7 +15930,7 @@
         <v>48</v>
       </c>
       <c r="B293" s="1">
-        <v>45017.243425925903</v>
+        <v>45017.243425925917</v>
       </c>
       <c r="D293" t="s">
         <v>38</v>
@@ -16033,7 +15998,7 @@
         <v>48</v>
       </c>
       <c r="B294" s="1">
-        <v>45017.244108796302</v>
+        <v>45017.244108796287</v>
       </c>
       <c r="D294" t="s">
         <v>74</v>
@@ -16169,7 +16134,7 @@
         <v>59</v>
       </c>
       <c r="B296" s="1">
-        <v>45017.278159722198</v>
+        <v>45017.27815972222</v>
       </c>
       <c r="D296" t="s">
         <v>38</v>
@@ -16210,7 +16175,7 @@
         <v>37</v>
       </c>
       <c r="B297" s="1">
-        <v>45017.290011574099</v>
+        <v>45017.290011574078</v>
       </c>
       <c r="C297">
         <v>820</v>
@@ -16272,7 +16237,7 @@
         <v>48</v>
       </c>
       <c r="B298" s="1">
-        <v>45017.301817129599</v>
+        <v>45017.301817129628</v>
       </c>
       <c r="D298" t="s">
         <v>38</v>
@@ -16313,7 +16278,7 @@
         <v>48</v>
       </c>
       <c r="B299" s="1">
-        <v>45017.302766203698</v>
+        <v>45017.302766203713</v>
       </c>
       <c r="D299" t="s">
         <v>38</v>
@@ -16354,7 +16319,7 @@
         <v>48</v>
       </c>
       <c r="B300" s="1">
-        <v>45017.303009259304</v>
+        <v>45017.30300925926</v>
       </c>
       <c r="D300" t="s">
         <v>60</v>
@@ -16395,7 +16360,7 @@
         <v>37</v>
       </c>
       <c r="B301" s="1">
-        <v>45017.303078703699</v>
+        <v>45017.303078703713</v>
       </c>
       <c r="C301">
         <v>28</v>
@@ -16457,7 +16422,7 @@
         <v>37</v>
       </c>
       <c r="B302" s="1">
-        <v>45017.312962962998</v>
+        <v>45017.312962962962</v>
       </c>
       <c r="C302">
         <v>489</v>
@@ -16519,7 +16484,7 @@
         <v>48</v>
       </c>
       <c r="B303" s="1">
-        <v>45017.320428240702</v>
+        <v>45017.320428240739</v>
       </c>
       <c r="D303" t="s">
         <v>88</v>
@@ -16587,7 +16552,7 @@
         <v>37</v>
       </c>
       <c r="B304" s="1">
-        <v>45017.323726851901</v>
+        <v>45017.32372685185</v>
       </c>
       <c r="C304">
         <v>443</v>
@@ -16649,7 +16614,7 @@
         <v>59</v>
       </c>
       <c r="B305" s="1">
-        <v>45017.325497685197</v>
+        <v>45017.325497685182</v>
       </c>
       <c r="C305">
         <v>407</v>
@@ -16714,7 +16679,7 @@
         <v>48</v>
       </c>
       <c r="B306" s="1">
-        <v>45017.332175925898</v>
+        <v>45017.332175925927</v>
       </c>
       <c r="D306" t="s">
         <v>118</v>
@@ -16755,7 +16720,7 @@
         <v>48</v>
       </c>
       <c r="B307" s="1">
-        <v>45017.333773148202</v>
+        <v>45017.333773148152</v>
       </c>
       <c r="D307" t="s">
         <v>38</v>
@@ -16796,7 +16761,7 @@
         <v>37</v>
       </c>
       <c r="B308" s="1">
-        <v>45017.334664351903</v>
+        <v>45017.334664351853</v>
       </c>
       <c r="C308">
         <v>133</v>
@@ -16858,7 +16823,7 @@
         <v>37</v>
       </c>
       <c r="B309" s="1">
-        <v>45017.3370601852</v>
+        <v>45017.337060185193</v>
       </c>
       <c r="C309">
         <v>155</v>
@@ -16920,7 +16885,7 @@
         <v>48</v>
       </c>
       <c r="B310" s="1">
-        <v>45017.345300925903</v>
+        <v>45017.345300925917</v>
       </c>
       <c r="D310" t="s">
         <v>88</v>
@@ -16988,7 +16953,7 @@
         <v>48</v>
       </c>
       <c r="B311" s="1">
-        <v>45017.346782407403</v>
+        <v>45017.346782407411</v>
       </c>
       <c r="D311" t="s">
         <v>49</v>
@@ -17056,7 +17021,7 @@
         <v>37</v>
       </c>
       <c r="B312" s="1">
-        <v>45017.348969907398</v>
+        <v>45017.348969907413</v>
       </c>
       <c r="C312">
         <v>56</v>
@@ -17118,7 +17083,7 @@
         <v>48</v>
       </c>
       <c r="B313" s="1">
-        <v>45017.352789351899</v>
+        <v>45017.352789351848</v>
       </c>
       <c r="D313" t="s">
         <v>72</v>
@@ -17159,7 +17124,7 @@
         <v>37</v>
       </c>
       <c r="B314" s="1">
-        <v>45017.355543981503</v>
+        <v>45017.355543981481</v>
       </c>
       <c r="C314">
         <v>296</v>
@@ -17221,7 +17186,7 @@
         <v>48</v>
       </c>
       <c r="B315" s="1">
-        <v>45017.356180555602</v>
+        <v>45017.356180555558</v>
       </c>
       <c r="D315" t="s">
         <v>38</v>
@@ -17289,7 +17254,7 @@
         <v>59</v>
       </c>
       <c r="B316" s="1">
-        <v>45017.3577083333</v>
+        <v>45017.357708333337</v>
       </c>
       <c r="C316">
         <v>38</v>
@@ -17402,7 +17367,7 @@
         <v>48</v>
       </c>
       <c r="B317" s="1">
-        <v>45017.361122685201</v>
+        <v>45017.361122685194</v>
       </c>
       <c r="D317" t="s">
         <v>38</v>
@@ -17443,7 +17408,7 @@
         <v>48</v>
       </c>
       <c r="B318" s="1">
-        <v>45017.362604166701</v>
+        <v>45017.362604166658</v>
       </c>
       <c r="D318" t="s">
         <v>72</v>
@@ -17484,7 +17449,7 @@
         <v>48</v>
       </c>
       <c r="B319" s="1">
-        <v>45017.362916666701</v>
+        <v>45017.362916666672</v>
       </c>
       <c r="D319" t="s">
         <v>72</v>
@@ -17566,7 +17531,7 @@
         <v>48</v>
       </c>
       <c r="B321" s="1">
-        <v>45017.364247685196</v>
+        <v>45017.364247685182</v>
       </c>
       <c r="D321" t="s">
         <v>38</v>
@@ -17607,7 +17572,7 @@
         <v>48</v>
       </c>
       <c r="B322" s="1">
-        <v>45017.364872685197</v>
+        <v>45017.364872685182</v>
       </c>
       <c r="D322" t="s">
         <v>72</v>
@@ -17648,7 +17613,7 @@
         <v>59</v>
       </c>
       <c r="B323" s="1">
-        <v>45017.365057870396</v>
+        <v>45017.365057870367</v>
       </c>
       <c r="C323">
         <v>348</v>
@@ -17713,7 +17678,7 @@
         <v>48</v>
       </c>
       <c r="B324" s="1">
-        <v>45017.365509259304</v>
+        <v>45017.36550925926</v>
       </c>
       <c r="D324" t="s">
         <v>38</v>
@@ -17754,7 +17719,7 @@
         <v>48</v>
       </c>
       <c r="B325" s="1">
-        <v>45017.366180555597</v>
+        <v>45017.366180555553</v>
       </c>
       <c r="D325" t="s">
         <v>38</v>
@@ -17836,7 +17801,7 @@
         <v>37</v>
       </c>
       <c r="B327" s="1">
-        <v>45017.368298611102</v>
+        <v>45017.368298611109</v>
       </c>
       <c r="C327">
         <v>5</v>
@@ -17898,7 +17863,7 @@
         <v>37</v>
       </c>
       <c r="B328" s="1">
-        <v>45017.373148148101</v>
+        <v>45017.373148148137</v>
       </c>
       <c r="C328">
         <v>11</v>
@@ -17960,7 +17925,7 @@
         <v>48</v>
       </c>
       <c r="B329" s="1">
-        <v>45017.374872685199</v>
+        <v>45017.374872685177</v>
       </c>
       <c r="D329" t="s">
         <v>38</v>
@@ -18001,7 +17966,7 @@
         <v>59</v>
       </c>
       <c r="B330" s="1">
-        <v>45017.382280092599</v>
+        <v>45017.382280092592</v>
       </c>
       <c r="C330">
         <v>389</v>
@@ -18114,7 +18079,7 @@
         <v>37</v>
       </c>
       <c r="B331" s="1">
-        <v>45017.383252314801</v>
+        <v>45017.383252314823</v>
       </c>
       <c r="C331">
         <v>1489</v>
@@ -18176,7 +18141,7 @@
         <v>48</v>
       </c>
       <c r="B332" s="1">
-        <v>45017.383912037003</v>
+        <v>45017.383912037039</v>
       </c>
       <c r="D332" t="s">
         <v>80</v>
@@ -18244,7 +18209,7 @@
         <v>48</v>
       </c>
       <c r="B333" s="1">
-        <v>45017.3855092593</v>
+        <v>45017.385509259257</v>
       </c>
       <c r="D333" t="s">
         <v>38</v>
@@ -18312,7 +18277,7 @@
         <v>48</v>
       </c>
       <c r="B334" s="1">
-        <v>45017.386180555601</v>
+        <v>45017.386180555557</v>
       </c>
       <c r="D334" t="s">
         <v>38</v>
@@ -18380,7 +18345,7 @@
         <v>48</v>
       </c>
       <c r="B335" s="1">
-        <v>45017.386736111097</v>
+        <v>45017.386736111112</v>
       </c>
       <c r="D335" t="s">
         <v>80</v>
@@ -18448,7 +18413,7 @@
         <v>48</v>
       </c>
       <c r="B336" s="1">
-        <v>45017.387199074103</v>
+        <v>45017.387199074074</v>
       </c>
       <c r="D336" t="s">
         <v>38</v>
@@ -18516,7 +18481,7 @@
         <v>48</v>
       </c>
       <c r="B337" s="1">
-        <v>45017.387465277803</v>
+        <v>45017.387465277781</v>
       </c>
       <c r="D337" t="s">
         <v>80</v>
@@ -18584,7 +18549,7 @@
         <v>48</v>
       </c>
       <c r="B338" s="1">
-        <v>45017.387685185196</v>
+        <v>45017.387685185182</v>
       </c>
       <c r="D338" t="s">
         <v>80</v>
@@ -18652,7 +18617,7 @@
         <v>48</v>
       </c>
       <c r="B339" s="1">
-        <v>45017.388113425899</v>
+        <v>45017.388113425928</v>
       </c>
       <c r="D339" t="s">
         <v>38</v>
@@ -18720,7 +18685,7 @@
         <v>48</v>
       </c>
       <c r="B340" s="1">
-        <v>45017.3885069444</v>
+        <v>45017.388506944437</v>
       </c>
       <c r="D340" t="s">
         <v>80</v>
@@ -18788,7 +18753,7 @@
         <v>48</v>
       </c>
       <c r="B341" s="1">
-        <v>45017.388611111099</v>
+        <v>45017.388611111113</v>
       </c>
       <c r="D341" t="s">
         <v>80</v>
@@ -18856,7 +18821,7 @@
         <v>48</v>
       </c>
       <c r="B342" s="1">
-        <v>45017.3893634259</v>
+        <v>45017.389363425929</v>
       </c>
       <c r="D342" t="s">
         <v>38</v>
@@ -18924,7 +18889,7 @@
         <v>48</v>
       </c>
       <c r="B343" s="1">
-        <v>45017.3900810185</v>
+        <v>45017.390081018522</v>
       </c>
       <c r="D343" t="s">
         <v>80</v>
@@ -18992,7 +18957,7 @@
         <v>48</v>
       </c>
       <c r="B344" s="1">
-        <v>45017.3907175926</v>
+        <v>45017.390717592592</v>
       </c>
       <c r="D344" t="s">
         <v>38</v>
@@ -19060,7 +19025,7 @@
         <v>48</v>
       </c>
       <c r="B345" s="1">
-        <v>45017.391087962998</v>
+        <v>45017.391087962962</v>
       </c>
       <c r="D345" t="s">
         <v>80</v>
@@ -19128,7 +19093,7 @@
         <v>59</v>
       </c>
       <c r="B346" s="1">
-        <v>45017.391087962998</v>
+        <v>45017.391087962962</v>
       </c>
       <c r="C346">
         <v>475</v>
@@ -19241,7 +19206,7 @@
         <v>48</v>
       </c>
       <c r="B347" s="1">
-        <v>45017.391273148198</v>
+        <v>45017.391273148147</v>
       </c>
       <c r="D347" t="s">
         <v>38</v>
@@ -19282,7 +19247,7 @@
         <v>48</v>
       </c>
       <c r="B348" s="1">
-        <v>45017.392280092601</v>
+        <v>45017.392280092587</v>
       </c>
       <c r="D348" t="s">
         <v>79</v>
@@ -19323,7 +19288,7 @@
         <v>48</v>
       </c>
       <c r="B349" s="1">
-        <v>45017.393136574101</v>
+        <v>45017.393136574072</v>
       </c>
       <c r="D349" t="s">
         <v>38</v>
@@ -19364,7 +19329,7 @@
         <v>48</v>
       </c>
       <c r="B350" s="1">
-        <v>45017.393240740697</v>
+        <v>45017.393240740741</v>
       </c>
       <c r="D350" t="s">
         <v>38</v>
@@ -19405,7 +19370,7 @@
         <v>48</v>
       </c>
       <c r="B351" s="1">
-        <v>45017.393425925897</v>
+        <v>45017.393425925933</v>
       </c>
       <c r="D351" t="s">
         <v>38</v>
@@ -19446,7 +19411,7 @@
         <v>48</v>
       </c>
       <c r="B352" s="1">
-        <v>45017.393495370401</v>
+        <v>45017.393495370372</v>
       </c>
       <c r="D352" t="s">
         <v>38</v>
@@ -19487,7 +19452,7 @@
         <v>48</v>
       </c>
       <c r="B353" s="1">
-        <v>45017.393831018497</v>
+        <v>45017.393831018519</v>
       </c>
       <c r="D353" t="s">
         <v>79</v>
@@ -19528,7 +19493,7 @@
         <v>48</v>
       </c>
       <c r="B354" s="1">
-        <v>45017.394548611097</v>
+        <v>45017.394548611112</v>
       </c>
       <c r="D354" t="s">
         <v>79</v>
@@ -19569,7 +19534,7 @@
         <v>48</v>
       </c>
       <c r="B355" s="1">
-        <v>45017.395081018498</v>
+        <v>45017.39508101852</v>
       </c>
       <c r="D355" t="s">
         <v>38</v>
@@ -19610,7 +19575,7 @@
         <v>48</v>
       </c>
       <c r="B356" s="1">
-        <v>45017.395104166702</v>
+        <v>45017.395104166673</v>
       </c>
       <c r="D356" t="s">
         <v>49</v>
@@ -19678,7 +19643,7 @@
         <v>48</v>
       </c>
       <c r="B357" s="1">
-        <v>45017.395729166703</v>
+        <v>45017.395729166667</v>
       </c>
       <c r="D357" t="s">
         <v>38</v>
@@ -19719,7 +19684,7 @@
         <v>48</v>
       </c>
       <c r="B358" s="1">
-        <v>45017.3961458333</v>
+        <v>45017.396145833343</v>
       </c>
       <c r="D358" t="s">
         <v>38</v>
@@ -19787,7 +19752,7 @@
         <v>48</v>
       </c>
       <c r="B359" s="1">
-        <v>45017.396782407399</v>
+        <v>45017.396782407413</v>
       </c>
       <c r="D359" t="s">
         <v>49</v>
@@ -19855,7 +19820,7 @@
         <v>48</v>
       </c>
       <c r="B360" s="1">
-        <v>45017.397523148204</v>
+        <v>45017.397523148153</v>
       </c>
       <c r="D360" t="s">
         <v>38</v>
@@ -19923,7 +19888,7 @@
         <v>48</v>
       </c>
       <c r="B361" s="1">
-        <v>45017.398159722201</v>
+        <v>45017.398159722223</v>
       </c>
       <c r="D361" t="s">
         <v>38</v>
@@ -19991,7 +19956,7 @@
         <v>48</v>
       </c>
       <c r="B362" s="1">
-        <v>45017.398634259298</v>
+        <v>45017.398634259262</v>
       </c>
       <c r="D362" t="s">
         <v>49</v>
@@ -20059,7 +20024,7 @@
         <v>48</v>
       </c>
       <c r="B363" s="1">
-        <v>45017.3988425926</v>
+        <v>45017.398842592593</v>
       </c>
       <c r="D363" t="s">
         <v>49</v>
@@ -20127,7 +20092,7 @@
         <v>48</v>
       </c>
       <c r="B364" s="1">
-        <v>45017.399351851898</v>
+        <v>45017.399351851847</v>
       </c>
       <c r="D364" t="s">
         <v>38</v>
@@ -20195,7 +20160,7 @@
         <v>48</v>
       </c>
       <c r="B365" s="1">
-        <v>45017.399895833303</v>
+        <v>45017.399895833332</v>
       </c>
       <c r="D365" t="s">
         <v>38</v>
@@ -20263,7 +20228,7 @@
         <v>48</v>
       </c>
       <c r="B366" s="1">
-        <v>45017.400335648199</v>
+        <v>45017.400335648148</v>
       </c>
       <c r="D366" t="s">
         <v>49</v>
@@ -20331,7 +20296,7 @@
         <v>48</v>
       </c>
       <c r="B367" s="1">
-        <v>45017.400902777801</v>
+        <v>45017.400902777779</v>
       </c>
       <c r="D367" t="s">
         <v>49</v>
@@ -20399,7 +20364,7 @@
         <v>48</v>
       </c>
       <c r="B368" s="1">
-        <v>45017.401388888902</v>
+        <v>45017.401388888888</v>
       </c>
       <c r="D368" t="s">
         <v>38</v>
@@ -20467,7 +20432,7 @@
         <v>48</v>
       </c>
       <c r="B369" s="1">
-        <v>45017.402152777802</v>
+        <v>45017.40215277778</v>
       </c>
       <c r="D369" t="s">
         <v>49</v>
@@ -20535,7 +20500,7 @@
         <v>48</v>
       </c>
       <c r="B370" s="1">
-        <v>45017.412465277797</v>
+        <v>45017.412465277783</v>
       </c>
       <c r="D370" t="s">
         <v>49</v>
@@ -20603,7 +20568,7 @@
         <v>48</v>
       </c>
       <c r="B371" s="1">
-        <v>45017.413807870398</v>
+        <v>45017.413807870369</v>
       </c>
       <c r="D371" t="s">
         <v>49</v>
@@ -20671,7 +20636,7 @@
         <v>48</v>
       </c>
       <c r="B372" s="1">
-        <v>45017.414548611101</v>
+        <v>45017.414548611108</v>
       </c>
       <c r="D372" t="s">
         <v>38</v>
@@ -20739,7 +20704,7 @@
         <v>48</v>
       </c>
       <c r="B373" s="1">
-        <v>45017.4148726852</v>
+        <v>45017.414872685193</v>
       </c>
       <c r="D373" t="s">
         <v>49</v>
@@ -20807,7 +20772,7 @@
         <v>48</v>
       </c>
       <c r="B374" s="1">
-        <v>45017.415196759299</v>
+        <v>45017.415196759262</v>
       </c>
       <c r="D374" t="s">
         <v>38</v>
@@ -20943,7 +20908,7 @@
         <v>48</v>
       </c>
       <c r="B376" s="1">
-        <v>45017.416145833296</v>
+        <v>45017.416145833333</v>
       </c>
       <c r="D376" t="s">
         <v>49</v>
@@ -21011,7 +20976,7 @@
         <v>48</v>
       </c>
       <c r="B377" s="1">
-        <v>45017.4164467593</v>
+        <v>45017.416446759264</v>
       </c>
       <c r="D377" t="s">
         <v>49</v>
@@ -21079,7 +21044,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="1">
-        <v>45017.417037036997</v>
+        <v>45017.417037037027</v>
       </c>
       <c r="D378" t="s">
         <v>38</v>
@@ -21147,7 +21112,7 @@
         <v>48</v>
       </c>
       <c r="B379" s="1">
-        <v>45017.417488425897</v>
+        <v>45017.417488425926</v>
       </c>
       <c r="D379" t="s">
         <v>49</v>
@@ -21215,7 +21180,7 @@
         <v>48</v>
       </c>
       <c r="B380" s="1">
-        <v>45017.417800925898</v>
+        <v>45017.417800925927</v>
       </c>
       <c r="D380" t="s">
         <v>38</v>
@@ -21283,7 +21248,7 @@
         <v>48</v>
       </c>
       <c r="B381" s="1">
-        <v>45017.418541666702</v>
+        <v>45017.418541666673</v>
       </c>
       <c r="D381" t="s">
         <v>49</v>
@@ -21351,7 +21316,7 @@
         <v>48</v>
       </c>
       <c r="B382" s="1">
-        <v>45017.4191319444</v>
+        <v>45017.419131944444</v>
       </c>
       <c r="D382" t="s">
         <v>38</v>
@@ -21419,7 +21384,7 @@
         <v>48</v>
       </c>
       <c r="B383" s="1">
-        <v>45017.419652777797</v>
+        <v>45017.419652777768</v>
       </c>
       <c r="D383" t="s">
         <v>38</v>
@@ -21487,7 +21452,7 @@
         <v>48</v>
       </c>
       <c r="B384" s="1">
-        <v>45017.4203935185</v>
+        <v>45017.420393518521</v>
       </c>
       <c r="D384" t="s">
         <v>49</v>
@@ -21623,7 +21588,7 @@
         <v>37</v>
       </c>
       <c r="B386" s="1">
-        <v>45017.423912036997</v>
+        <v>45017.42391203704</v>
       </c>
       <c r="C386">
         <v>27</v>
@@ -21685,7 +21650,7 @@
         <v>48</v>
       </c>
       <c r="B387" s="1">
-        <v>45017.425439814797</v>
+        <v>45017.425439814811</v>
       </c>
       <c r="D387" t="s">
         <v>72</v>
@@ -21726,7 +21691,7 @@
         <v>37</v>
       </c>
       <c r="B388" s="1">
-        <v>45017.426817129599</v>
+        <v>45017.426817129628</v>
       </c>
       <c r="C388">
         <v>177</v>
@@ -21788,7 +21753,7 @@
         <v>48</v>
       </c>
       <c r="B389" s="1">
-        <v>45017.427094907398</v>
+        <v>45017.427094907413</v>
       </c>
       <c r="D389" t="s">
         <v>72</v>
@@ -21829,7 +21794,7 @@
         <v>48</v>
       </c>
       <c r="B390" s="1">
-        <v>45017.4277546296</v>
+        <v>45017.427754629629</v>
       </c>
       <c r="D390" t="s">
         <v>72</v>
@@ -21870,7 +21835,7 @@
         <v>48</v>
       </c>
       <c r="B391" s="1">
-        <v>45017.428449074097</v>
+        <v>45017.428449074083</v>
       </c>
       <c r="D391" t="s">
         <v>38</v>
@@ -21911,7 +21876,7 @@
         <v>48</v>
       </c>
       <c r="B392" s="1">
-        <v>45017.4289699074</v>
+        <v>45017.428969907407</v>
       </c>
       <c r="D392" t="s">
         <v>38</v>
@@ -21952,7 +21917,7 @@
         <v>48</v>
       </c>
       <c r="B393" s="1">
-        <v>45017.429224537002</v>
+        <v>45017.429224537038</v>
       </c>
       <c r="D393" t="s">
         <v>72</v>
@@ -21993,7 +21958,7 @@
         <v>48</v>
       </c>
       <c r="B394" s="1">
-        <v>45017.429467592599</v>
+        <v>45017.429467592592</v>
       </c>
       <c r="D394" t="s">
         <v>38</v>
@@ -22034,7 +21999,7 @@
         <v>48</v>
       </c>
       <c r="B395" s="1">
-        <v>45017.4302314815</v>
+        <v>45017.430231481478</v>
       </c>
       <c r="D395" t="s">
         <v>72</v>
@@ -22075,7 +22040,7 @@
         <v>48</v>
       </c>
       <c r="B396" s="1">
-        <v>45017.431030092601</v>
+        <v>45017.431030092594</v>
       </c>
       <c r="D396" t="s">
         <v>38</v>
@@ -22116,7 +22081,7 @@
         <v>48</v>
       </c>
       <c r="B397" s="1">
-        <v>45017.433854166702</v>
+        <v>45017.433854166673</v>
       </c>
       <c r="D397" t="s">
         <v>38</v>
@@ -22157,7 +22122,7 @@
         <v>59</v>
       </c>
       <c r="B398" s="1">
-        <v>45017.436412037001</v>
+        <v>45017.436412037037</v>
       </c>
       <c r="C398">
         <v>191</v>
@@ -22222,7 +22187,7 @@
         <v>37</v>
       </c>
       <c r="B399" s="1">
-        <v>45017.440162036997</v>
+        <v>45017.440162037034</v>
       </c>
       <c r="C399">
         <v>9</v>
@@ -22284,7 +22249,7 @@
         <v>37</v>
       </c>
       <c r="B400" s="1">
-        <v>45017.446412037003</v>
+        <v>45017.446412037039</v>
       </c>
       <c r="C400">
         <v>30</v>
@@ -22346,7 +22311,7 @@
         <v>48</v>
       </c>
       <c r="B401" s="1">
-        <v>45017.448564814797</v>
+        <v>45017.448564814818</v>
       </c>
       <c r="D401" t="s">
         <v>49</v>
@@ -22414,7 +22379,7 @@
         <v>37</v>
       </c>
       <c r="B402" s="1">
-        <v>45017.456701388903</v>
+        <v>45017.456701388888</v>
       </c>
       <c r="C402">
         <v>1331</v>
@@ -22476,7 +22441,7 @@
         <v>48</v>
       </c>
       <c r="B403" s="1">
-        <v>45017.460960648197</v>
+        <v>45017.460960648154</v>
       </c>
       <c r="D403" t="s">
         <v>49</v>
@@ -22544,7 +22509,7 @@
         <v>48</v>
       </c>
       <c r="B404" s="1">
-        <v>45017.4618402778</v>
+        <v>45017.461840277778</v>
       </c>
       <c r="D404" t="s">
         <v>38</v>
@@ -22612,7 +22577,7 @@
         <v>48</v>
       </c>
       <c r="B405" s="1">
-        <v>45017.467604166697</v>
+        <v>45017.467604166668</v>
       </c>
       <c r="D405" t="s">
         <v>63</v>
@@ -22680,7 +22645,7 @@
         <v>59</v>
       </c>
       <c r="B406" s="1">
-        <v>45017.472152777802</v>
+        <v>45017.47215277778</v>
       </c>
       <c r="C406">
         <v>57</v>
@@ -22858,7 +22823,7 @@
         <v>48</v>
       </c>
       <c r="B408" s="1">
-        <v>45017.486469907402</v>
+        <v>45017.48646990741</v>
       </c>
       <c r="D408" t="s">
         <v>38</v>
@@ -22961,7 +22926,7 @@
         <v>48</v>
       </c>
       <c r="B410" s="1">
-        <v>45017.496631944399</v>
+        <v>45017.496631944443</v>
       </c>
       <c r="D410" t="s">
         <v>38</v>
@@ -23002,7 +22967,7 @@
         <v>48</v>
       </c>
       <c r="B411" s="1">
-        <v>45017.498912037001</v>
+        <v>45017.498912037037</v>
       </c>
       <c r="D411" t="s">
         <v>38</v>
@@ -23043,7 +23008,7 @@
         <v>48</v>
       </c>
       <c r="B412" s="1">
-        <v>45017.499259259297</v>
+        <v>45017.499259259261</v>
       </c>
       <c r="D412" t="s">
         <v>57</v>
@@ -23084,7 +23049,7 @@
         <v>48</v>
       </c>
       <c r="B413" s="1">
-        <v>45017.499710648197</v>
+        <v>45017.499710648153</v>
       </c>
       <c r="D413" t="s">
         <v>57</v>
@@ -23125,7 +23090,7 @@
         <v>48</v>
       </c>
       <c r="B414" s="1">
-        <v>45017.512974537</v>
+        <v>45017.512974537043</v>
       </c>
       <c r="D414" t="s">
         <v>38</v>
@@ -23166,7 +23131,7 @@
         <v>59</v>
       </c>
       <c r="B415" s="1">
-        <v>45017.521087963003</v>
+        <v>45017.521087962959</v>
       </c>
       <c r="C415">
         <v>39</v>
@@ -23231,7 +23196,7 @@
         <v>48</v>
       </c>
       <c r="B416" s="1">
-        <v>45017.5295833333</v>
+        <v>45017.529583333337</v>
       </c>
       <c r="D416" t="s">
         <v>38</v>
@@ -23272,7 +23237,7 @@
         <v>48</v>
       </c>
       <c r="B417" s="1">
-        <v>45017.530763888899</v>
+        <v>45017.530763888892</v>
       </c>
       <c r="D417" t="s">
         <v>38</v>
@@ -23340,7 +23305,7 @@
         <v>48</v>
       </c>
       <c r="B418" s="1">
-        <v>45017.531331018501</v>
+        <v>45017.531331018523</v>
       </c>
       <c r="D418" t="s">
         <v>62</v>
@@ -23422,7 +23387,7 @@
         <v>48</v>
       </c>
       <c r="B420" s="1">
-        <v>45017.531840277799</v>
+        <v>45017.531840277778</v>
       </c>
       <c r="D420" t="s">
         <v>38</v>
@@ -23490,7 +23455,7 @@
         <v>48</v>
       </c>
       <c r="B421" s="1">
-        <v>45017.532361111102</v>
+        <v>45017.532361111109</v>
       </c>
       <c r="D421" t="s">
         <v>38</v>
@@ -23558,7 +23523,7 @@
         <v>59</v>
       </c>
       <c r="B422" s="1">
-        <v>45017.544791666704</v>
+        <v>45017.544791666667</v>
       </c>
       <c r="C422">
         <v>2</v>
@@ -23623,7 +23588,7 @@
         <v>48</v>
       </c>
       <c r="B423" s="1">
-        <v>45017.567951388897</v>
+        <v>45017.56795138889</v>
       </c>
       <c r="D423" t="s">
         <v>58</v>
@@ -23664,7 +23629,7 @@
         <v>48</v>
       </c>
       <c r="B424" s="1">
-        <v>45017.569722222201</v>
+        <v>45017.569722222222</v>
       </c>
       <c r="D424" t="s">
         <v>58</v>
@@ -23705,7 +23670,7 @@
         <v>48</v>
       </c>
       <c r="B425" s="1">
-        <v>45017.570520833302</v>
+        <v>45017.570520833331</v>
       </c>
       <c r="D425" t="s">
         <v>38</v>
@@ -23746,7 +23711,7 @@
         <v>37</v>
       </c>
       <c r="B426" s="1">
-        <v>45017.786828703698</v>
+        <v>45017.786828703713</v>
       </c>
       <c r="C426">
         <v>126</v>
@@ -23808,7 +23773,7 @@
         <v>37</v>
       </c>
       <c r="B427" s="1">
-        <v>45017.796759259298</v>
+        <v>45017.796759259261</v>
       </c>
       <c r="C427">
         <v>142</v>
@@ -23932,7 +23897,7 @@
         <v>37</v>
       </c>
       <c r="B429" s="1">
-        <v>45017.8121412037</v>
+        <v>45017.812141203707</v>
       </c>
       <c r="C429">
         <v>3720</v>
@@ -23994,7 +23959,7 @@
         <v>59</v>
       </c>
       <c r="B430" s="1">
-        <v>45017.816898148201</v>
+        <v>45017.81689814815</v>
       </c>
       <c r="C430">
         <v>43</v>
@@ -24059,7 +24024,7 @@
         <v>59</v>
       </c>
       <c r="B431" s="1">
-        <v>45017.823611111096</v>
+        <v>45017.823611111111</v>
       </c>
       <c r="C431">
         <v>293</v>
@@ -24124,7 +24089,7 @@
         <v>37</v>
       </c>
       <c r="B432" s="1">
-        <v>45017.871331018498</v>
+        <v>45017.871331018519</v>
       </c>
       <c r="C432">
         <v>43</v>
@@ -24186,7 +24151,7 @@
         <v>37</v>
       </c>
       <c r="B433" s="1">
-        <v>45017.881469907399</v>
+        <v>45017.881469907406</v>
       </c>
       <c r="C433">
         <v>13</v>
@@ -24248,7 +24213,7 @@
         <v>37</v>
       </c>
       <c r="B434" s="1">
-        <v>45017.889629629601</v>
+        <v>45017.88962962963</v>
       </c>
       <c r="C434">
         <v>5502</v>
@@ -24310,7 +24275,7 @@
         <v>48</v>
       </c>
       <c r="B435" s="1">
-        <v>45017.906886574099</v>
+        <v>45017.906886574077</v>
       </c>
       <c r="D435" t="s">
         <v>38</v>
@@ -24378,7 +24343,7 @@
         <v>48</v>
       </c>
       <c r="B436" s="1">
-        <v>45017.9087268519</v>
+        <v>45017.908726851849</v>
       </c>
       <c r="D436" t="s">
         <v>63</v>
@@ -24446,7 +24411,7 @@
         <v>48</v>
       </c>
       <c r="B437" s="1">
-        <v>45017.909027777801</v>
+        <v>45017.90902777778</v>
       </c>
       <c r="D437" t="s">
         <v>38</v>
@@ -24514,7 +24479,7 @@
         <v>48</v>
       </c>
       <c r="B438" s="1">
-        <v>45017.909583333298</v>
+        <v>45017.909583333327</v>
       </c>
       <c r="D438" t="s">
         <v>63</v>
@@ -24582,7 +24547,7 @@
         <v>48</v>
       </c>
       <c r="B439" s="1">
-        <v>45017.910011574102</v>
+        <v>45017.910011574073</v>
       </c>
       <c r="D439" t="s">
         <v>38</v>
@@ -24650,7 +24615,7 @@
         <v>48</v>
       </c>
       <c r="B440" s="1">
-        <v>45017.910324074102</v>
+        <v>45017.910324074073</v>
       </c>
       <c r="D440" t="s">
         <v>63</v>
@@ -24786,7 +24751,7 @@
         <v>48</v>
       </c>
       <c r="B442" s="1">
-        <v>45017.917974536998</v>
+        <v>45017.917974537027</v>
       </c>
       <c r="D442" t="s">
         <v>38</v>
@@ -24827,7 +24792,7 @@
         <v>48</v>
       </c>
       <c r="B443" s="1">
-        <v>45017.920138888898</v>
+        <v>45017.920138888891</v>
       </c>
       <c r="D443" t="s">
         <v>38</v>
@@ -24909,7 +24874,7 @@
         <v>48</v>
       </c>
       <c r="B445" s="1">
-        <v>45017.921319444496</v>
+        <v>45017.921319444453</v>
       </c>
       <c r="D445" t="s">
         <v>61</v>
@@ -24991,7 +24956,7 @@
         <v>48</v>
       </c>
       <c r="B447" s="1">
-        <v>45017.922615740703</v>
+        <v>45017.922615740739</v>
       </c>
       <c r="D447" t="s">
         <v>38</v>
@@ -25032,7 +24997,7 @@
         <v>48</v>
       </c>
       <c r="B448" s="1">
-        <v>45017.922824074099</v>
+        <v>45017.922824074078</v>
       </c>
       <c r="D448" t="s">
         <v>61</v>
@@ -25073,7 +25038,7 @@
         <v>37</v>
       </c>
       <c r="B449" s="1">
-        <v>45017.980729166702</v>
+        <v>45017.980729166673</v>
       </c>
       <c r="C449">
         <v>785</v>
@@ -25135,7 +25100,7 @@
         <v>37</v>
       </c>
       <c r="B450" s="1">
-        <v>45018.005011574103</v>
+        <v>45018.005011574067</v>
       </c>
       <c r="C450">
         <v>2323</v>
@@ -25197,7 +25162,7 @@
         <v>48</v>
       </c>
       <c r="B451" s="1">
-        <v>45018.021759259304</v>
+        <v>45018.02175925926</v>
       </c>
       <c r="D451" t="s">
         <v>38</v>
@@ -25238,7 +25203,7 @@
         <v>48</v>
       </c>
       <c r="B452" s="1">
-        <v>45018.023506944497</v>
+        <v>45018.023506944453</v>
       </c>
       <c r="D452" t="s">
         <v>38</v>
@@ -25279,7 +25244,7 @@
         <v>48</v>
       </c>
       <c r="B453" s="1">
-        <v>45018.024097222202</v>
+        <v>45018.024097222216</v>
       </c>
       <c r="D453" t="s">
         <v>61</v>
@@ -25361,7 +25326,7 @@
         <v>48</v>
       </c>
       <c r="B455" s="1">
-        <v>45018.025092592601</v>
+        <v>45018.025092592587</v>
       </c>
       <c r="D455" t="s">
         <v>38</v>
@@ -25402,7 +25367,7 @@
         <v>48</v>
       </c>
       <c r="B456" s="1">
-        <v>45018.025381944499</v>
+        <v>45018.025381944448</v>
       </c>
       <c r="D456" t="s">
         <v>61</v>
@@ -25443,7 +25408,7 @@
         <v>48</v>
       </c>
       <c r="B457" s="1">
-        <v>45018.026099536997</v>
+        <v>45018.026099537034</v>
       </c>
       <c r="D457" t="s">
         <v>38</v>
@@ -25484,7 +25449,7 @@
         <v>48</v>
       </c>
       <c r="B458" s="1">
-        <v>45018.026446759301</v>
+        <v>45018.026446759257</v>
       </c>
       <c r="D458" t="s">
         <v>38</v>
@@ -25525,7 +25490,7 @@
         <v>37</v>
       </c>
       <c r="B459" s="1">
-        <v>45018.044861111099</v>
+        <v>45018.044861111113</v>
       </c>
       <c r="C459">
         <v>16</v>
@@ -25587,7 +25552,7 @@
         <v>48</v>
       </c>
       <c r="B460" s="1">
-        <v>45018.052314814799</v>
+        <v>45018.052314814813</v>
       </c>
       <c r="D460" t="s">
         <v>38</v>
@@ -25628,7 +25593,7 @@
         <v>48</v>
       </c>
       <c r="B461" s="1">
-        <v>45018.053321759297</v>
+        <v>45018.05332175926</v>
       </c>
       <c r="D461" t="s">
         <v>38</v>
@@ -25669,7 +25634,7 @@
         <v>48</v>
       </c>
       <c r="B462" s="1">
-        <v>45018.053530092599</v>
+        <v>45018.053530092591</v>
       </c>
       <c r="D462" t="s">
         <v>72</v>
@@ -25710,7 +25675,7 @@
         <v>48</v>
       </c>
       <c r="B463" s="1">
-        <v>45018.054201388899</v>
+        <v>45018.054201388892</v>
       </c>
       <c r="D463" t="s">
         <v>38</v>
@@ -25751,7 +25716,7 @@
         <v>48</v>
       </c>
       <c r="B464" s="1">
-        <v>45018.054398148197</v>
+        <v>45018.054398148153</v>
       </c>
       <c r="D464" t="s">
         <v>72</v>
@@ -25792,7 +25757,7 @@
         <v>48</v>
       </c>
       <c r="B465" s="1">
-        <v>45018.0545486111</v>
+        <v>45018.054548611108</v>
       </c>
       <c r="D465" t="s">
         <v>72</v>
@@ -25833,7 +25798,7 @@
         <v>48</v>
       </c>
       <c r="B466" s="1">
-        <v>45018.054895833302</v>
+        <v>45018.054895833331</v>
       </c>
       <c r="D466" t="s">
         <v>38</v>
@@ -25874,7 +25839,7 @@
         <v>48</v>
       </c>
       <c r="B467" s="1">
-        <v>45018.0550925926</v>
+        <v>45018.055092592593</v>
       </c>
       <c r="D467" t="s">
         <v>38</v>
@@ -25915,7 +25880,7 @@
         <v>48</v>
       </c>
       <c r="B468" s="1">
-        <v>45018.055983796301</v>
+        <v>45018.055983796286</v>
       </c>
       <c r="D468" t="s">
         <v>72</v>
@@ -25956,7 +25921,7 @@
         <v>37</v>
       </c>
       <c r="B469" s="1">
-        <v>45018.0562615741</v>
+        <v>45018.056261574071</v>
       </c>
       <c r="C469">
         <v>6</v>
@@ -26018,7 +25983,7 @@
         <v>48</v>
       </c>
       <c r="B470" s="1">
-        <v>45018.056284722203</v>
+        <v>45018.056284722217</v>
       </c>
       <c r="D470" t="s">
         <v>38</v>
@@ -26059,7 +26024,7 @@
         <v>48</v>
       </c>
       <c r="B471" s="1">
-        <v>45018.056365740696</v>
+        <v>45018.05636574074</v>
       </c>
       <c r="D471" t="s">
         <v>38</v>
@@ -26127,7 +26092,7 @@
         <v>48</v>
       </c>
       <c r="B472" s="1">
-        <v>45018.0569328704</v>
+        <v>45018.056932870371</v>
       </c>
       <c r="D472" t="s">
         <v>38</v>
@@ -26168,7 +26133,7 @@
         <v>48</v>
       </c>
       <c r="B473" s="1">
-        <v>45018.057349536997</v>
+        <v>45018.057349537034</v>
       </c>
       <c r="D473" t="s">
         <v>72</v>
@@ -26209,7 +26174,7 @@
         <v>37</v>
       </c>
       <c r="B474" s="1">
-        <v>45018.057754629597</v>
+        <v>45018.057754629634</v>
       </c>
       <c r="C474">
         <v>8</v>
@@ -26271,7 +26236,7 @@
         <v>37</v>
       </c>
       <c r="B475" s="1">
-        <v>45018.067592592597</v>
+        <v>45018.06759259259</v>
       </c>
       <c r="C475">
         <v>7362</v>
@@ -26333,7 +26298,7 @@
         <v>48</v>
       </c>
       <c r="B476" s="1">
-        <v>45018.071469907401</v>
+        <v>45018.071469907409</v>
       </c>
       <c r="D476" t="s">
         <v>38</v>
@@ -26374,7 +26339,7 @@
         <v>48</v>
       </c>
       <c r="B477" s="1">
-        <v>45018.080127314803</v>
+        <v>45018.080127314817</v>
       </c>
       <c r="D477" t="s">
         <v>58</v>
@@ -26415,7 +26380,7 @@
         <v>59</v>
       </c>
       <c r="B478" s="1">
-        <v>45018.086736111101</v>
+        <v>45018.086736111109</v>
       </c>
       <c r="C478">
         <v>188</v>
@@ -26658,7 +26623,7 @@
         <v>59</v>
       </c>
       <c r="B481" s="1">
-        <v>45018.118333333303</v>
+        <v>45018.118333333332</v>
       </c>
       <c r="C481">
         <v>475</v>
@@ -26723,7 +26688,7 @@
         <v>59</v>
       </c>
       <c r="B482" s="1">
-        <v>45018.146493055603</v>
+        <v>45018.146493055552</v>
       </c>
       <c r="C482">
         <v>76</v>
@@ -26788,7 +26753,7 @@
         <v>48</v>
       </c>
       <c r="B483" s="1">
-        <v>45018.1479861111</v>
+        <v>45018.147986111107</v>
       </c>
       <c r="D483" t="s">
         <v>38</v>
@@ -26829,7 +26794,7 @@
         <v>59</v>
       </c>
       <c r="B484" s="1">
-        <v>45018.152986111098</v>
+        <v>45018.152986111112</v>
       </c>
       <c r="C484">
         <v>361</v>
@@ -26894,7 +26859,7 @@
         <v>59</v>
       </c>
       <c r="B485" s="1">
-        <v>45018.154155092598</v>
+        <v>45018.15415509259</v>
       </c>
       <c r="C485">
         <v>523</v>
@@ -27007,7 +26972,7 @@
         <v>48</v>
       </c>
       <c r="B486" s="1">
-        <v>45018.1581365741</v>
+        <v>45018.158136574071</v>
       </c>
       <c r="D486" t="s">
         <v>38</v>
@@ -27075,7 +27040,7 @@
         <v>48</v>
       </c>
       <c r="B487" s="1">
-        <v>45018.158206018503</v>
+        <v>45018.158206018517</v>
       </c>
       <c r="D487" t="s">
         <v>61</v>
@@ -27116,7 +27081,7 @@
         <v>48</v>
       </c>
       <c r="B488" s="1">
-        <v>45018.159918981502</v>
+        <v>45018.159918981481</v>
       </c>
       <c r="D488" t="s">
         <v>38</v>
@@ -27198,7 +27163,7 @@
         <v>48</v>
       </c>
       <c r="B490" s="1">
-        <v>45018.160856481503</v>
+        <v>45018.160856481481</v>
       </c>
       <c r="D490" t="s">
         <v>61</v>
@@ -27239,7 +27204,7 @@
         <v>48</v>
       </c>
       <c r="B491" s="1">
-        <v>45018.1610069444</v>
+        <v>45018.161006944443</v>
       </c>
       <c r="D491" t="s">
         <v>61</v>
@@ -27280,7 +27245,7 @@
         <v>48</v>
       </c>
       <c r="B492" s="1">
-        <v>45018.161805555603</v>
+        <v>45018.161805555559</v>
       </c>
       <c r="D492" t="s">
         <v>38</v>
@@ -27321,7 +27286,7 @@
         <v>48</v>
       </c>
       <c r="B493" s="1">
-        <v>45018.162673611099</v>
+        <v>45018.162673611107</v>
       </c>
       <c r="D493" t="s">
         <v>61</v>
@@ -27362,7 +27327,7 @@
         <v>37</v>
       </c>
       <c r="B494" s="1">
-        <v>45018.162743055596</v>
+        <v>45018.162743055553</v>
       </c>
       <c r="C494">
         <v>2</v>
@@ -27424,7 +27389,7 @@
         <v>37</v>
       </c>
       <c r="B495" s="1">
-        <v>45018.163020833301</v>
+        <v>45018.16302083333</v>
       </c>
       <c r="C495">
         <v>503</v>
@@ -27486,7 +27451,7 @@
         <v>48</v>
       </c>
       <c r="B496" s="1">
-        <v>45018.1633449074</v>
+        <v>45018.163344907407</v>
       </c>
       <c r="D496" t="s">
         <v>61</v>
@@ -27527,7 +27492,7 @@
         <v>48</v>
       </c>
       <c r="B497" s="1">
-        <v>45018.164189814801</v>
+        <v>45018.164189814823</v>
       </c>
       <c r="D497" t="s">
         <v>38</v>
@@ -27568,7 +27533,7 @@
         <v>48</v>
       </c>
       <c r="B498" s="1">
-        <v>45018.164814814802</v>
+        <v>45018.164814814823</v>
       </c>
       <c r="D498" t="s">
         <v>61</v>
@@ -27609,7 +27574,7 @@
         <v>48</v>
       </c>
       <c r="B499" s="1">
-        <v>45018.165439814802</v>
+        <v>45018.165439814817</v>
       </c>
       <c r="D499" t="s">
         <v>38</v>
@@ -27691,7 +27656,7 @@
         <v>48</v>
       </c>
       <c r="B501" s="1">
-        <v>45018.167465277802</v>
+        <v>45018.16746527778</v>
       </c>
       <c r="D501" t="s">
         <v>38</v>
@@ -27732,7 +27697,7 @@
         <v>48</v>
       </c>
       <c r="B502" s="1">
-        <v>45018.167731481502</v>
+        <v>45018.167731481481</v>
       </c>
       <c r="D502" t="s">
         <v>72</v>
@@ -27814,7 +27779,7 @@
         <v>48</v>
       </c>
       <c r="B504" s="1">
-        <v>45018.169270833299</v>
+        <v>45018.169270833343</v>
       </c>
       <c r="D504" t="s">
         <v>72</v>
@@ -27855,7 +27820,7 @@
         <v>48</v>
       </c>
       <c r="B505" s="1">
-        <v>45018.1698958333</v>
+        <v>45018.169895833344</v>
       </c>
       <c r="D505" t="s">
         <v>72</v>
@@ -27896,7 +27861,7 @@
         <v>48</v>
       </c>
       <c r="B506" s="1">
-        <v>45018.170486111099</v>
+        <v>45018.170486111107</v>
       </c>
       <c r="D506" t="s">
         <v>38</v>
@@ -27937,7 +27902,7 @@
         <v>48</v>
       </c>
       <c r="B507" s="1">
-        <v>45018.172256944497</v>
+        <v>45018.172256944446</v>
       </c>
       <c r="D507" t="s">
         <v>38</v>
@@ -28005,7 +27970,7 @@
         <v>48</v>
       </c>
       <c r="B508" s="1">
-        <v>45018.1727314815</v>
+        <v>45018.172731481478</v>
       </c>
       <c r="D508" t="s">
         <v>96</v>
@@ -28073,7 +28038,7 @@
         <v>37</v>
       </c>
       <c r="B509" s="1">
-        <v>45018.176180555602</v>
+        <v>45018.176180555558</v>
       </c>
       <c r="C509">
         <v>8</v>
@@ -28135,7 +28100,7 @@
         <v>37</v>
       </c>
       <c r="B510" s="1">
-        <v>45018.182372685202</v>
+        <v>45018.182372685187</v>
       </c>
       <c r="C510">
         <v>49</v>
@@ -28197,7 +28162,7 @@
         <v>37</v>
       </c>
       <c r="B511" s="1">
-        <v>45018.187303240702</v>
+        <v>45018.187303240738</v>
       </c>
       <c r="C511">
         <v>33</v>
@@ -28259,7 +28224,7 @@
         <v>37</v>
       </c>
       <c r="B512" s="1">
-        <v>45018.198680555601</v>
+        <v>45018.198680555557</v>
       </c>
       <c r="C512">
         <v>3</v>
@@ -28321,7 +28286,7 @@
         <v>37</v>
       </c>
       <c r="B513" s="1">
-        <v>45018.202488425901</v>
+        <v>45018.202488425923</v>
       </c>
       <c r="C513">
         <v>138</v>
@@ -28383,7 +28348,7 @@
         <v>37</v>
       </c>
       <c r="B514" s="1">
-        <v>45018.205324074101</v>
+        <v>45018.205324074072</v>
       </c>
       <c r="C514">
         <v>10</v>
@@ -28445,7 +28410,7 @@
         <v>37</v>
       </c>
       <c r="B515" s="1">
-        <v>45018.2062731482</v>
+        <v>45018.206273148149</v>
       </c>
       <c r="C515">
         <v>267</v>
@@ -28507,7 +28472,7 @@
         <v>48</v>
       </c>
       <c r="B516" s="1">
-        <v>45018.208773148202</v>
+        <v>45018.208773148152</v>
       </c>
       <c r="D516" t="s">
         <v>38</v>
@@ -28610,7 +28575,7 @@
         <v>37</v>
       </c>
       <c r="B518" s="1">
-        <v>45018.222384259301</v>
+        <v>45018.222384259258</v>
       </c>
       <c r="C518">
         <v>89</v>
@@ -28672,7 +28637,7 @@
         <v>37</v>
       </c>
       <c r="B519" s="1">
-        <v>45018.2321296296</v>
+        <v>45018.232129629629</v>
       </c>
       <c r="C519">
         <v>7</v>
@@ -28796,7 +28761,7 @@
         <v>37</v>
       </c>
       <c r="B521" s="1">
-        <v>45018.244594907403</v>
+        <v>45018.24459490741</v>
       </c>
       <c r="C521">
         <v>130</v>
@@ -28858,7 +28823,7 @@
         <v>48</v>
       </c>
       <c r="B522" s="1">
-        <v>45018.2486921296</v>
+        <v>45018.248692129629</v>
       </c>
       <c r="D522" t="s">
         <v>96</v>
@@ -28926,7 +28891,7 @@
         <v>37</v>
       </c>
       <c r="B523" s="1">
-        <v>45018.255555555603</v>
+        <v>45018.255555555559</v>
       </c>
       <c r="C523">
         <v>339</v>
@@ -28988,7 +28953,7 @@
         <v>48</v>
       </c>
       <c r="B524" s="1">
-        <v>45018.259398148199</v>
+        <v>45018.259398148148</v>
       </c>
       <c r="D524" t="s">
         <v>58</v>
@@ -29029,7 +28994,7 @@
         <v>48</v>
       </c>
       <c r="B525" s="1">
-        <v>45018.262002314797</v>
+        <v>45018.262002314812</v>
       </c>
       <c r="D525" t="s">
         <v>38</v>
@@ -29070,7 +29035,7 @@
         <v>37</v>
       </c>
       <c r="B526" s="1">
-        <v>45018.272476851896</v>
+        <v>45018.272476851853</v>
       </c>
       <c r="C526">
         <v>746</v>
@@ -29132,7 +29097,7 @@
         <v>48</v>
       </c>
       <c r="B527" s="1">
-        <v>45018.2730787037</v>
+        <v>45018.273078703707</v>
       </c>
       <c r="D527" t="s">
         <v>58</v>
@@ -29173,7 +29138,7 @@
         <v>48</v>
       </c>
       <c r="B528" s="1">
-        <v>45018.274224537003</v>
+        <v>45018.274224537039</v>
       </c>
       <c r="D528" t="s">
         <v>58</v>
@@ -29214,7 +29179,7 @@
         <v>48</v>
       </c>
       <c r="B529" s="1">
-        <v>45018.274490740703</v>
+        <v>45018.27449074074</v>
       </c>
       <c r="D529" t="s">
         <v>58</v>
@@ -29255,7 +29220,7 @@
         <v>48</v>
       </c>
       <c r="B530" s="1">
-        <v>45018.274675925903</v>
+        <v>45018.274675925917</v>
       </c>
       <c r="D530" t="s">
         <v>38</v>
@@ -29296,7 +29261,7 @@
         <v>48</v>
       </c>
       <c r="B531" s="1">
-        <v>45018.275347222203</v>
+        <v>45018.275347222218</v>
       </c>
       <c r="D531" t="s">
         <v>38</v>
@@ -29337,7 +29302,7 @@
         <v>48</v>
       </c>
       <c r="B532" s="1">
-        <v>45018.2761342593</v>
+        <v>45018.276134259257</v>
       </c>
       <c r="D532" t="s">
         <v>58</v>
@@ -29378,7 +29343,7 @@
         <v>48</v>
       </c>
       <c r="B533" s="1">
-        <v>45018.276597222197</v>
+        <v>45018.276597222219</v>
       </c>
       <c r="D533" t="s">
         <v>38</v>
@@ -29460,7 +29425,7 @@
         <v>48</v>
       </c>
       <c r="B535" s="1">
-        <v>45018.277118055601</v>
+        <v>45018.277118055557</v>
       </c>
       <c r="D535" t="s">
         <v>38</v>
@@ -29501,7 +29466,7 @@
         <v>48</v>
       </c>
       <c r="B536" s="1">
-        <v>45018.277708333299</v>
+        <v>45018.277708333328</v>
       </c>
       <c r="D536" t="s">
         <v>38</v>
@@ -29542,7 +29507,7 @@
         <v>48</v>
       </c>
       <c r="B537" s="1">
-        <v>45018.277789351901</v>
+        <v>45018.277789351851</v>
       </c>
       <c r="D537" t="s">
         <v>58</v>
@@ -29583,7 +29548,7 @@
         <v>48</v>
       </c>
       <c r="B538" s="1">
-        <v>45018.277974536999</v>
+        <v>45018.277974537043</v>
       </c>
       <c r="D538" t="s">
         <v>58</v>
@@ -29624,7 +29589,7 @@
         <v>48</v>
       </c>
       <c r="B539" s="1">
-        <v>45018.278379629599</v>
+        <v>45018.278379629628</v>
       </c>
       <c r="D539" t="s">
         <v>38</v>
@@ -29665,7 +29630,7 @@
         <v>48</v>
       </c>
       <c r="B540" s="1">
-        <v>45018.278726851902</v>
+        <v>45018.278726851851</v>
       </c>
       <c r="D540" t="s">
         <v>38</v>
@@ -29706,7 +29671,7 @@
         <v>48</v>
       </c>
       <c r="B541" s="1">
-        <v>45018.2788194444</v>
+        <v>45018.278819444437</v>
       </c>
       <c r="D541" t="s">
         <v>58</v>
@@ -29747,7 +29712,7 @@
         <v>48</v>
       </c>
       <c r="B542" s="1">
-        <v>45018.279097222199</v>
+        <v>45018.279097222221</v>
       </c>
       <c r="D542" t="s">
         <v>38</v>
@@ -29788,7 +29753,7 @@
         <v>48</v>
       </c>
       <c r="B543" s="1">
-        <v>45018.279479166697</v>
+        <v>45018.279479166667</v>
       </c>
       <c r="D543" t="s">
         <v>38</v>
@@ -29829,7 +29794,7 @@
         <v>48</v>
       </c>
       <c r="B544" s="1">
-        <v>45018.279884259297</v>
+        <v>45018.27988425926</v>
       </c>
       <c r="D544" t="s">
         <v>38</v>
@@ -29870,7 +29835,7 @@
         <v>48</v>
       </c>
       <c r="B545" s="1">
-        <v>45018.280231481498</v>
+        <v>45018.280231481483</v>
       </c>
       <c r="D545" t="s">
         <v>38</v>
@@ -29911,7 +29876,7 @@
         <v>48</v>
       </c>
       <c r="B546" s="1">
-        <v>45018.280509259297</v>
+        <v>45018.280509259261</v>
       </c>
       <c r="D546" t="s">
         <v>58</v>
@@ -29952,7 +29917,7 @@
         <v>48</v>
       </c>
       <c r="B547" s="1">
-        <v>45018.2808912037</v>
+        <v>45018.280891203707</v>
       </c>
       <c r="D547" t="s">
         <v>58</v>
@@ -29993,7 +29958,7 @@
         <v>48</v>
       </c>
       <c r="B548" s="1">
-        <v>45018.281006944497</v>
+        <v>45018.281006944453</v>
       </c>
       <c r="D548" t="s">
         <v>38</v>
@@ -30034,7 +29999,7 @@
         <v>48</v>
       </c>
       <c r="B549" s="1">
-        <v>45018.281539351898</v>
+        <v>45018.281539351847</v>
       </c>
       <c r="D549" t="s">
         <v>38</v>
@@ -30075,7 +30040,7 @@
         <v>48</v>
       </c>
       <c r="B550" s="1">
-        <v>45018.282233796301</v>
+        <v>45018.282233796293</v>
       </c>
       <c r="D550" t="s">
         <v>38</v>
@@ -30116,7 +30081,7 @@
         <v>37</v>
       </c>
       <c r="B551" s="1">
-        <v>45018.294155092597</v>
+        <v>45018.29415509259</v>
       </c>
       <c r="C551">
         <v>6</v>
@@ -30178,7 +30143,7 @@
         <v>37</v>
       </c>
       <c r="B552" s="1">
-        <v>45018.297581018502</v>
+        <v>45018.297581018523</v>
       </c>
       <c r="C552">
         <v>139</v>
@@ -30240,7 +30205,7 @@
         <v>48</v>
       </c>
       <c r="B553" s="1">
-        <v>45018.298310185201</v>
+        <v>45018.298310185193</v>
       </c>
       <c r="D553" t="s">
         <v>72</v>
@@ -30281,7 +30246,7 @@
         <v>48</v>
       </c>
       <c r="B554" s="1">
-        <v>45018.300509259301</v>
+        <v>45018.300509259258</v>
       </c>
       <c r="D554" t="s">
         <v>38</v>
@@ -30322,7 +30287,7 @@
         <v>37</v>
       </c>
       <c r="B555" s="1">
-        <v>45018.300648148201</v>
+        <v>45018.30064814815</v>
       </c>
       <c r="C555">
         <v>9</v>
@@ -30384,7 +30349,7 @@
         <v>48</v>
       </c>
       <c r="B556" s="1">
-        <v>45018.301076388903</v>
+        <v>45018.301076388889</v>
       </c>
       <c r="D556" t="s">
         <v>38</v>
@@ -30425,7 +30390,7 @@
         <v>48</v>
       </c>
       <c r="B557" s="1">
-        <v>45018.301423611098</v>
+        <v>45018.301423611112</v>
       </c>
       <c r="D557" t="s">
         <v>38</v>
@@ -30466,7 +30431,7 @@
         <v>48</v>
       </c>
       <c r="B558" s="1">
-        <v>45018.301840277803</v>
+        <v>45018.301840277767</v>
       </c>
       <c r="D558" t="s">
         <v>72</v>
@@ -30507,7 +30472,7 @@
         <v>48</v>
       </c>
       <c r="B559" s="1">
-        <v>45018.3026157407</v>
+        <v>45018.302615740737</v>
       </c>
       <c r="D559" t="s">
         <v>38</v>
@@ -30548,7 +30513,7 @@
         <v>37</v>
       </c>
       <c r="B560" s="1">
-        <v>45018.302997685198</v>
+        <v>45018.302997685183</v>
       </c>
       <c r="C560">
         <v>984</v>
@@ -30610,7 +30575,7 @@
         <v>48</v>
       </c>
       <c r="B561" s="1">
-        <v>45018.303055555603</v>
+        <v>45018.303055555552</v>
       </c>
       <c r="D561" t="s">
         <v>38</v>
@@ -30651,7 +30616,7 @@
         <v>48</v>
       </c>
       <c r="B562" s="1">
-        <v>45018.303657407399</v>
+        <v>45018.303657407407</v>
       </c>
       <c r="D562" t="s">
         <v>72</v>
@@ -30692,7 +30657,7 @@
         <v>48</v>
       </c>
       <c r="B563" s="1">
-        <v>45018.303981481498</v>
+        <v>45018.303981481477</v>
       </c>
       <c r="D563" t="s">
         <v>38</v>
@@ -30733,7 +30698,7 @@
         <v>48</v>
       </c>
       <c r="B564" s="1">
-        <v>45018.304583333302</v>
+        <v>45018.304583333331</v>
       </c>
       <c r="D564" t="s">
         <v>38</v>
@@ -30774,7 +30739,7 @@
         <v>48</v>
       </c>
       <c r="B565" s="1">
-        <v>45018.305208333302</v>
+        <v>45018.305208333331</v>
       </c>
       <c r="D565" t="s">
         <v>72</v>
@@ -30815,7 +30780,7 @@
         <v>48</v>
       </c>
       <c r="B566" s="1">
-        <v>45018.305613425902</v>
+        <v>45018.305613425917</v>
       </c>
       <c r="D566" t="s">
         <v>38</v>
@@ -30897,7 +30862,7 @@
         <v>48</v>
       </c>
       <c r="B568" s="1">
-        <v>45018.307233796302</v>
+        <v>45018.307233796288</v>
       </c>
       <c r="D568" t="s">
         <v>72</v>
@@ -30938,7 +30903,7 @@
         <v>48</v>
       </c>
       <c r="B569" s="1">
-        <v>45018.325231481504</v>
+        <v>45018.325231481482</v>
       </c>
       <c r="D569" t="s">
         <v>61</v>
@@ -30979,7 +30944,7 @@
         <v>37</v>
       </c>
       <c r="B570" s="1">
-        <v>45018.3293402778</v>
+        <v>45018.329340277778</v>
       </c>
       <c r="C570">
         <v>423</v>
@@ -31082,7 +31047,7 @@
         <v>37</v>
       </c>
       <c r="B572" s="1">
-        <v>45018.339224536998</v>
+        <v>45018.339224537027</v>
       </c>
       <c r="C572">
         <v>2</v>
@@ -31206,7 +31171,7 @@
         <v>37</v>
       </c>
       <c r="B574" s="1">
-        <v>45018.349398148202</v>
+        <v>45018.349398148152</v>
       </c>
       <c r="C574">
         <v>87</v>
@@ -31268,7 +31233,7 @@
         <v>37</v>
       </c>
       <c r="B575" s="1">
-        <v>45018.361284722203</v>
+        <v>45018.361284722218</v>
       </c>
       <c r="C575">
         <v>5</v>
@@ -31392,7 +31357,7 @@
         <v>59</v>
       </c>
       <c r="B577" s="1">
-        <v>45018.375474537002</v>
+        <v>45018.375474537039</v>
       </c>
       <c r="C577">
         <v>578</v>
@@ -31457,7 +31422,7 @@
         <v>37</v>
       </c>
       <c r="B578" s="1">
-        <v>45018.3806944444</v>
+        <v>45018.380694444437</v>
       </c>
       <c r="C578">
         <v>8</v>
@@ -31519,7 +31484,7 @@
         <v>37</v>
       </c>
       <c r="B579" s="1">
-        <v>45018.381770833301</v>
+        <v>45018.38177083333</v>
       </c>
       <c r="C579">
         <v>17</v>
@@ -31581,7 +31546,7 @@
         <v>37</v>
       </c>
       <c r="B580" s="1">
-        <v>45018.384895833296</v>
+        <v>45018.384895833333</v>
       </c>
       <c r="C580">
         <v>2</v>
@@ -31643,7 +31608,7 @@
         <v>37</v>
       </c>
       <c r="B581" s="1">
-        <v>45018.396331018499</v>
+        <v>45018.396331018521</v>
       </c>
       <c r="C581">
         <v>55</v>
@@ -31705,7 +31670,7 @@
         <v>59</v>
       </c>
       <c r="B582" s="1">
-        <v>45018.396527777797</v>
+        <v>45018.396527777782</v>
       </c>
       <c r="C582">
         <v>532</v>
@@ -31770,7 +31735,7 @@
         <v>48</v>
       </c>
       <c r="B583" s="1">
-        <v>45018.396585648101</v>
+        <v>45018.396585648137</v>
       </c>
       <c r="D583" t="s">
         <v>58</v>
@@ -31811,7 +31776,7 @@
         <v>37</v>
       </c>
       <c r="B584" s="1">
-        <v>45018.398148148197</v>
+        <v>45018.398148148153</v>
       </c>
       <c r="C584">
         <v>11</v>
@@ -31873,7 +31838,7 @@
         <v>59</v>
       </c>
       <c r="B585" s="1">
-        <v>45018.405810185199</v>
+        <v>45018.405810185177</v>
       </c>
       <c r="C585">
         <v>190</v>
@@ -31986,7 +31951,7 @@
         <v>37</v>
       </c>
       <c r="B586" s="1">
-        <v>45018.407881944499</v>
+        <v>45018.407881944448</v>
       </c>
       <c r="C586">
         <v>10</v>
@@ -32048,7 +32013,7 @@
         <v>37</v>
       </c>
       <c r="B587" s="1">
-        <v>45018.4119907407</v>
+        <v>45018.411990740737</v>
       </c>
       <c r="C587">
         <v>7</v>
@@ -32172,7 +32137,7 @@
         <v>37</v>
       </c>
       <c r="B589" s="1">
-        <v>45018.423668981501</v>
+        <v>45018.423668981479</v>
       </c>
       <c r="C589">
         <v>7097</v>
@@ -32234,7 +32199,7 @@
         <v>48</v>
       </c>
       <c r="B590" s="1">
-        <v>45018.431041666699</v>
+        <v>45018.431041666663</v>
       </c>
       <c r="D590" t="s">
         <v>38</v>
@@ -32275,7 +32240,7 @@
         <v>48</v>
       </c>
       <c r="B591" s="1">
-        <v>45018.432395833297</v>
+        <v>45018.432395833333</v>
       </c>
       <c r="D591" t="s">
         <v>72</v>
@@ -32316,7 +32281,7 @@
         <v>48</v>
       </c>
       <c r="B592" s="1">
-        <v>45018.433263888903</v>
+        <v>45018.433263888888</v>
       </c>
       <c r="D592" t="s">
         <v>38</v>
@@ -32357,7 +32322,7 @@
         <v>48</v>
       </c>
       <c r="B593" s="1">
-        <v>45018.433680555601</v>
+        <v>45018.433680555558</v>
       </c>
       <c r="D593" t="s">
         <v>72</v>
@@ -32398,7 +32363,7 @@
         <v>48</v>
       </c>
       <c r="B594" s="1">
-        <v>45018.433831018498</v>
+        <v>45018.433831018519</v>
       </c>
       <c r="D594" t="s">
         <v>72</v>
@@ -32480,7 +32445,7 @@
         <v>48</v>
       </c>
       <c r="B596" s="1">
-        <v>45018.435219907398</v>
+        <v>45018.435219907413</v>
       </c>
       <c r="D596" t="s">
         <v>72</v>
@@ -32521,7 +32486,7 @@
         <v>48</v>
       </c>
       <c r="B597" s="1">
-        <v>45018.435486111099</v>
+        <v>45018.435486111113</v>
       </c>
       <c r="D597" t="s">
         <v>72</v>
@@ -32562,7 +32527,7 @@
         <v>48</v>
       </c>
       <c r="B598" s="1">
-        <v>45018.4363310185</v>
+        <v>45018.436331018522</v>
       </c>
       <c r="D598" t="s">
         <v>38</v>
@@ -32603,7 +32568,7 @@
         <v>48</v>
       </c>
       <c r="B599" s="1">
-        <v>45018.4366898148</v>
+        <v>45018.436689814807</v>
       </c>
       <c r="D599" t="s">
         <v>72</v>
@@ -32644,7 +32609,7 @@
         <v>48</v>
       </c>
       <c r="B600" s="1">
-        <v>45018.436932870398</v>
+        <v>45018.436932870369</v>
       </c>
       <c r="D600" t="s">
         <v>72</v>
@@ -32685,7 +32650,7 @@
         <v>48</v>
       </c>
       <c r="B601" s="1">
-        <v>45018.437511574099</v>
+        <v>45018.437511574077</v>
       </c>
       <c r="D601" t="s">
         <v>72</v>
@@ -32726,7 +32691,7 @@
         <v>48</v>
       </c>
       <c r="B602" s="1">
-        <v>45018.437824074099</v>
+        <v>45018.437824074077</v>
       </c>
       <c r="D602" t="s">
         <v>38</v>
@@ -32767,7 +32732,7 @@
         <v>48</v>
       </c>
       <c r="B603" s="1">
-        <v>45018.437986111101</v>
+        <v>45018.437986111108</v>
       </c>
       <c r="D603" t="s">
         <v>38</v>
@@ -32808,7 +32773,7 @@
         <v>48</v>
       </c>
       <c r="B604" s="1">
-        <v>45018.455613425896</v>
+        <v>45018.455613425933</v>
       </c>
       <c r="D604" t="s">
         <v>38</v>
@@ -32849,7 +32814,7 @@
         <v>48</v>
       </c>
       <c r="B605" s="1">
-        <v>45018.457164351901</v>
+        <v>45018.45716435185</v>
       </c>
       <c r="D605" t="s">
         <v>38</v>
@@ -32890,7 +32855,7 @@
         <v>48</v>
       </c>
       <c r="B606" s="1">
-        <v>45018.457523148201</v>
+        <v>45018.45752314815</v>
       </c>
       <c r="D606" t="s">
         <v>58</v>
@@ -32931,7 +32896,7 @@
         <v>48</v>
       </c>
       <c r="B607" s="1">
-        <v>45018.458148148202</v>
+        <v>45018.458148148151</v>
       </c>
       <c r="D607" t="s">
         <v>58</v>
@@ -32972,7 +32937,7 @@
         <v>48</v>
       </c>
       <c r="B608" s="1">
-        <v>45018.470972222203</v>
+        <v>45018.470972222232</v>
       </c>
       <c r="D608" t="s">
         <v>38</v>
@@ -33013,7 +32978,7 @@
         <v>48</v>
       </c>
       <c r="B609" s="1">
-        <v>45018.472094907404</v>
+        <v>45018.472094907411</v>
       </c>
       <c r="D609" t="s">
         <v>38</v>
@@ -33054,7 +33019,7 @@
         <v>48</v>
       </c>
       <c r="B610" s="1">
-        <v>45018.472962963002</v>
+        <v>45018.472962962973</v>
       </c>
       <c r="D610" t="s">
         <v>61</v>
@@ -33095,7 +33060,7 @@
         <v>48</v>
       </c>
       <c r="B611" s="1">
-        <v>45018.473321759302</v>
+        <v>45018.473321759258</v>
       </c>
       <c r="D611" t="s">
         <v>61</v>
@@ -33136,7 +33101,7 @@
         <v>48</v>
       </c>
       <c r="B612" s="1">
-        <v>45018.479212963</v>
+        <v>45018.479212962957</v>
       </c>
       <c r="D612" t="s">
         <v>61</v>
@@ -33177,7 +33142,7 @@
         <v>48</v>
       </c>
       <c r="B613" s="1">
-        <v>45018.481030092596</v>
+        <v>45018.481030092589</v>
       </c>
       <c r="D613" t="s">
         <v>38</v>
@@ -33218,7 +33183,7 @@
         <v>48</v>
       </c>
       <c r="B614" s="1">
-        <v>45018.481111111098</v>
+        <v>45018.481111111112</v>
       </c>
       <c r="D614" t="s">
         <v>38</v>
@@ -33259,7 +33224,7 @@
         <v>48</v>
       </c>
       <c r="B615" s="1">
-        <v>45018.4816319444</v>
+        <v>45018.481631944444</v>
       </c>
       <c r="D615" t="s">
         <v>61</v>
@@ -33300,7 +33265,7 @@
         <v>48</v>
       </c>
       <c r="B616" s="1">
-        <v>45018.482060185197</v>
+        <v>45018.482060185182</v>
       </c>
       <c r="D616" t="s">
         <v>38</v>
@@ -33341,7 +33306,7 @@
         <v>48</v>
       </c>
       <c r="B617" s="1">
-        <v>45018.482476851903</v>
+        <v>45018.482476851852</v>
       </c>
       <c r="D617" t="s">
         <v>38</v>
@@ -33382,7 +33347,7 @@
         <v>48</v>
       </c>
       <c r="B618" s="1">
-        <v>45018.482662037</v>
+        <v>45018.482662037037</v>
       </c>
       <c r="D618" t="s">
         <v>61</v>
@@ -33423,7 +33388,7 @@
         <v>48</v>
       </c>
       <c r="B619" s="1">
-        <v>45018.482916666697</v>
+        <v>45018.482916666668</v>
       </c>
       <c r="D619" t="s">
         <v>38</v>
@@ -33464,7 +33429,7 @@
         <v>48</v>
       </c>
       <c r="B620" s="1">
-        <v>45018.483576388899</v>
+        <v>45018.483576388891</v>
       </c>
       <c r="D620" t="s">
         <v>38</v>
@@ -33505,7 +33470,7 @@
         <v>37</v>
       </c>
       <c r="B621" s="1">
-        <v>45018.590763888897</v>
+        <v>45018.590763888889</v>
       </c>
       <c r="C621">
         <v>16200</v>
@@ -33567,7 +33532,7 @@
         <v>59</v>
       </c>
       <c r="B622" s="1">
-        <v>45018.642129629603</v>
+        <v>45018.642129629632</v>
       </c>
       <c r="D622" t="s">
         <v>61</v>
@@ -33608,7 +33573,7 @@
         <v>48</v>
       </c>
       <c r="B623" s="1">
-        <v>45018.900162037004</v>
+        <v>45018.90016203704</v>
       </c>
       <c r="D623" t="s">
         <v>38</v>
@@ -33649,7 +33614,7 @@
         <v>48</v>
       </c>
       <c r="B624" s="1">
-        <v>45018.900925925896</v>
+        <v>45018.900925925933</v>
       </c>
       <c r="D624" t="s">
         <v>118</v>
@@ -33690,7 +33655,7 @@
         <v>48</v>
       </c>
       <c r="B625" s="1">
-        <v>45018.900983796302</v>
+        <v>45018.900983796288</v>
       </c>
       <c r="D625" t="s">
         <v>118</v>
@@ -33731,7 +33696,7 @@
         <v>37</v>
       </c>
       <c r="B626" s="1">
-        <v>45018.929155092599</v>
+        <v>45018.929155092592</v>
       </c>
       <c r="C626">
         <v>2</v>
@@ -33793,7 +33758,7 @@
         <v>37</v>
       </c>
       <c r="B627" s="1">
-        <v>45018.936539351896</v>
+        <v>45018.936539351853</v>
       </c>
       <c r="C627">
         <v>1085</v>
@@ -33855,7 +33820,7 @@
         <v>37</v>
       </c>
       <c r="B628" s="1">
-        <v>45018.963900463001</v>
+        <v>45018.963900462957</v>
       </c>
       <c r="C628">
         <v>1840</v>
@@ -33917,7 +33882,7 @@
         <v>37</v>
       </c>
       <c r="B629" s="1">
-        <v>45019.003368055601</v>
+        <v>45019.003368055557</v>
       </c>
       <c r="C629">
         <v>5257</v>
@@ -33979,7 +33944,7 @@
         <v>59</v>
       </c>
       <c r="B630" s="1">
-        <v>45019.063194444498</v>
+        <v>45019.063194444447</v>
       </c>
       <c r="C630">
         <v>53</v>
@@ -34044,7 +34009,7 @@
         <v>37</v>
       </c>
       <c r="B631" s="1">
-        <v>45019.093043981498</v>
+        <v>45019.093043981477</v>
       </c>
       <c r="C631">
         <v>115</v>
@@ -34106,7 +34071,7 @@
         <v>37</v>
       </c>
       <c r="B632" s="1">
-        <v>45019.102361111101</v>
+        <v>45019.102361111109</v>
       </c>
       <c r="C632">
         <v>3</v>
@@ -34230,7 +34195,7 @@
         <v>37</v>
       </c>
       <c r="B634" s="1">
-        <v>45019.122418981497</v>
+        <v>45019.122418981482</v>
       </c>
       <c r="C634">
         <v>6</v>
@@ -34292,7 +34257,7 @@
         <v>37</v>
       </c>
       <c r="B635" s="1">
-        <v>45019.128877314797</v>
+        <v>45019.128877314812</v>
       </c>
       <c r="C635">
         <v>1058</v>
@@ -34354,7 +34319,7 @@
         <v>37</v>
       </c>
       <c r="B636" s="1">
-        <v>45019.152939814798</v>
+        <v>45019.152939814812</v>
       </c>
       <c r="C636">
         <v>11</v>
@@ -34416,7 +34381,7 @@
         <v>37</v>
       </c>
       <c r="B637" s="1">
-        <v>45019.156504629602</v>
+        <v>45019.156504629631</v>
       </c>
       <c r="C637">
         <v>309</v>
@@ -34478,7 +34443,7 @@
         <v>37</v>
       </c>
       <c r="B638" s="1">
-        <v>45019.170138888898</v>
+        <v>45019.170138888891</v>
       </c>
       <c r="C638">
         <v>4</v>
@@ -34540,7 +34505,7 @@
         <v>37</v>
       </c>
       <c r="B639" s="1">
-        <v>45019.171631944497</v>
+        <v>45019.171631944453</v>
       </c>
       <c r="C639">
         <v>685</v>
@@ -34602,7 +34567,7 @@
         <v>37</v>
       </c>
       <c r="B640" s="1">
-        <v>45019.193912037001</v>
+        <v>45019.193912037037</v>
       </c>
       <c r="C640">
         <v>7916</v>
@@ -34664,7 +34629,7 @@
         <v>37</v>
       </c>
       <c r="B641" s="1">
-        <v>45019.325682870403</v>
+        <v>45019.325682870367</v>
       </c>
       <c r="C641">
         <v>47</v>
@@ -34726,7 +34691,7 @@
         <v>37</v>
       </c>
       <c r="B642" s="1">
-        <v>45019.328321759298</v>
+        <v>45019.328321759262</v>
       </c>
       <c r="C642">
         <v>309</v>
@@ -34788,7 +34753,7 @@
         <v>37</v>
       </c>
       <c r="B643" s="1">
-        <v>45019.3366550926</v>
+        <v>45019.336655092593</v>
       </c>
       <c r="C643">
         <v>27</v>
@@ -34850,7 +34815,7 @@
         <v>37</v>
       </c>
       <c r="B644" s="1">
-        <v>45019.345347222203</v>
+        <v>45019.345347222217</v>
       </c>
       <c r="C644">
         <v>13</v>
@@ -34974,7 +34939,7 @@
         <v>37</v>
       </c>
       <c r="B646" s="1">
-        <v>45019.360439814802</v>
+        <v>45019.360439814824</v>
       </c>
       <c r="C646">
         <v>55</v>
@@ -35160,7 +35125,7 @@
         <v>37</v>
       </c>
       <c r="B649" s="1">
-        <v>45019.385462963</v>
+        <v>45019.385462962957</v>
       </c>
       <c r="C649">
         <v>2076</v>
@@ -35222,7 +35187,7 @@
         <v>37</v>
       </c>
       <c r="B650" s="1">
-        <v>45019.423935185201</v>
+        <v>45019.423935185187</v>
       </c>
       <c r="C650">
         <v>1114</v>
@@ -35284,7 +35249,7 @@
         <v>37</v>
       </c>
       <c r="B651" s="1">
-        <v>45019.442754629599</v>
+        <v>45019.442754629628</v>
       </c>
       <c r="C651">
         <v>8</v>
@@ -35346,7 +35311,7 @@
         <v>37</v>
       </c>
       <c r="B652" s="1">
-        <v>45019.444016203699</v>
+        <v>45019.444016203714</v>
       </c>
       <c r="C652">
         <v>63</v>
@@ -35408,7 +35373,7 @@
         <v>37</v>
       </c>
       <c r="B653" s="1">
-        <v>45019.4562268519</v>
+        <v>45019.456226851849</v>
       </c>
       <c r="C653">
         <v>6964</v>
@@ -35470,7 +35435,7 @@
         <v>59</v>
       </c>
       <c r="B654" s="1">
-        <v>45019.537407407399</v>
+        <v>45019.537407407413</v>
       </c>
       <c r="C654">
         <v>19</v>
@@ -35535,7 +35500,7 @@
         <v>59</v>
       </c>
       <c r="B655" s="1">
-        <v>45019.538194444503</v>
+        <v>45019.538194444453</v>
       </c>
       <c r="C655">
         <v>19</v>
@@ -35600,7 +35565,7 @@
         <v>59</v>
       </c>
       <c r="B656" s="1">
-        <v>45019.541666666701</v>
+        <v>45019.541666666657</v>
       </c>
       <c r="C656">
         <v>82</v>
@@ -35665,7 +35630,7 @@
         <v>37</v>
       </c>
       <c r="B657" s="1">
-        <v>45019.614548611098</v>
+        <v>45019.614548611113</v>
       </c>
       <c r="C657">
         <v>329</v>
@@ -35727,7 +35692,7 @@
         <v>37</v>
       </c>
       <c r="B658" s="1">
-        <v>45019.628900463002</v>
+        <v>45019.628900462973</v>
       </c>
       <c r="C658">
         <v>332</v>
@@ -35789,7 +35754,7 @@
         <v>37</v>
       </c>
       <c r="B659" s="1">
-        <v>45019.639027777797</v>
+        <v>45019.639027777783</v>
       </c>
       <c r="C659">
         <v>60</v>
@@ -35851,7 +35816,7 @@
         <v>37</v>
       </c>
       <c r="B660" s="1">
-        <v>45019.645474536999</v>
+        <v>45019.645474537043</v>
       </c>
       <c r="C660">
         <v>8</v>
@@ -35913,7 +35878,7 @@
         <v>37</v>
       </c>
       <c r="B661" s="1">
-        <v>45019.646944444401</v>
+        <v>45019.646944444437</v>
       </c>
       <c r="C661">
         <v>13</v>
@@ -35975,7 +35940,7 @@
         <v>37</v>
       </c>
       <c r="B662" s="1">
-        <v>45019.647592592599</v>
+        <v>45019.647592592592</v>
       </c>
       <c r="C662">
         <v>243</v>
@@ -36037,7 +36002,7 @@
         <v>48</v>
       </c>
       <c r="B663" s="1">
-        <v>45019.690949074102</v>
+        <v>45019.690949074073</v>
       </c>
       <c r="D663" t="s">
         <v>38</v>
@@ -36173,7 +36138,7 @@
         <v>48</v>
       </c>
       <c r="B665" s="1">
-        <v>45019.753344907404</v>
+        <v>45019.753344907411</v>
       </c>
       <c r="D665" t="s">
         <v>38</v>
@@ -36214,7 +36179,7 @@
         <v>48</v>
       </c>
       <c r="B666" s="1">
-        <v>45019.755324074104</v>
+        <v>45019.755324074067</v>
       </c>
       <c r="D666" t="s">
         <v>61</v>
@@ -36250,9 +36215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="667" spans="1:30" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/originals/Jupiter.xlsx
+++ b/originals/Jupiter.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faerar\PycharmProjects\excl-TMZ\originals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41523F63-5450-41E0-8058-3DBABBE3279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD34396-2EAD-4B28-8533-E0FA7FDF9264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$AK$666</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -719,10 +721,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -756,7 +758,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -779,44 +781,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -843,14 +845,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -877,6 +897,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -888,180 +926,177 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK666"/>
+  <dimension ref="A1:AK667"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A642" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A668" sqref="A668:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -1182,7 +1217,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1">
-        <v>45015.19363425926</v>
+        <v>45015.193634259304</v>
       </c>
       <c r="C2">
         <v>1320</v>
@@ -1244,7 +1279,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="1">
-        <v>45015.195011574076</v>
+        <v>45015.195011574098</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1312,7 +1347,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>45015.196979166663</v>
+        <v>45015.1969791667</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -1380,7 +1415,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="1">
-        <v>45015.197048611109</v>
+        <v>45015.197048611102</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -1448,7 +1483,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="1">
-        <v>45015.197615740741</v>
+        <v>45015.197615740697</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -1516,7 +1551,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>45015.19809027778</v>
+        <v>45015.198090277801</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -1584,7 +1619,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="1">
-        <v>45015.205833333333</v>
+        <v>45015.205833333297</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -1666,7 +1701,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>45015.206956018519</v>
+        <v>45015.206956018497</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -1707,7 +1742,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="1">
-        <v>45015.207650462973</v>
+        <v>45015.207650463002</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1789,7 +1824,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="1">
-        <v>45015.222939814812</v>
+        <v>45015.222939814797</v>
       </c>
       <c r="C13">
         <v>2827</v>
@@ -1851,7 +1886,7 @@
         <v>48</v>
       </c>
       <c r="B14" s="1">
-        <v>45015.224027777767</v>
+        <v>45015.224027777796</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
@@ -1892,7 +1927,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="1">
-        <v>45015.225115740737</v>
+        <v>45015.225115740701</v>
       </c>
       <c r="C15">
         <v>34</v>
@@ -1957,7 +1992,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="1">
-        <v>45015.232071759259</v>
+        <v>45015.232071759303</v>
       </c>
       <c r="C16">
         <v>97</v>
@@ -2022,7 +2057,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="1">
-        <v>45015.281342592592</v>
+        <v>45015.2813425926</v>
       </c>
       <c r="C17">
         <v>522</v>
@@ -2084,7 +2119,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="1">
-        <v>45015.295138888891</v>
+        <v>45015.295138888898</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -2125,7 +2160,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="1">
-        <v>45015.296793981477</v>
+        <v>45015.296793981499</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2166,7 +2201,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="1">
-        <v>45015.296990740739</v>
+        <v>45015.296990740702</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -2207,7 +2242,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="1">
-        <v>45015.297175925924</v>
+        <v>45015.297175925902</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -2248,7 +2283,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>45015.298055555562</v>
+        <v>45015.298055555599</v>
       </c>
       <c r="C22">
         <v>640</v>
@@ -2310,7 +2345,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="1">
-        <v>45015.318611111114</v>
+        <v>45015.318611111099</v>
       </c>
       <c r="C23">
         <v>45</v>
@@ -2372,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="1">
-        <v>45015.320069444453</v>
+        <v>45015.320069444497</v>
       </c>
       <c r="C24">
         <v>1009</v>
@@ -2434,7 +2469,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="1">
-        <v>45015.333912037036</v>
+        <v>45015.333912037</v>
       </c>
       <c r="D25" t="s">
         <v>62</v>
@@ -2475,7 +2510,7 @@
         <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>45015.335960648154</v>
+        <v>45015.335960648197</v>
       </c>
       <c r="D26" t="s">
         <v>62</v>
@@ -2516,7 +2551,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1">
-        <v>45015.336435185192</v>
+        <v>45015.3364351852</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -2619,7 +2654,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="1">
-        <v>45015.375393518523</v>
+        <v>45015.375393518501</v>
       </c>
       <c r="D29" t="s">
         <v>63</v>
@@ -2755,7 +2790,7 @@
         <v>48</v>
       </c>
       <c r="B31" s="1">
-        <v>45015.377280092587</v>
+        <v>45015.377280092602</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -2823,7 +2858,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="1">
-        <v>45015.377592592587</v>
+        <v>45015.377592592602</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
@@ -2891,7 +2926,7 @@
         <v>48</v>
       </c>
       <c r="B33" s="1">
-        <v>45015.37835648148</v>
+        <v>45015.378356481502</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -2959,7 +2994,7 @@
         <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>45015.417337962957</v>
+        <v>45015.417337963001</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
@@ -3027,7 +3062,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>45015.41846064815</v>
+        <v>45015.418460648201</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -3095,7 +3130,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="1">
-        <v>45015.41914351852</v>
+        <v>45015.419143518498</v>
       </c>
       <c r="D36" t="s">
         <v>49</v>
@@ -3163,7 +3198,7 @@
         <v>48</v>
       </c>
       <c r="B37" s="1">
-        <v>45015.426585648151</v>
+        <v>45015.426585648202</v>
       </c>
       <c r="D37" t="s">
         <v>38</v>
@@ -3204,7 +3239,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="1">
-        <v>45015.427928240737</v>
+        <v>45015.427928240701</v>
       </c>
       <c r="D38" t="s">
         <v>58</v>
@@ -3245,7 +3280,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="1">
-        <v>45015.428229166668</v>
+        <v>45015.428229166697</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
@@ -3286,7 +3321,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>45015.458715277768</v>
+        <v>45015.458715277797</v>
       </c>
       <c r="C40">
         <v>4899</v>
@@ -3348,7 +3383,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>45015.526226851849</v>
+        <v>45015.5262268519</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -3389,7 +3424,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="1">
-        <v>45015.53025462963</v>
+        <v>45015.530254629601</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
@@ -3430,7 +3465,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1">
-        <v>45015.568981481483</v>
+        <v>45015.568981481498</v>
       </c>
       <c r="C43">
         <v>16200</v>
@@ -3492,7 +3527,7 @@
         <v>59</v>
       </c>
       <c r="B44" s="1">
-        <v>45015.604189814818</v>
+        <v>45015.604189814803</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
@@ -3533,7 +3568,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="1">
-        <v>45015.658622685187</v>
+        <v>45015.658622685201</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
@@ -3601,7 +3636,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="1">
-        <v>45015.659490740742</v>
+        <v>45015.659490740698</v>
       </c>
       <c r="D46" t="s">
         <v>38</v>
@@ -3669,7 +3704,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>45015.659814814811</v>
+        <v>45015.659814814797</v>
       </c>
       <c r="D47" t="s">
         <v>74</v>
@@ -3737,7 +3772,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>45015.660081018519</v>
+        <v>45015.660081018497</v>
       </c>
       <c r="D48" t="s">
         <v>74</v>
@@ -3805,7 +3840,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>45015.660833333342</v>
+        <v>45015.660833333299</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
@@ -3873,7 +3908,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="1">
-        <v>45015.679745370369</v>
+        <v>45015.679745370398</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -3938,7 +3973,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="1">
-        <v>45015.878449074073</v>
+        <v>45015.878449074102</v>
       </c>
       <c r="C51">
         <v>58</v>
@@ -4000,7 +4035,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="1">
-        <v>45015.879513888889</v>
+        <v>45015.879513888904</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -4062,7 +4097,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="1">
-        <v>45015.890914351847</v>
+        <v>45015.890914351898</v>
       </c>
       <c r="C53">
         <v>12</v>
@@ -4124,7 +4159,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="1">
-        <v>45015.897685185177</v>
+        <v>45015.897685185198</v>
       </c>
       <c r="C54">
         <v>583</v>
@@ -4186,7 +4221,7 @@
         <v>37</v>
       </c>
       <c r="B55" s="1">
-        <v>45015.912175925929</v>
+        <v>45015.9121759259</v>
       </c>
       <c r="C55">
         <v>2655</v>
@@ -4248,7 +4283,7 @@
         <v>37</v>
       </c>
       <c r="B56" s="1">
-        <v>45015.970983796287</v>
+        <v>45015.970983796302</v>
       </c>
       <c r="C56">
         <v>46</v>
@@ -4310,7 +4345,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="1">
-        <v>45015.97991898148</v>
+        <v>45015.979918981502</v>
       </c>
       <c r="D57" t="s">
         <v>38</v>
@@ -4392,7 +4427,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="1">
-        <v>45015.982037037043</v>
+        <v>45015.982037037</v>
       </c>
       <c r="D59" t="s">
         <v>58</v>
@@ -4433,7 +4468,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="1">
-        <v>45015.982094907413</v>
+        <v>45015.982094907398</v>
       </c>
       <c r="D60" t="s">
         <v>79</v>
@@ -4474,7 +4509,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="1">
-        <v>45015.982291666667</v>
+        <v>45015.982291666704</v>
       </c>
       <c r="D61" t="s">
         <v>38</v>
@@ -4577,7 +4612,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="1">
-        <v>45015.982893518521</v>
+        <v>45015.9828935185</v>
       </c>
       <c r="D63" t="s">
         <v>38</v>
@@ -4659,7 +4694,7 @@
         <v>48</v>
       </c>
       <c r="B65" s="1">
-        <v>45015.983622685177</v>
+        <v>45015.983622685198</v>
       </c>
       <c r="D65" t="s">
         <v>38</v>
@@ -4700,7 +4735,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="1">
-        <v>45015.984363425923</v>
+        <v>45015.984363425901</v>
       </c>
       <c r="D66" t="s">
         <v>38</v>
@@ -4768,7 +4803,7 @@
         <v>48</v>
       </c>
       <c r="B67" s="1">
-        <v>45015.984432870369</v>
+        <v>45015.984432870398</v>
       </c>
       <c r="D67" t="s">
         <v>38</v>
@@ -4809,7 +4844,7 @@
         <v>48</v>
       </c>
       <c r="B68" s="1">
-        <v>45015.985590277778</v>
+        <v>45015.9855902778</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -4877,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="B69" s="1">
-        <v>45015.986226851863</v>
+        <v>45015.986226851899</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -4945,7 +4980,7 @@
         <v>48</v>
       </c>
       <c r="B70" s="1">
-        <v>45015.986631944441</v>
+        <v>45015.986631944397</v>
       </c>
       <c r="D70" t="s">
         <v>61</v>
@@ -4986,7 +5021,7 @@
         <v>48</v>
       </c>
       <c r="B71" s="1">
-        <v>45015.986921296288</v>
+        <v>45015.986921296302</v>
       </c>
       <c r="D71" t="s">
         <v>61</v>
@@ -5027,7 +5062,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="1">
-        <v>45015.986944444441</v>
+        <v>45015.986944444398</v>
       </c>
       <c r="D72" t="s">
         <v>38</v>
@@ -5157,7 +5192,7 @@
         <v>48</v>
       </c>
       <c r="B74" s="1">
-        <v>45015.987743055557</v>
+        <v>45015.987743055601</v>
       </c>
       <c r="D74" t="s">
         <v>38</v>
@@ -5239,7 +5274,7 @@
         <v>48</v>
       </c>
       <c r="B76" s="1">
-        <v>45016.017847222232</v>
+        <v>45016.017847222203</v>
       </c>
       <c r="D76" t="s">
         <v>61</v>
@@ -5280,7 +5315,7 @@
         <v>48</v>
       </c>
       <c r="B77" s="1">
-        <v>45016.018310185187</v>
+        <v>45016.018310185202</v>
       </c>
       <c r="D77" t="s">
         <v>38</v>
@@ -5321,7 +5356,7 @@
         <v>48</v>
       </c>
       <c r="B78" s="1">
-        <v>45016.018761574072</v>
+        <v>45016.018761574102</v>
       </c>
       <c r="D78" t="s">
         <v>61</v>
@@ -5362,7 +5397,7 @@
         <v>48</v>
       </c>
       <c r="B79" s="1">
-        <v>45016.019201388888</v>
+        <v>45016.019201388903</v>
       </c>
       <c r="D79" t="s">
         <v>38</v>
@@ -5403,7 +5438,7 @@
         <v>48</v>
       </c>
       <c r="B80" s="1">
-        <v>45016.019583333327</v>
+        <v>45016.019583333298</v>
       </c>
       <c r="D80" t="s">
         <v>38</v>
@@ -5444,7 +5479,7 @@
         <v>37</v>
       </c>
       <c r="B81" s="1">
-        <v>45016.049120370371</v>
+        <v>45016.0491203704</v>
       </c>
       <c r="C81">
         <v>7</v>
@@ -5506,7 +5541,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="1">
-        <v>45016.050763888888</v>
+        <v>45016.050763888903</v>
       </c>
       <c r="C82">
         <v>14</v>
@@ -5568,7 +5603,7 @@
         <v>37</v>
       </c>
       <c r="B83" s="1">
-        <v>45016.054259259261</v>
+        <v>45016.054259259297</v>
       </c>
       <c r="C83">
         <v>13</v>
@@ -5630,7 +5665,7 @@
         <v>37</v>
       </c>
       <c r="B84" s="1">
-        <v>45016.057476851849</v>
+        <v>45016.0574768519</v>
       </c>
       <c r="C84">
         <v>105</v>
@@ -5692,7 +5727,7 @@
         <v>48</v>
       </c>
       <c r="B85" s="1">
-        <v>45016.059467592589</v>
+        <v>45016.059467592597</v>
       </c>
       <c r="D85" t="s">
         <v>49</v>
@@ -5760,7 +5795,7 @@
         <v>37</v>
       </c>
       <c r="B86" s="1">
-        <v>45016.06113425926</v>
+        <v>45016.061134259297</v>
       </c>
       <c r="C86">
         <v>48</v>
@@ -5822,7 +5857,7 @@
         <v>48</v>
       </c>
       <c r="B87" s="1">
-        <v>45016.061168981483</v>
+        <v>45016.061168981498</v>
       </c>
       <c r="D87" t="s">
         <v>38</v>
@@ -5890,7 +5925,7 @@
         <v>48</v>
       </c>
       <c r="B88" s="1">
-        <v>45016.061631944453</v>
+        <v>45016.061631944503</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
@@ -5958,7 +5993,7 @@
         <v>48</v>
       </c>
       <c r="B89" s="1">
-        <v>45016.062407407408</v>
+        <v>45016.0624074074</v>
       </c>
       <c r="D89" t="s">
         <v>49</v>
@@ -6026,7 +6061,7 @@
         <v>37</v>
       </c>
       <c r="B90" s="1">
-        <v>45016.072280092587</v>
+        <v>45016.072280092601</v>
       </c>
       <c r="C90">
         <v>6014</v>
@@ -6088,7 +6123,7 @@
         <v>48</v>
       </c>
       <c r="B91" s="1">
-        <v>45016.094756944447</v>
+        <v>45016.094756944498</v>
       </c>
       <c r="D91" t="s">
         <v>61</v>
@@ -6129,7 +6164,7 @@
         <v>48</v>
       </c>
       <c r="B92" s="1">
-        <v>45016.096168981479</v>
+        <v>45016.096168981501</v>
       </c>
       <c r="D92" t="s">
         <v>61</v>
@@ -6170,7 +6205,7 @@
         <v>48</v>
       </c>
       <c r="B93" s="1">
-        <v>45016.096666666657</v>
+        <v>45016.096666666701</v>
       </c>
       <c r="D93" t="s">
         <v>38</v>
@@ -6211,7 +6246,7 @@
         <v>48</v>
       </c>
       <c r="B94" s="1">
-        <v>45016.09710648148</v>
+        <v>45016.097106481502</v>
       </c>
       <c r="D94" t="s">
         <v>61</v>
@@ -6252,7 +6287,7 @@
         <v>48</v>
       </c>
       <c r="B95" s="1">
-        <v>45016.144004629627</v>
+        <v>45016.144004629597</v>
       </c>
       <c r="D95" t="s">
         <v>38</v>
@@ -6293,7 +6328,7 @@
         <v>48</v>
       </c>
       <c r="B96" s="1">
-        <v>45016.146377314813</v>
+        <v>45016.146377314799</v>
       </c>
       <c r="D96" t="s">
         <v>61</v>
@@ -6334,7 +6369,7 @@
         <v>48</v>
       </c>
       <c r="B97" s="1">
-        <v>45016.146516203713</v>
+        <v>45016.146516203698</v>
       </c>
       <c r="D97" t="s">
         <v>61</v>
@@ -6375,7 +6410,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="1">
-        <v>45016.181111111109</v>
+        <v>45016.181111111102</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -6437,7 +6472,7 @@
         <v>48</v>
       </c>
       <c r="B99" s="1">
-        <v>45016.185729166667</v>
+        <v>45016.185729166697</v>
       </c>
       <c r="D99" t="s">
         <v>61</v>
@@ -6478,7 +6513,7 @@
         <v>48</v>
       </c>
       <c r="B100" s="1">
-        <v>45016.186469907407</v>
+        <v>45016.186469907399</v>
       </c>
       <c r="D100" t="s">
         <v>61</v>
@@ -6519,7 +6554,7 @@
         <v>48</v>
       </c>
       <c r="B101" s="1">
-        <v>45016.186747685177</v>
+        <v>45016.186747685198</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
@@ -6560,7 +6595,7 @@
         <v>48</v>
       </c>
       <c r="B102" s="1">
-        <v>45016.187083333331</v>
+        <v>45016.187083333301</v>
       </c>
       <c r="D102" t="s">
         <v>38</v>
@@ -6601,7 +6636,7 @@
         <v>48</v>
       </c>
       <c r="B103" s="1">
-        <v>45016.187708333331</v>
+        <v>45016.187708333302</v>
       </c>
       <c r="D103" t="s">
         <v>38</v>
@@ -6683,7 +6718,7 @@
         <v>37</v>
       </c>
       <c r="B105" s="1">
-        <v>45016.189004629632</v>
+        <v>45016.189004629603</v>
       </c>
       <c r="C105">
         <v>408</v>
@@ -6745,7 +6780,7 @@
         <v>37</v>
       </c>
       <c r="B106" s="1">
-        <v>45016.206550925926</v>
+        <v>45016.206550925897</v>
       </c>
       <c r="C106">
         <v>4019</v>
@@ -6807,7 +6842,7 @@
         <v>48</v>
       </c>
       <c r="B107" s="1">
-        <v>45016.211712962962</v>
+        <v>45016.211712962999</v>
       </c>
       <c r="D107" t="s">
         <v>61</v>
@@ -6848,7 +6883,7 @@
         <v>48</v>
       </c>
       <c r="B108" s="1">
-        <v>45016.21298611111</v>
+        <v>45016.212986111103</v>
       </c>
       <c r="D108" t="s">
         <v>38</v>
@@ -6889,7 +6924,7 @@
         <v>48</v>
       </c>
       <c r="B109" s="1">
-        <v>45016.213472222233</v>
+        <v>45016.213472222204</v>
       </c>
       <c r="D109" t="s">
         <v>61</v>
@@ -6971,7 +7006,7 @@
         <v>48</v>
       </c>
       <c r="B111" s="1">
-        <v>45016.215150462973</v>
+        <v>45016.215150463002</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
@@ -7012,7 +7047,7 @@
         <v>48</v>
       </c>
       <c r="B112" s="1">
-        <v>45016.215324074074</v>
+        <v>45016.215324074103</v>
       </c>
       <c r="D112" t="s">
         <v>61</v>
@@ -7053,7 +7088,7 @@
         <v>48</v>
       </c>
       <c r="B113" s="1">
-        <v>45016.236608796287</v>
+        <v>45016.236608796302</v>
       </c>
       <c r="D113" t="s">
         <v>38</v>
@@ -7094,7 +7129,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="1">
-        <v>45016.238043981481</v>
+        <v>45016.238043981502</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
@@ -7135,7 +7170,7 @@
         <v>48</v>
       </c>
       <c r="B115" s="1">
-        <v>45016.238379629627</v>
+        <v>45016.238379629598</v>
       </c>
       <c r="D115" t="s">
         <v>61</v>
@@ -7176,7 +7211,7 @@
         <v>48</v>
       </c>
       <c r="B116" s="1">
-        <v>45016.238935185182</v>
+        <v>45016.238935185203</v>
       </c>
       <c r="D116" t="s">
         <v>38</v>
@@ -7299,7 +7334,7 @@
         <v>48</v>
       </c>
       <c r="B119" s="1">
-        <v>45016.249756944453</v>
+        <v>45016.249756944497</v>
       </c>
       <c r="D119" t="s">
         <v>38</v>
@@ -7340,7 +7375,7 @@
         <v>48</v>
       </c>
       <c r="B120" s="1">
-        <v>45016.251319444447</v>
+        <v>45016.251319444498</v>
       </c>
       <c r="D120" t="s">
         <v>38</v>
@@ -7381,7 +7416,7 @@
         <v>48</v>
       </c>
       <c r="B121" s="1">
-        <v>45016.251909722218</v>
+        <v>45016.251909722203</v>
       </c>
       <c r="D121" t="s">
         <v>60</v>
@@ -7422,7 +7457,7 @@
         <v>48</v>
       </c>
       <c r="B122" s="1">
-        <v>45016.252627314818</v>
+        <v>45016.252627314803</v>
       </c>
       <c r="D122" t="s">
         <v>38</v>
@@ -7463,7 +7498,7 @@
         <v>48</v>
       </c>
       <c r="B123" s="1">
-        <v>45016.252800925933</v>
+        <v>45016.252800925897</v>
       </c>
       <c r="D123" t="s">
         <v>38</v>
@@ -7504,7 +7539,7 @@
         <v>48</v>
       </c>
       <c r="B124" s="1">
-        <v>45016.25335648148</v>
+        <v>45016.253356481502</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
@@ -7545,7 +7580,7 @@
         <v>48</v>
       </c>
       <c r="B125" s="1">
-        <v>45016.258020833331</v>
+        <v>45016.258020833302</v>
       </c>
       <c r="D125" t="s">
         <v>38</v>
@@ -7586,7 +7621,7 @@
         <v>48</v>
       </c>
       <c r="B126" s="1">
-        <v>45016.261134259257</v>
+        <v>45016.261134259301</v>
       </c>
       <c r="D126" t="s">
         <v>38</v>
@@ -7627,7 +7662,7 @@
         <v>48</v>
       </c>
       <c r="B127" s="1">
-        <v>45016.263159722221</v>
+        <v>45016.263159722199</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
@@ -7668,7 +7703,7 @@
         <v>48</v>
       </c>
       <c r="B128" s="1">
-        <v>45016.263402777768</v>
+        <v>45016.263402777797</v>
       </c>
       <c r="D128" t="s">
         <v>38</v>
@@ -7709,7 +7744,7 @@
         <v>48</v>
       </c>
       <c r="B129" s="1">
-        <v>45016.264918981477</v>
+        <v>45016.264918981498</v>
       </c>
       <c r="D129" t="s">
         <v>38</v>
@@ -7750,7 +7785,7 @@
         <v>48</v>
       </c>
       <c r="B130" s="1">
-        <v>45016.266134259262</v>
+        <v>45016.266134259298</v>
       </c>
       <c r="D130" t="s">
         <v>38</v>
@@ -7832,7 +7867,7 @@
         <v>48</v>
       </c>
       <c r="B132" s="1">
-        <v>45016.267048611109</v>
+        <v>45016.267048611102</v>
       </c>
       <c r="D132" t="s">
         <v>38</v>
@@ -7914,7 +7949,7 @@
         <v>48</v>
       </c>
       <c r="B134" s="1">
-        <v>45016.267650462964</v>
+        <v>45016.267650463</v>
       </c>
       <c r="D134" t="s">
         <v>38</v>
@@ -7955,7 +7990,7 @@
         <v>48</v>
       </c>
       <c r="B135" s="1">
-        <v>45016.267696759263</v>
+        <v>45016.2676967593</v>
       </c>
       <c r="D135" t="s">
         <v>38</v>
@@ -7996,7 +8031,7 @@
         <v>48</v>
       </c>
       <c r="B136" s="1">
-        <v>45016.268449074072</v>
+        <v>45016.268449074101</v>
       </c>
       <c r="D136" t="s">
         <v>72</v>
@@ -8037,7 +8072,7 @@
         <v>48</v>
       </c>
       <c r="B137" s="1">
-        <v>45016.268645833326</v>
+        <v>45016.268645833297</v>
       </c>
       <c r="D137" t="s">
         <v>38</v>
@@ -8078,7 +8113,7 @@
         <v>48</v>
       </c>
       <c r="B138" s="1">
-        <v>45016.26934027778</v>
+        <v>45016.269340277802</v>
       </c>
       <c r="D138" t="s">
         <v>72</v>
@@ -8119,7 +8154,7 @@
         <v>48</v>
       </c>
       <c r="B139" s="1">
-        <v>45016.269837962973</v>
+        <v>45016.269837963002</v>
       </c>
       <c r="D139" t="s">
         <v>38</v>
@@ -8160,7 +8195,7 @@
         <v>48</v>
       </c>
       <c r="B140" s="1">
-        <v>45016.271574074082</v>
+        <v>45016.271574074097</v>
       </c>
       <c r="D140" t="s">
         <v>61</v>
@@ -8201,7 +8236,7 @@
         <v>59</v>
       </c>
       <c r="B141" s="1">
-        <v>45016.271585648137</v>
+        <v>45016.271585648101</v>
       </c>
       <c r="C141">
         <v>42</v>
@@ -8266,7 +8301,7 @@
         <v>48</v>
       </c>
       <c r="B142" s="1">
-        <v>45016.272465277783</v>
+        <v>45016.272465277798</v>
       </c>
       <c r="D142" t="s">
         <v>38</v>
@@ -8307,7 +8342,7 @@
         <v>48</v>
       </c>
       <c r="B143" s="1">
-        <v>45016.273055555554</v>
+        <v>45016.273055555597</v>
       </c>
       <c r="D143" t="s">
         <v>61</v>
@@ -8348,7 +8383,7 @@
         <v>48</v>
       </c>
       <c r="B144" s="1">
-        <v>45016.273136574076</v>
+        <v>45016.273136574098</v>
       </c>
       <c r="D144" t="s">
         <v>61</v>
@@ -8389,7 +8424,7 @@
         <v>48</v>
       </c>
       <c r="B145" s="1">
-        <v>45016.276597222219</v>
+        <v>45016.276597222197</v>
       </c>
       <c r="D145" t="s">
         <v>38</v>
@@ -8430,7 +8465,7 @@
         <v>59</v>
       </c>
       <c r="B146" s="1">
-        <v>45016.287916666668</v>
+        <v>45016.287916666697</v>
       </c>
       <c r="C146">
         <v>105</v>
@@ -8495,7 +8530,7 @@
         <v>37</v>
       </c>
       <c r="B147" s="1">
-        <v>45016.297638888893</v>
+        <v>45016.2976388889</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -8619,7 +8654,7 @@
         <v>48</v>
       </c>
       <c r="B149" s="1">
-        <v>45016.337430555563</v>
+        <v>45016.337430555599</v>
       </c>
       <c r="D149" t="s">
         <v>38</v>
@@ -8660,7 +8695,7 @@
         <v>48</v>
       </c>
       <c r="B150" s="1">
-        <v>45016.339675925927</v>
+        <v>45016.339675925898</v>
       </c>
       <c r="D150" t="s">
         <v>57</v>
@@ -8701,7 +8736,7 @@
         <v>48</v>
       </c>
       <c r="B151" s="1">
-        <v>45016.339895833327</v>
+        <v>45016.339895833298</v>
       </c>
       <c r="D151" t="s">
         <v>57</v>
@@ -8742,7 +8777,7 @@
         <v>48</v>
       </c>
       <c r="B152" s="1">
-        <v>45016.340208333328</v>
+        <v>45016.340208333299</v>
       </c>
       <c r="D152" t="s">
         <v>38</v>
@@ -8783,7 +8818,7 @@
         <v>48</v>
       </c>
       <c r="B153" s="1">
-        <v>45016.340694444443</v>
+        <v>45016.3406944444</v>
       </c>
       <c r="D153" t="s">
         <v>38</v>
@@ -8824,7 +8859,7 @@
         <v>48</v>
       </c>
       <c r="B154" s="1">
-        <v>45016.341585648152</v>
+        <v>45016.341585648202</v>
       </c>
       <c r="D154" t="s">
         <v>57</v>
@@ -8906,7 +8941,7 @@
         <v>48</v>
       </c>
       <c r="B156" s="1">
-        <v>45016.342615740738</v>
+        <v>45016.342615740701</v>
       </c>
       <c r="D156" t="s">
         <v>38</v>
@@ -8947,7 +8982,7 @@
         <v>37</v>
       </c>
       <c r="B157" s="1">
-        <v>45016.343553240738</v>
+        <v>45016.343553240702</v>
       </c>
       <c r="C157">
         <v>7325</v>
@@ -9009,7 +9044,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="1">
-        <v>45016.35361111111</v>
+        <v>45016.353611111103</v>
       </c>
       <c r="D158" t="s">
         <v>38</v>
@@ -9050,7 +9085,7 @@
         <v>48</v>
       </c>
       <c r="B159" s="1">
-        <v>45016.35496527778</v>
+        <v>45016.354965277802</v>
       </c>
       <c r="D159" t="s">
         <v>58</v>
@@ -9132,7 +9167,7 @@
         <v>48</v>
       </c>
       <c r="B161" s="1">
-        <v>45016.355520833327</v>
+        <v>45016.355520833298</v>
       </c>
       <c r="D161" t="s">
         <v>38</v>
@@ -9173,7 +9208,7 @@
         <v>48</v>
       </c>
       <c r="B162" s="1">
-        <v>45016.355694444443</v>
+        <v>45016.355694444399</v>
       </c>
       <c r="D162" t="s">
         <v>58</v>
@@ -9214,7 +9249,7 @@
         <v>48</v>
       </c>
       <c r="B163" s="1">
-        <v>45016.356168981481</v>
+        <v>45016.356168981503</v>
       </c>
       <c r="D163" t="s">
         <v>38</v>
@@ -9255,7 +9290,7 @@
         <v>48</v>
       </c>
       <c r="B164" s="1">
-        <v>45016.356435185182</v>
+        <v>45016.356435185196</v>
       </c>
       <c r="D164" t="s">
         <v>58</v>
@@ -9337,7 +9372,7 @@
         <v>48</v>
       </c>
       <c r="B166" s="1">
-        <v>45016.364652777767</v>
+        <v>45016.364652777796</v>
       </c>
       <c r="D166" t="s">
         <v>38</v>
@@ -9378,7 +9413,7 @@
         <v>48</v>
       </c>
       <c r="B167" s="1">
-        <v>45016.366898148153</v>
+        <v>45016.366898148197</v>
       </c>
       <c r="D167" t="s">
         <v>38</v>
@@ -9419,7 +9454,7 @@
         <v>48</v>
       </c>
       <c r="B168" s="1">
-        <v>45016.367615740739</v>
+        <v>45016.367615740703</v>
       </c>
       <c r="D168" t="s">
         <v>38</v>
@@ -9460,7 +9495,7 @@
         <v>48</v>
       </c>
       <c r="B169" s="1">
-        <v>45016.368298611109</v>
+        <v>45016.368298611102</v>
       </c>
       <c r="D169" t="s">
         <v>61</v>
@@ -9501,7 +9536,7 @@
         <v>48</v>
       </c>
       <c r="B170" s="1">
-        <v>45016.368877314817</v>
+        <v>45016.368877314802</v>
       </c>
       <c r="D170" t="s">
         <v>61</v>
@@ -9542,7 +9577,7 @@
         <v>48</v>
       </c>
       <c r="B171" s="1">
-        <v>45016.369074074071</v>
+        <v>45016.3690740741</v>
       </c>
       <c r="D171" t="s">
         <v>38</v>
@@ -9624,7 +9659,7 @@
         <v>48</v>
       </c>
       <c r="B173" s="1">
-        <v>45016.369942129633</v>
+        <v>45016.369942129597</v>
       </c>
       <c r="D173" t="s">
         <v>38</v>
@@ -9665,7 +9700,7 @@
         <v>59</v>
       </c>
       <c r="B174" s="1">
-        <v>45016.392106481479</v>
+        <v>45016.3921064815</v>
       </c>
       <c r="C174">
         <v>23</v>
@@ -9730,7 +9765,7 @@
         <v>48</v>
       </c>
       <c r="B175" s="1">
-        <v>45016.452303240738</v>
+        <v>45016.452303240701</v>
       </c>
       <c r="D175" t="s">
         <v>38</v>
@@ -9771,7 +9806,7 @@
         <v>48</v>
       </c>
       <c r="B176" s="1">
-        <v>45016.454259259262</v>
+        <v>45016.454259259299</v>
       </c>
       <c r="D176" t="s">
         <v>38</v>
@@ -9812,7 +9847,7 @@
         <v>48</v>
       </c>
       <c r="B177" s="1">
-        <v>45016.455034722218</v>
+        <v>45016.455034722203</v>
       </c>
       <c r="D177" t="s">
         <v>38</v>
@@ -9853,7 +9888,7 @@
         <v>48</v>
       </c>
       <c r="B178" s="1">
-        <v>45016.455416666657</v>
+        <v>45016.4554166667</v>
       </c>
       <c r="D178" t="s">
         <v>58</v>
@@ -9894,7 +9929,7 @@
         <v>48</v>
       </c>
       <c r="B179" s="1">
-        <v>45016.45585648148</v>
+        <v>45016.455856481502</v>
       </c>
       <c r="D179" t="s">
         <v>38</v>
@@ -10065,7 +10100,7 @@
         <v>48</v>
       </c>
       <c r="B182" s="1">
-        <v>45016.468217592592</v>
+        <v>45016.468217592599</v>
       </c>
       <c r="D182" t="s">
         <v>88</v>
@@ -10133,7 +10168,7 @@
         <v>48</v>
       </c>
       <c r="B183" s="1">
-        <v>45016.46837962963</v>
+        <v>45016.468379629601</v>
       </c>
       <c r="D183" t="s">
         <v>88</v>
@@ -10201,7 +10236,7 @@
         <v>37</v>
       </c>
       <c r="B184" s="1">
-        <v>45016.486296296287</v>
+        <v>45016.486296296302</v>
       </c>
       <c r="C184">
         <v>49</v>
@@ -10263,7 +10298,7 @@
         <v>37</v>
       </c>
       <c r="B185" s="1">
-        <v>45016.498310185183</v>
+        <v>45016.498310185198</v>
       </c>
       <c r="C185">
         <v>16200</v>
@@ -10325,7 +10360,7 @@
         <v>48</v>
       </c>
       <c r="B186" s="1">
-        <v>45016.515844907408</v>
+        <v>45016.515844907401</v>
       </c>
       <c r="D186" t="s">
         <v>38</v>
@@ -10393,7 +10428,7 @@
         <v>48</v>
       </c>
       <c r="B187" s="1">
-        <v>45016.517997685187</v>
+        <v>45016.517997685201</v>
       </c>
       <c r="D187" t="s">
         <v>63</v>
@@ -10461,7 +10496,7 @@
         <v>48</v>
       </c>
       <c r="B188" s="1">
-        <v>45016.518067129633</v>
+        <v>45016.518067129597</v>
       </c>
       <c r="D188" t="s">
         <v>63</v>
@@ -10529,7 +10564,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="1">
-        <v>45016.521770833337</v>
+        <v>45016.5217708333</v>
       </c>
       <c r="D189" t="s">
         <v>38</v>
@@ -10597,7 +10632,7 @@
         <v>48</v>
       </c>
       <c r="B190" s="1">
-        <v>45016.522916666669</v>
+        <v>45016.522916666698</v>
       </c>
       <c r="D190" t="s">
         <v>38</v>
@@ -10665,7 +10700,7 @@
         <v>48</v>
       </c>
       <c r="B191" s="1">
-        <v>45016.523634259262</v>
+        <v>45016.523634259298</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -10801,7 +10836,7 @@
         <v>48</v>
       </c>
       <c r="B193" s="1">
-        <v>45016.524618055562</v>
+        <v>45016.524618055599</v>
       </c>
       <c r="D193" t="s">
         <v>38</v>
@@ -10869,7 +10904,7 @@
         <v>48</v>
       </c>
       <c r="B194" s="1">
-        <v>45016.525173611109</v>
+        <v>45016.525173611102</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -10937,7 +10972,7 @@
         <v>59</v>
       </c>
       <c r="B195" s="1">
-        <v>45016.529722222222</v>
+        <v>45016.5297222222</v>
       </c>
       <c r="C195">
         <v>481</v>
@@ -11050,7 +11085,7 @@
         <v>48</v>
       </c>
       <c r="B196" s="1">
-        <v>45016.530833333331</v>
+        <v>45016.530833333301</v>
       </c>
       <c r="D196" t="s">
         <v>72</v>
@@ -11091,7 +11126,7 @@
         <v>48</v>
       </c>
       <c r="B197" s="1">
-        <v>45016.532465277778</v>
+        <v>45016.5324652778</v>
       </c>
       <c r="D197" t="s">
         <v>72</v>
@@ -11132,7 +11167,7 @@
         <v>48</v>
       </c>
       <c r="B198" s="1">
-        <v>45016.533171296287</v>
+        <v>45016.533171296302</v>
       </c>
       <c r="D198" t="s">
         <v>38</v>
@@ -11173,7 +11208,7 @@
         <v>48</v>
       </c>
       <c r="B199" s="1">
-        <v>45016.533356481479</v>
+        <v>45016.533356481501</v>
       </c>
       <c r="D199" t="s">
         <v>72</v>
@@ -11214,7 +11249,7 @@
         <v>48</v>
       </c>
       <c r="B200" s="1">
-        <v>45016.533854166657</v>
+        <v>45016.533854166701</v>
       </c>
       <c r="D200" t="s">
         <v>38</v>
@@ -11255,7 +11290,7 @@
         <v>48</v>
       </c>
       <c r="B201" s="1">
-        <v>45016.534212962957</v>
+        <v>45016.534212963001</v>
       </c>
       <c r="D201" t="s">
         <v>72</v>
@@ -11296,7 +11331,7 @@
         <v>48</v>
       </c>
       <c r="B202" s="1">
-        <v>45016.534791666672</v>
+        <v>45016.534791666701</v>
       </c>
       <c r="D202" t="s">
         <v>72</v>
@@ -11337,7 +11372,7 @@
         <v>48</v>
       </c>
       <c r="B203" s="1">
-        <v>45016.53497685185</v>
+        <v>45016.534976851901</v>
       </c>
       <c r="D203" t="s">
         <v>38</v>
@@ -11460,7 +11495,7 @@
         <v>48</v>
       </c>
       <c r="B206" s="1">
-        <v>45016.536307870367</v>
+        <v>45016.536307870403</v>
       </c>
       <c r="D206" t="s">
         <v>38</v>
@@ -11528,7 +11563,7 @@
         <v>48</v>
       </c>
       <c r="B207" s="1">
-        <v>45016.53638888889</v>
+        <v>45016.536388888897</v>
       </c>
       <c r="D207" t="s">
         <v>72</v>
@@ -11569,7 +11604,7 @@
         <v>59</v>
       </c>
       <c r="B208" s="1">
-        <v>45016.536759259259</v>
+        <v>45016.536759259303</v>
       </c>
       <c r="C208">
         <v>115</v>
@@ -11634,7 +11669,7 @@
         <v>48</v>
       </c>
       <c r="B209" s="1">
-        <v>45016.536886574067</v>
+        <v>45016.536886574097</v>
       </c>
       <c r="D209" t="s">
         <v>38</v>
@@ -11675,7 +11710,7 @@
         <v>48</v>
       </c>
       <c r="B210" s="1">
-        <v>45016.537094907413</v>
+        <v>45016.537094907399</v>
       </c>
       <c r="D210" t="s">
         <v>38</v>
@@ -11716,7 +11751,7 @@
         <v>48</v>
       </c>
       <c r="B211" s="1">
-        <v>45016.537210648137</v>
+        <v>45016.537210648101</v>
       </c>
       <c r="D211" t="s">
         <v>38</v>
@@ -11757,7 +11792,7 @@
         <v>59</v>
       </c>
       <c r="B212" s="1">
-        <v>45016.538541666669</v>
+        <v>45016.538541666698</v>
       </c>
       <c r="C212">
         <v>82</v>
@@ -11870,7 +11905,7 @@
         <v>48</v>
       </c>
       <c r="B213" s="1">
-        <v>45016.544050925928</v>
+        <v>45016.544050925899</v>
       </c>
       <c r="D213" t="s">
         <v>72</v>
@@ -11911,7 +11946,7 @@
         <v>48</v>
       </c>
       <c r="B214" s="1">
-        <v>45016.545694444438</v>
+        <v>45016.545694444401</v>
       </c>
       <c r="D214" t="s">
         <v>72</v>
@@ -11952,7 +11987,7 @@
         <v>48</v>
       </c>
       <c r="B215" s="1">
-        <v>45016.546458333331</v>
+        <v>45016.546458333301</v>
       </c>
       <c r="D215" t="s">
         <v>38</v>
@@ -11993,7 +12028,7 @@
         <v>48</v>
       </c>
       <c r="B216" s="1">
-        <v>45016.547106481477</v>
+        <v>45016.547106481499</v>
       </c>
       <c r="D216" t="s">
         <v>72</v>
@@ -12034,7 +12069,7 @@
         <v>48</v>
       </c>
       <c r="B217" s="1">
-        <v>45016.587430555563</v>
+        <v>45016.587430555599</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
@@ -12075,7 +12110,7 @@
         <v>48</v>
       </c>
       <c r="B218" s="1">
-        <v>45016.59443287037</v>
+        <v>45016.594432870399</v>
       </c>
       <c r="D218" t="s">
         <v>95</v>
@@ -12116,7 +12151,7 @@
         <v>59</v>
       </c>
       <c r="B219" s="1">
-        <v>45016.601006944453</v>
+        <v>45016.601006944496</v>
       </c>
       <c r="C219">
         <v>26</v>
@@ -12229,7 +12264,7 @@
         <v>48</v>
       </c>
       <c r="B220" s="1">
-        <v>45016.601817129631</v>
+        <v>45016.601817129602</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
@@ -12297,7 +12332,7 @@
         <v>48</v>
       </c>
       <c r="B221" s="1">
-        <v>45016.620474537027</v>
+        <v>45016.620474536998</v>
       </c>
       <c r="D221" t="s">
         <v>38</v>
@@ -12338,7 +12373,7 @@
         <v>48</v>
       </c>
       <c r="B222" s="1">
-        <v>45016.622569444437</v>
+        <v>45016.6225694444</v>
       </c>
       <c r="D222" t="s">
         <v>38</v>
@@ -12379,7 +12414,7 @@
         <v>48</v>
       </c>
       <c r="B223" s="1">
-        <v>45016.623182870368</v>
+        <v>45016.623182870397</v>
       </c>
       <c r="D223" t="s">
         <v>62</v>
@@ -12420,7 +12455,7 @@
         <v>59</v>
       </c>
       <c r="B224" s="1">
-        <v>45016.651898148149</v>
+        <v>45016.6518981482</v>
       </c>
       <c r="C224">
         <v>29</v>
@@ -12485,7 +12520,7 @@
         <v>59</v>
       </c>
       <c r="B225" s="1">
-        <v>45016.65351851852</v>
+        <v>45016.653518518498</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -12550,7 +12585,7 @@
         <v>48</v>
       </c>
       <c r="B226" s="1">
-        <v>45016.655277777783</v>
+        <v>45016.655277777798</v>
       </c>
       <c r="D226" t="s">
         <v>38</v>
@@ -12591,7 +12626,7 @@
         <v>48</v>
       </c>
       <c r="B227" s="1">
-        <v>45016.657627314817</v>
+        <v>45016.657627314802</v>
       </c>
       <c r="D227" t="s">
         <v>58</v>
@@ -12632,7 +12667,7 @@
         <v>48</v>
       </c>
       <c r="B228" s="1">
-        <v>45016.65829861111</v>
+        <v>45016.658298611103</v>
       </c>
       <c r="D228" t="s">
         <v>58</v>
@@ -12673,7 +12708,7 @@
         <v>37</v>
       </c>
       <c r="B229" s="1">
-        <v>45016.84097222222</v>
+        <v>45016.840972222199</v>
       </c>
       <c r="C229">
         <v>6</v>
@@ -12735,7 +12770,7 @@
         <v>37</v>
       </c>
       <c r="B230" s="1">
-        <v>45016.849710648137</v>
+        <v>45016.849710648101</v>
       </c>
       <c r="C230">
         <v>21</v>
@@ -12797,7 +12832,7 @@
         <v>37</v>
       </c>
       <c r="B231" s="1">
-        <v>45016.858877314808</v>
+        <v>45016.8588773148</v>
       </c>
       <c r="C231">
         <v>1550</v>
@@ -12921,7 +12956,7 @@
         <v>37</v>
       </c>
       <c r="B233" s="1">
-        <v>45016.895821759259</v>
+        <v>45016.895821759303</v>
       </c>
       <c r="C233">
         <v>544</v>
@@ -12983,7 +13018,7 @@
         <v>37</v>
       </c>
       <c r="B234" s="1">
-        <v>45016.909236111111</v>
+        <v>45016.909236111103</v>
       </c>
       <c r="C234">
         <v>176</v>
@@ -13045,7 +13080,7 @@
         <v>37</v>
       </c>
       <c r="B235" s="1">
-        <v>45016.919594907413</v>
+        <v>45016.919594907398</v>
       </c>
       <c r="C235">
         <v>468</v>
@@ -13107,7 +13142,7 @@
         <v>37</v>
       </c>
       <c r="B236" s="1">
-        <v>45016.937314814822</v>
+        <v>45016.937314814801</v>
       </c>
       <c r="C236">
         <v>10</v>
@@ -13169,7 +13204,7 @@
         <v>37</v>
       </c>
       <c r="B237" s="1">
-        <v>45016.946296296293</v>
+        <v>45016.946296296301</v>
       </c>
       <c r="C237">
         <v>4</v>
@@ -13293,7 +13328,7 @@
         <v>37</v>
       </c>
       <c r="B239" s="1">
-        <v>45017.013668981483</v>
+        <v>45017.013668981497</v>
       </c>
       <c r="C239">
         <v>43</v>
@@ -13355,7 +13390,7 @@
         <v>37</v>
       </c>
       <c r="B240" s="1">
-        <v>45017.024363425917</v>
+        <v>45017.024363425902</v>
       </c>
       <c r="C240">
         <v>2643</v>
@@ -13417,7 +13452,7 @@
         <v>48</v>
       </c>
       <c r="B241" s="1">
-        <v>45017.055671296293</v>
+        <v>45017.055671296301</v>
       </c>
       <c r="D241" t="s">
         <v>38</v>
@@ -13458,7 +13493,7 @@
         <v>48</v>
       </c>
       <c r="B242" s="1">
-        <v>45017.05741898148</v>
+        <v>45017.057418981502</v>
       </c>
       <c r="D242" t="s">
         <v>62</v>
@@ -13499,7 +13534,7 @@
         <v>48</v>
       </c>
       <c r="B243" s="1">
-        <v>45017.057997685188</v>
+        <v>45017.057997685202</v>
       </c>
       <c r="D243" t="s">
         <v>38</v>
@@ -13581,7 +13616,7 @@
         <v>48</v>
       </c>
       <c r="B245" s="1">
-        <v>45017.059224537043</v>
+        <v>45017.059224536999</v>
       </c>
       <c r="D245" t="s">
         <v>38</v>
@@ -13622,7 +13657,7 @@
         <v>48</v>
       </c>
       <c r="B246" s="1">
-        <v>45017.059571759259</v>
+        <v>45017.059571759302</v>
       </c>
       <c r="D246" t="s">
         <v>62</v>
@@ -13663,7 +13698,7 @@
         <v>48</v>
       </c>
       <c r="B247" s="1">
-        <v>45017.060266203713</v>
+        <v>45017.060266203698</v>
       </c>
       <c r="D247" t="s">
         <v>38</v>
@@ -13704,7 +13739,7 @@
         <v>48</v>
       </c>
       <c r="B248" s="1">
-        <v>45017.060347222221</v>
+        <v>45017.060347222199</v>
       </c>
       <c r="D248" t="s">
         <v>38</v>
@@ -13786,7 +13821,7 @@
         <v>48</v>
       </c>
       <c r="B250" s="1">
-        <v>45017.060856481483</v>
+        <v>45017.060856481497</v>
       </c>
       <c r="D250" t="s">
         <v>38</v>
@@ -13827,7 +13862,7 @@
         <v>37</v>
       </c>
       <c r="B251" s="1">
-        <v>45017.078298611108</v>
+        <v>45017.078298611101</v>
       </c>
       <c r="C251">
         <v>581</v>
@@ -13889,7 +13924,7 @@
         <v>37</v>
       </c>
       <c r="B252" s="1">
-        <v>45017.100162037037</v>
+        <v>45017.100162037001</v>
       </c>
       <c r="C252">
         <v>486</v>
@@ -13951,7 +13986,7 @@
         <v>48</v>
       </c>
       <c r="B253" s="1">
-        <v>45017.109293981477</v>
+        <v>45017.109293981499</v>
       </c>
       <c r="D253" t="s">
         <v>38</v>
@@ -13992,7 +14027,7 @@
         <v>48</v>
       </c>
       <c r="B254" s="1">
-        <v>45017.111608796287</v>
+        <v>45017.111608796302</v>
       </c>
       <c r="D254" t="s">
         <v>38</v>
@@ -14074,7 +14109,7 @@
         <v>48</v>
       </c>
       <c r="B256" s="1">
-        <v>45017.112430555557</v>
+        <v>45017.1124305556</v>
       </c>
       <c r="D256" t="s">
         <v>58</v>
@@ -14115,7 +14150,7 @@
         <v>48</v>
       </c>
       <c r="B257" s="1">
-        <v>45017.112951388888</v>
+        <v>45017.112951388903</v>
       </c>
       <c r="D257" t="s">
         <v>38</v>
@@ -14197,7 +14232,7 @@
         <v>48</v>
       </c>
       <c r="B259" s="1">
-        <v>45017.113252314812</v>
+        <v>45017.113252314797</v>
       </c>
       <c r="D259" t="s">
         <v>58</v>
@@ -14238,7 +14273,7 @@
         <v>37</v>
       </c>
       <c r="B260" s="1">
-        <v>45017.113518518519</v>
+        <v>45017.113518518498</v>
       </c>
       <c r="C260">
         <v>13</v>
@@ -14300,7 +14335,7 @@
         <v>48</v>
       </c>
       <c r="B261" s="1">
-        <v>45017.113854166673</v>
+        <v>45017.113854166702</v>
       </c>
       <c r="D261" t="s">
         <v>58</v>
@@ -14341,7 +14376,7 @@
         <v>48</v>
       </c>
       <c r="B262" s="1">
-        <v>45017.114745370367</v>
+        <v>45017.114745370403</v>
       </c>
       <c r="D262" t="s">
         <v>38</v>
@@ -14382,7 +14417,7 @@
         <v>48</v>
       </c>
       <c r="B263" s="1">
-        <v>45017.115555555552</v>
+        <v>45017.115555555603</v>
       </c>
       <c r="D263" t="s">
         <v>38</v>
@@ -14423,7 +14458,7 @@
         <v>37</v>
       </c>
       <c r="B264" s="1">
-        <v>45017.12060185185</v>
+        <v>45017.120601851901</v>
       </c>
       <c r="C264">
         <v>107</v>
@@ -14485,7 +14520,7 @@
         <v>37</v>
       </c>
       <c r="B265" s="1">
-        <v>45017.132627314822</v>
+        <v>45017.132627314801</v>
       </c>
       <c r="C265">
         <v>1932</v>
@@ -14660,7 +14695,7 @@
         <v>37</v>
       </c>
       <c r="B267" s="1">
-        <v>45017.171539351853</v>
+        <v>45017.171539351897</v>
       </c>
       <c r="C267">
         <v>14</v>
@@ -14722,7 +14757,7 @@
         <v>37</v>
       </c>
       <c r="B268" s="1">
-        <v>45017.180995370371</v>
+        <v>45017.1809953704</v>
       </c>
       <c r="C268">
         <v>5230</v>
@@ -14784,7 +14819,7 @@
         <v>48</v>
       </c>
       <c r="B269" s="1">
-        <v>45017.201932870368</v>
+        <v>45017.201932870397</v>
       </c>
       <c r="D269" t="s">
         <v>38</v>
@@ -14825,7 +14860,7 @@
         <v>48</v>
       </c>
       <c r="B270" s="1">
-        <v>45017.202881944453</v>
+        <v>45017.202881944497</v>
       </c>
       <c r="D270" t="s">
         <v>58</v>
@@ -14866,7 +14901,7 @@
         <v>48</v>
       </c>
       <c r="B271" s="1">
-        <v>45017.203275462962</v>
+        <v>45017.203275462998</v>
       </c>
       <c r="D271" t="s">
         <v>58</v>
@@ -14907,7 +14942,7 @@
         <v>48</v>
       </c>
       <c r="B272" s="1">
-        <v>45017.203518518523</v>
+        <v>45017.203518518501</v>
       </c>
       <c r="D272" t="s">
         <v>38</v>
@@ -14948,7 +14983,7 @@
         <v>48</v>
       </c>
       <c r="B273" s="1">
-        <v>45017.203842592593</v>
+        <v>45017.2038425926</v>
       </c>
       <c r="D273" t="s">
         <v>58</v>
@@ -14989,7 +15024,7 @@
         <v>48</v>
       </c>
       <c r="B274" s="1">
-        <v>45017.20412037037</v>
+        <v>45017.204120370399</v>
       </c>
       <c r="D274" t="s">
         <v>38</v>
@@ -15071,7 +15106,7 @@
         <v>48</v>
       </c>
       <c r="B276" s="1">
-        <v>45017.205590277779</v>
+        <v>45017.205590277801</v>
       </c>
       <c r="D276" t="s">
         <v>58</v>
@@ -15112,7 +15147,7 @@
         <v>48</v>
       </c>
       <c r="B277" s="1">
-        <v>45017.205787037034</v>
+        <v>45017.205787036997</v>
       </c>
       <c r="D277" t="s">
         <v>38</v>
@@ -15153,7 +15188,7 @@
         <v>48</v>
       </c>
       <c r="B278" s="1">
-        <v>45017.215231481481</v>
+        <v>45017.215231481503</v>
       </c>
       <c r="D278" t="s">
         <v>38</v>
@@ -15194,7 +15229,7 @@
         <v>48</v>
       </c>
       <c r="B279" s="1">
-        <v>45017.216099537043</v>
+        <v>45017.216099537</v>
       </c>
       <c r="D279" t="s">
         <v>57</v>
@@ -15235,7 +15270,7 @@
         <v>48</v>
       </c>
       <c r="B280" s="1">
-        <v>45017.216851851852</v>
+        <v>45017.216851851903</v>
       </c>
       <c r="D280" t="s">
         <v>57</v>
@@ -15276,7 +15311,7 @@
         <v>48</v>
       </c>
       <c r="B281" s="1">
-        <v>45017.217094907413</v>
+        <v>45017.217094907399</v>
       </c>
       <c r="D281" t="s">
         <v>38</v>
@@ -15317,7 +15352,7 @@
         <v>48</v>
       </c>
       <c r="B282" s="1">
-        <v>45017.217534722222</v>
+        <v>45017.2175347222</v>
       </c>
       <c r="D282" t="s">
         <v>57</v>
@@ -15358,7 +15393,7 @@
         <v>48</v>
       </c>
       <c r="B283" s="1">
-        <v>45017.217893518522</v>
+        <v>45017.2178935185</v>
       </c>
       <c r="D283" t="s">
         <v>57</v>
@@ -15399,7 +15434,7 @@
         <v>48</v>
       </c>
       <c r="B284" s="1">
-        <v>45017.218113425923</v>
+        <v>45017.218113425901</v>
       </c>
       <c r="D284" t="s">
         <v>38</v>
@@ -15440,7 +15475,7 @@
         <v>48</v>
       </c>
       <c r="B285" s="1">
-        <v>45017.218692129631</v>
+        <v>45017.218692129602</v>
       </c>
       <c r="D285" t="s">
         <v>38</v>
@@ -15481,7 +15516,7 @@
         <v>48</v>
       </c>
       <c r="B286" s="1">
-        <v>45017.218958333331</v>
+        <v>45017.218958333302</v>
       </c>
       <c r="D286" t="s">
         <v>57</v>
@@ -15522,7 +15557,7 @@
         <v>48</v>
       </c>
       <c r="B287" s="1">
-        <v>45017.238287037027</v>
+        <v>45017.238287036998</v>
       </c>
       <c r="D287" t="s">
         <v>38</v>
@@ -15590,7 +15625,7 @@
         <v>48</v>
       </c>
       <c r="B288" s="1">
-        <v>45017.240173611113</v>
+        <v>45017.240173611099</v>
       </c>
       <c r="D288" t="s">
         <v>38</v>
@@ -15658,7 +15693,7 @@
         <v>48</v>
       </c>
       <c r="B289" s="1">
-        <v>45017.240868055553</v>
+        <v>45017.240868055596</v>
       </c>
       <c r="D289" t="s">
         <v>74</v>
@@ -15726,7 +15761,7 @@
         <v>48</v>
       </c>
       <c r="B290" s="1">
-        <v>45017.241388888891</v>
+        <v>45017.241388888899</v>
       </c>
       <c r="D290" t="s">
         <v>74</v>
@@ -15862,7 +15897,7 @@
         <v>48</v>
       </c>
       <c r="B292" s="1">
-        <v>45017.242638888893</v>
+        <v>45017.2426388889</v>
       </c>
       <c r="D292" t="s">
         <v>38</v>
@@ -15930,7 +15965,7 @@
         <v>48</v>
       </c>
       <c r="B293" s="1">
-        <v>45017.243425925917</v>
+        <v>45017.243425925903</v>
       </c>
       <c r="D293" t="s">
         <v>38</v>
@@ -15998,7 +16033,7 @@
         <v>48</v>
       </c>
       <c r="B294" s="1">
-        <v>45017.244108796287</v>
+        <v>45017.244108796302</v>
       </c>
       <c r="D294" t="s">
         <v>74</v>
@@ -16134,7 +16169,7 @@
         <v>59</v>
       </c>
       <c r="B296" s="1">
-        <v>45017.27815972222</v>
+        <v>45017.278159722198</v>
       </c>
       <c r="D296" t="s">
         <v>38</v>
@@ -16175,7 +16210,7 @@
         <v>37</v>
       </c>
       <c r="B297" s="1">
-        <v>45017.290011574078</v>
+        <v>45017.290011574099</v>
       </c>
       <c r="C297">
         <v>820</v>
@@ -16237,7 +16272,7 @@
         <v>48</v>
       </c>
       <c r="B298" s="1">
-        <v>45017.301817129628</v>
+        <v>45017.301817129599</v>
       </c>
       <c r="D298" t="s">
         <v>38</v>
@@ -16278,7 +16313,7 @@
         <v>48</v>
       </c>
       <c r="B299" s="1">
-        <v>45017.302766203713</v>
+        <v>45017.302766203698</v>
       </c>
       <c r="D299" t="s">
         <v>38</v>
@@ -16319,7 +16354,7 @@
         <v>48</v>
       </c>
       <c r="B300" s="1">
-        <v>45017.30300925926</v>
+        <v>45017.303009259304</v>
       </c>
       <c r="D300" t="s">
         <v>60</v>
@@ -16360,7 +16395,7 @@
         <v>37</v>
       </c>
       <c r="B301" s="1">
-        <v>45017.303078703713</v>
+        <v>45017.303078703699</v>
       </c>
       <c r="C301">
         <v>28</v>
@@ -16422,7 +16457,7 @@
         <v>37</v>
       </c>
       <c r="B302" s="1">
-        <v>45017.312962962962</v>
+        <v>45017.312962962998</v>
       </c>
       <c r="C302">
         <v>489</v>
@@ -16484,7 +16519,7 @@
         <v>48</v>
       </c>
       <c r="B303" s="1">
-        <v>45017.320428240739</v>
+        <v>45017.320428240702</v>
       </c>
       <c r="D303" t="s">
         <v>88</v>
@@ -16552,7 +16587,7 @@
         <v>37</v>
       </c>
       <c r="B304" s="1">
-        <v>45017.32372685185</v>
+        <v>45017.323726851901</v>
       </c>
       <c r="C304">
         <v>443</v>
@@ -16614,7 +16649,7 @@
         <v>59</v>
       </c>
       <c r="B305" s="1">
-        <v>45017.325497685182</v>
+        <v>45017.325497685197</v>
       </c>
       <c r="C305">
         <v>407</v>
@@ -16679,7 +16714,7 @@
         <v>48</v>
       </c>
       <c r="B306" s="1">
-        <v>45017.332175925927</v>
+        <v>45017.332175925898</v>
       </c>
       <c r="D306" t="s">
         <v>118</v>
@@ -16720,7 +16755,7 @@
         <v>48</v>
       </c>
       <c r="B307" s="1">
-        <v>45017.333773148152</v>
+        <v>45017.333773148202</v>
       </c>
       <c r="D307" t="s">
         <v>38</v>
@@ -16761,7 +16796,7 @@
         <v>37</v>
       </c>
       <c r="B308" s="1">
-        <v>45017.334664351853</v>
+        <v>45017.334664351903</v>
       </c>
       <c r="C308">
         <v>133</v>
@@ -16823,7 +16858,7 @@
         <v>37</v>
       </c>
       <c r="B309" s="1">
-        <v>45017.337060185193</v>
+        <v>45017.3370601852</v>
       </c>
       <c r="C309">
         <v>155</v>
@@ -16885,7 +16920,7 @@
         <v>48</v>
       </c>
       <c r="B310" s="1">
-        <v>45017.345300925917</v>
+        <v>45017.345300925903</v>
       </c>
       <c r="D310" t="s">
         <v>88</v>
@@ -16953,7 +16988,7 @@
         <v>48</v>
       </c>
       <c r="B311" s="1">
-        <v>45017.346782407411</v>
+        <v>45017.346782407403</v>
       </c>
       <c r="D311" t="s">
         <v>49</v>
@@ -17021,7 +17056,7 @@
         <v>37</v>
       </c>
       <c r="B312" s="1">
-        <v>45017.348969907413</v>
+        <v>45017.348969907398</v>
       </c>
       <c r="C312">
         <v>56</v>
@@ -17083,7 +17118,7 @@
         <v>48</v>
       </c>
       <c r="B313" s="1">
-        <v>45017.352789351848</v>
+        <v>45017.352789351899</v>
       </c>
       <c r="D313" t="s">
         <v>72</v>
@@ -17124,7 +17159,7 @@
         <v>37</v>
       </c>
       <c r="B314" s="1">
-        <v>45017.355543981481</v>
+        <v>45017.355543981503</v>
       </c>
       <c r="C314">
         <v>296</v>
@@ -17186,7 +17221,7 @@
         <v>48</v>
       </c>
       <c r="B315" s="1">
-        <v>45017.356180555558</v>
+        <v>45017.356180555602</v>
       </c>
       <c r="D315" t="s">
         <v>38</v>
@@ -17254,7 +17289,7 @@
         <v>59</v>
       </c>
       <c r="B316" s="1">
-        <v>45017.357708333337</v>
+        <v>45017.3577083333</v>
       </c>
       <c r="C316">
         <v>38</v>
@@ -17367,7 +17402,7 @@
         <v>48</v>
       </c>
       <c r="B317" s="1">
-        <v>45017.361122685194</v>
+        <v>45017.361122685201</v>
       </c>
       <c r="D317" t="s">
         <v>38</v>
@@ -17408,7 +17443,7 @@
         <v>48</v>
       </c>
       <c r="B318" s="1">
-        <v>45017.362604166658</v>
+        <v>45017.362604166701</v>
       </c>
       <c r="D318" t="s">
         <v>72</v>
@@ -17449,7 +17484,7 @@
         <v>48</v>
       </c>
       <c r="B319" s="1">
-        <v>45017.362916666672</v>
+        <v>45017.362916666701</v>
       </c>
       <c r="D319" t="s">
         <v>72</v>
@@ -17531,7 +17566,7 @@
         <v>48</v>
       </c>
       <c r="B321" s="1">
-        <v>45017.364247685182</v>
+        <v>45017.364247685196</v>
       </c>
       <c r="D321" t="s">
         <v>38</v>
@@ -17572,7 +17607,7 @@
         <v>48</v>
       </c>
       <c r="B322" s="1">
-        <v>45017.364872685182</v>
+        <v>45017.364872685197</v>
       </c>
       <c r="D322" t="s">
         <v>72</v>
@@ -17613,7 +17648,7 @@
         <v>59</v>
       </c>
       <c r="B323" s="1">
-        <v>45017.365057870367</v>
+        <v>45017.365057870396</v>
       </c>
       <c r="C323">
         <v>348</v>
@@ -17678,7 +17713,7 @@
         <v>48</v>
       </c>
       <c r="B324" s="1">
-        <v>45017.36550925926</v>
+        <v>45017.365509259304</v>
       </c>
       <c r="D324" t="s">
         <v>38</v>
@@ -17719,7 +17754,7 @@
         <v>48</v>
       </c>
       <c r="B325" s="1">
-        <v>45017.366180555553</v>
+        <v>45017.366180555597</v>
       </c>
       <c r="D325" t="s">
         <v>38</v>
@@ -17801,7 +17836,7 @@
         <v>37</v>
       </c>
       <c r="B327" s="1">
-        <v>45017.368298611109</v>
+        <v>45017.368298611102</v>
       </c>
       <c r="C327">
         <v>5</v>
@@ -17863,7 +17898,7 @@
         <v>37</v>
       </c>
       <c r="B328" s="1">
-        <v>45017.373148148137</v>
+        <v>45017.373148148101</v>
       </c>
       <c r="C328">
         <v>11</v>
@@ -17925,7 +17960,7 @@
         <v>48</v>
       </c>
       <c r="B329" s="1">
-        <v>45017.374872685177</v>
+        <v>45017.374872685199</v>
       </c>
       <c r="D329" t="s">
         <v>38</v>
@@ -17966,7 +18001,7 @@
         <v>59</v>
       </c>
       <c r="B330" s="1">
-        <v>45017.382280092592</v>
+        <v>45017.382280092599</v>
       </c>
       <c r="C330">
         <v>389</v>
@@ -18079,7 +18114,7 @@
         <v>37</v>
       </c>
       <c r="B331" s="1">
-        <v>45017.383252314823</v>
+        <v>45017.383252314801</v>
       </c>
       <c r="C331">
         <v>1489</v>
@@ -18141,7 +18176,7 @@
         <v>48</v>
       </c>
       <c r="B332" s="1">
-        <v>45017.383912037039</v>
+        <v>45017.383912037003</v>
       </c>
       <c r="D332" t="s">
         <v>80</v>
@@ -18209,7 +18244,7 @@
         <v>48</v>
       </c>
       <c r="B333" s="1">
-        <v>45017.385509259257</v>
+        <v>45017.3855092593</v>
       </c>
       <c r="D333" t="s">
         <v>38</v>
@@ -18277,7 +18312,7 @@
         <v>48</v>
       </c>
       <c r="B334" s="1">
-        <v>45017.386180555557</v>
+        <v>45017.386180555601</v>
       </c>
       <c r="D334" t="s">
         <v>38</v>
@@ -18345,7 +18380,7 @@
         <v>48</v>
       </c>
       <c r="B335" s="1">
-        <v>45017.386736111112</v>
+        <v>45017.386736111097</v>
       </c>
       <c r="D335" t="s">
         <v>80</v>
@@ -18413,7 +18448,7 @@
         <v>48</v>
       </c>
       <c r="B336" s="1">
-        <v>45017.387199074074</v>
+        <v>45017.387199074103</v>
       </c>
       <c r="D336" t="s">
         <v>38</v>
@@ -18481,7 +18516,7 @@
         <v>48</v>
       </c>
       <c r="B337" s="1">
-        <v>45017.387465277781</v>
+        <v>45017.387465277803</v>
       </c>
       <c r="D337" t="s">
         <v>80</v>
@@ -18549,7 +18584,7 @@
         <v>48</v>
       </c>
       <c r="B338" s="1">
-        <v>45017.387685185182</v>
+        <v>45017.387685185196</v>
       </c>
       <c r="D338" t="s">
         <v>80</v>
@@ -18617,7 +18652,7 @@
         <v>48</v>
       </c>
       <c r="B339" s="1">
-        <v>45017.388113425928</v>
+        <v>45017.388113425899</v>
       </c>
       <c r="D339" t="s">
         <v>38</v>
@@ -18685,7 +18720,7 @@
         <v>48</v>
       </c>
       <c r="B340" s="1">
-        <v>45017.388506944437</v>
+        <v>45017.3885069444</v>
       </c>
       <c r="D340" t="s">
         <v>80</v>
@@ -18753,7 +18788,7 @@
         <v>48</v>
       </c>
       <c r="B341" s="1">
-        <v>45017.388611111113</v>
+        <v>45017.388611111099</v>
       </c>
       <c r="D341" t="s">
         <v>80</v>
@@ -18821,7 +18856,7 @@
         <v>48</v>
       </c>
       <c r="B342" s="1">
-        <v>45017.389363425929</v>
+        <v>45017.3893634259</v>
       </c>
       <c r="D342" t="s">
         <v>38</v>
@@ -18889,7 +18924,7 @@
         <v>48</v>
       </c>
       <c r="B343" s="1">
-        <v>45017.390081018522</v>
+        <v>45017.3900810185</v>
       </c>
       <c r="D343" t="s">
         <v>80</v>
@@ -18957,7 +18992,7 @@
         <v>48</v>
       </c>
       <c r="B344" s="1">
-        <v>45017.390717592592</v>
+        <v>45017.3907175926</v>
       </c>
       <c r="D344" t="s">
         <v>38</v>
@@ -19025,7 +19060,7 @@
         <v>48</v>
       </c>
       <c r="B345" s="1">
-        <v>45017.391087962962</v>
+        <v>45017.391087962998</v>
       </c>
       <c r="D345" t="s">
         <v>80</v>
@@ -19093,7 +19128,7 @@
         <v>59</v>
       </c>
       <c r="B346" s="1">
-        <v>45017.391087962962</v>
+        <v>45017.391087962998</v>
       </c>
       <c r="C346">
         <v>475</v>
@@ -19206,7 +19241,7 @@
         <v>48</v>
       </c>
       <c r="B347" s="1">
-        <v>45017.391273148147</v>
+        <v>45017.391273148198</v>
       </c>
       <c r="D347" t="s">
         <v>38</v>
@@ -19247,7 +19282,7 @@
         <v>48</v>
       </c>
       <c r="B348" s="1">
-        <v>45017.392280092587</v>
+        <v>45017.392280092601</v>
       </c>
       <c r="D348" t="s">
         <v>79</v>
@@ -19288,7 +19323,7 @@
         <v>48</v>
       </c>
       <c r="B349" s="1">
-        <v>45017.393136574072</v>
+        <v>45017.393136574101</v>
       </c>
       <c r="D349" t="s">
         <v>38</v>
@@ -19329,7 +19364,7 @@
         <v>48</v>
       </c>
       <c r="B350" s="1">
-        <v>45017.393240740741</v>
+        <v>45017.393240740697</v>
       </c>
       <c r="D350" t="s">
         <v>38</v>
@@ -19370,7 +19405,7 @@
         <v>48</v>
       </c>
       <c r="B351" s="1">
-        <v>45017.393425925933</v>
+        <v>45017.393425925897</v>
       </c>
       <c r="D351" t="s">
         <v>38</v>
@@ -19411,7 +19446,7 @@
         <v>48</v>
       </c>
       <c r="B352" s="1">
-        <v>45017.393495370372</v>
+        <v>45017.393495370401</v>
       </c>
       <c r="D352" t="s">
         <v>38</v>
@@ -19452,7 +19487,7 @@
         <v>48</v>
       </c>
       <c r="B353" s="1">
-        <v>45017.393831018519</v>
+        <v>45017.393831018497</v>
       </c>
       <c r="D353" t="s">
         <v>79</v>
@@ -19493,7 +19528,7 @@
         <v>48</v>
       </c>
       <c r="B354" s="1">
-        <v>45017.394548611112</v>
+        <v>45017.394548611097</v>
       </c>
       <c r="D354" t="s">
         <v>79</v>
@@ -19534,7 +19569,7 @@
         <v>48</v>
       </c>
       <c r="B355" s="1">
-        <v>45017.39508101852</v>
+        <v>45017.395081018498</v>
       </c>
       <c r="D355" t="s">
         <v>38</v>
@@ -19575,7 +19610,7 @@
         <v>48</v>
       </c>
       <c r="B356" s="1">
-        <v>45017.395104166673</v>
+        <v>45017.395104166702</v>
       </c>
       <c r="D356" t="s">
         <v>49</v>
@@ -19643,7 +19678,7 @@
         <v>48</v>
       </c>
       <c r="B357" s="1">
-        <v>45017.395729166667</v>
+        <v>45017.395729166703</v>
       </c>
       <c r="D357" t="s">
         <v>38</v>
@@ -19684,7 +19719,7 @@
         <v>48</v>
       </c>
       <c r="B358" s="1">
-        <v>45017.396145833343</v>
+        <v>45017.3961458333</v>
       </c>
       <c r="D358" t="s">
         <v>38</v>
@@ -19752,7 +19787,7 @@
         <v>48</v>
       </c>
       <c r="B359" s="1">
-        <v>45017.396782407413</v>
+        <v>45017.396782407399</v>
       </c>
       <c r="D359" t="s">
         <v>49</v>
@@ -19820,7 +19855,7 @@
         <v>48</v>
       </c>
       <c r="B360" s="1">
-        <v>45017.397523148153</v>
+        <v>45017.397523148204</v>
       </c>
       <c r="D360" t="s">
         <v>38</v>
@@ -19888,7 +19923,7 @@
         <v>48</v>
       </c>
       <c r="B361" s="1">
-        <v>45017.398159722223</v>
+        <v>45017.398159722201</v>
       </c>
       <c r="D361" t="s">
         <v>38</v>
@@ -19956,7 +19991,7 @@
         <v>48</v>
       </c>
       <c r="B362" s="1">
-        <v>45017.398634259262</v>
+        <v>45017.398634259298</v>
       </c>
       <c r="D362" t="s">
         <v>49</v>
@@ -20024,7 +20059,7 @@
         <v>48</v>
       </c>
       <c r="B363" s="1">
-        <v>45017.398842592593</v>
+        <v>45017.3988425926</v>
       </c>
       <c r="D363" t="s">
         <v>49</v>
@@ -20092,7 +20127,7 @@
         <v>48</v>
       </c>
       <c r="B364" s="1">
-        <v>45017.399351851847</v>
+        <v>45017.399351851898</v>
       </c>
       <c r="D364" t="s">
         <v>38</v>
@@ -20160,7 +20195,7 @@
         <v>48</v>
       </c>
       <c r="B365" s="1">
-        <v>45017.399895833332</v>
+        <v>45017.399895833303</v>
       </c>
       <c r="D365" t="s">
         <v>38</v>
@@ -20228,7 +20263,7 @@
         <v>48</v>
       </c>
       <c r="B366" s="1">
-        <v>45017.400335648148</v>
+        <v>45017.400335648199</v>
       </c>
       <c r="D366" t="s">
         <v>49</v>
@@ -20296,7 +20331,7 @@
         <v>48</v>
       </c>
       <c r="B367" s="1">
-        <v>45017.400902777779</v>
+        <v>45017.400902777801</v>
       </c>
       <c r="D367" t="s">
         <v>49</v>
@@ -20364,7 +20399,7 @@
         <v>48</v>
       </c>
       <c r="B368" s="1">
-        <v>45017.401388888888</v>
+        <v>45017.401388888902</v>
       </c>
       <c r="D368" t="s">
         <v>38</v>
@@ -20432,7 +20467,7 @@
         <v>48</v>
       </c>
       <c r="B369" s="1">
-        <v>45017.40215277778</v>
+        <v>45017.402152777802</v>
       </c>
       <c r="D369" t="s">
         <v>49</v>
@@ -20500,7 +20535,7 @@
         <v>48</v>
       </c>
       <c r="B370" s="1">
-        <v>45017.412465277783</v>
+        <v>45017.412465277797</v>
       </c>
       <c r="D370" t="s">
         <v>49</v>
@@ -20568,7 +20603,7 @@
         <v>48</v>
       </c>
       <c r="B371" s="1">
-        <v>45017.413807870369</v>
+        <v>45017.413807870398</v>
       </c>
       <c r="D371" t="s">
         <v>49</v>
@@ -20636,7 +20671,7 @@
         <v>48</v>
       </c>
       <c r="B372" s="1">
-        <v>45017.414548611108</v>
+        <v>45017.414548611101</v>
       </c>
       <c r="D372" t="s">
         <v>38</v>
@@ -20704,7 +20739,7 @@
         <v>48</v>
       </c>
       <c r="B373" s="1">
-        <v>45017.414872685193</v>
+        <v>45017.4148726852</v>
       </c>
       <c r="D373" t="s">
         <v>49</v>
@@ -20772,7 +20807,7 @@
         <v>48</v>
       </c>
       <c r="B374" s="1">
-        <v>45017.415196759262</v>
+        <v>45017.415196759299</v>
       </c>
       <c r="D374" t="s">
         <v>38</v>
@@ -20908,7 +20943,7 @@
         <v>48</v>
       </c>
       <c r="B376" s="1">
-        <v>45017.416145833333</v>
+        <v>45017.416145833296</v>
       </c>
       <c r="D376" t="s">
         <v>49</v>
@@ -20976,7 +21011,7 @@
         <v>48</v>
       </c>
       <c r="B377" s="1">
-        <v>45017.416446759264</v>
+        <v>45017.4164467593</v>
       </c>
       <c r="D377" t="s">
         <v>49</v>
@@ -21044,7 +21079,7 @@
         <v>48</v>
       </c>
       <c r="B378" s="1">
-        <v>45017.417037037027</v>
+        <v>45017.417037036997</v>
       </c>
       <c r="D378" t="s">
         <v>38</v>
@@ -21112,7 +21147,7 @@
         <v>48</v>
       </c>
       <c r="B379" s="1">
-        <v>45017.417488425926</v>
+        <v>45017.417488425897</v>
       </c>
       <c r="D379" t="s">
         <v>49</v>
@@ -21180,7 +21215,7 @@
         <v>48</v>
       </c>
       <c r="B380" s="1">
-        <v>45017.417800925927</v>
+        <v>45017.417800925898</v>
       </c>
       <c r="D380" t="s">
         <v>38</v>
@@ -21248,7 +21283,7 @@
         <v>48</v>
       </c>
       <c r="B381" s="1">
-        <v>45017.418541666673</v>
+        <v>45017.418541666702</v>
       </c>
       <c r="D381" t="s">
         <v>49</v>
@@ -21316,7 +21351,7 @@
         <v>48</v>
       </c>
       <c r="B382" s="1">
-        <v>45017.419131944444</v>
+        <v>45017.4191319444</v>
       </c>
       <c r="D382" t="s">
         <v>38</v>
@@ -21384,7 +21419,7 @@
         <v>48</v>
       </c>
       <c r="B383" s="1">
-        <v>45017.419652777768</v>
+        <v>45017.419652777797</v>
       </c>
       <c r="D383" t="s">
         <v>38</v>
@@ -21452,7 +21487,7 @@
         <v>48</v>
       </c>
       <c r="B384" s="1">
-        <v>45017.420393518521</v>
+        <v>45017.4203935185</v>
       </c>
       <c r="D384" t="s">
         <v>49</v>
@@ -21588,7 +21623,7 @@
         <v>37</v>
       </c>
       <c r="B386" s="1">
-        <v>45017.42391203704</v>
+        <v>45017.423912036997</v>
       </c>
       <c r="C386">
         <v>27</v>
@@ -21650,7 +21685,7 @@
         <v>48</v>
       </c>
       <c r="B387" s="1">
-        <v>45017.425439814811</v>
+        <v>45017.425439814797</v>
       </c>
       <c r="D387" t="s">
         <v>72</v>
@@ -21691,7 +21726,7 @@
         <v>37</v>
       </c>
       <c r="B388" s="1">
-        <v>45017.426817129628</v>
+        <v>45017.426817129599</v>
       </c>
       <c r="C388">
         <v>177</v>
@@ -21753,7 +21788,7 @@
         <v>48</v>
       </c>
       <c r="B389" s="1">
-        <v>45017.427094907413</v>
+        <v>45017.427094907398</v>
       </c>
       <c r="D389" t="s">
         <v>72</v>
@@ -21794,7 +21829,7 @@
         <v>48</v>
       </c>
       <c r="B390" s="1">
-        <v>45017.427754629629</v>
+        <v>45017.4277546296</v>
       </c>
       <c r="D390" t="s">
         <v>72</v>
@@ -21835,7 +21870,7 @@
         <v>48</v>
       </c>
       <c r="B391" s="1">
-        <v>45017.428449074083</v>
+        <v>45017.428449074097</v>
       </c>
       <c r="D391" t="s">
         <v>38</v>
@@ -21876,7 +21911,7 @@
         <v>48</v>
       </c>
       <c r="B392" s="1">
-        <v>45017.428969907407</v>
+        <v>45017.4289699074</v>
       </c>
       <c r="D392" t="s">
         <v>38</v>
@@ -21917,7 +21952,7 @@
         <v>48</v>
       </c>
       <c r="B393" s="1">
-        <v>45017.429224537038</v>
+        <v>45017.429224537002</v>
       </c>
       <c r="D393" t="s">
         <v>72</v>
@@ -21958,7 +21993,7 @@
         <v>48</v>
       </c>
       <c r="B394" s="1">
-        <v>45017.429467592592</v>
+        <v>45017.429467592599</v>
       </c>
       <c r="D394" t="s">
         <v>38</v>
@@ -21999,7 +22034,7 @@
         <v>48</v>
       </c>
       <c r="B395" s="1">
-        <v>45017.430231481478</v>
+        <v>45017.4302314815</v>
       </c>
       <c r="D395" t="s">
         <v>72</v>
@@ -22040,7 +22075,7 @@
         <v>48</v>
       </c>
       <c r="B396" s="1">
-        <v>45017.431030092594</v>
+        <v>45017.431030092601</v>
       </c>
       <c r="D396" t="s">
         <v>38</v>
@@ -22081,7 +22116,7 @@
         <v>48</v>
       </c>
       <c r="B397" s="1">
-        <v>45017.433854166673</v>
+        <v>45017.433854166702</v>
       </c>
       <c r="D397" t="s">
         <v>38</v>
@@ -22122,7 +22157,7 @@
         <v>59</v>
       </c>
       <c r="B398" s="1">
-        <v>45017.436412037037</v>
+        <v>45017.436412037001</v>
       </c>
       <c r="C398">
         <v>191</v>
@@ -22187,7 +22222,7 @@
         <v>37</v>
       </c>
       <c r="B399" s="1">
-        <v>45017.440162037034</v>
+        <v>45017.440162036997</v>
       </c>
       <c r="C399">
         <v>9</v>
@@ -22249,7 +22284,7 @@
         <v>37</v>
       </c>
       <c r="B400" s="1">
-        <v>45017.446412037039</v>
+        <v>45017.446412037003</v>
       </c>
       <c r="C400">
         <v>30</v>
@@ -22311,7 +22346,7 @@
         <v>48</v>
       </c>
       <c r="B401" s="1">
-        <v>45017.448564814818</v>
+        <v>45017.448564814797</v>
       </c>
       <c r="D401" t="s">
         <v>49</v>
@@ -22379,7 +22414,7 @@
         <v>37</v>
       </c>
       <c r="B402" s="1">
-        <v>45017.456701388888</v>
+        <v>45017.456701388903</v>
       </c>
       <c r="C402">
         <v>1331</v>
@@ -22441,7 +22476,7 @@
         <v>48</v>
       </c>
       <c r="B403" s="1">
-        <v>45017.460960648154</v>
+        <v>45017.460960648197</v>
       </c>
       <c r="D403" t="s">
         <v>49</v>
@@ -22509,7 +22544,7 @@
         <v>48</v>
       </c>
       <c r="B404" s="1">
-        <v>45017.461840277778</v>
+        <v>45017.4618402778</v>
       </c>
       <c r="D404" t="s">
         <v>38</v>
@@ -22577,7 +22612,7 @@
         <v>48</v>
       </c>
       <c r="B405" s="1">
-        <v>45017.467604166668</v>
+        <v>45017.467604166697</v>
       </c>
       <c r="D405" t="s">
         <v>63</v>
@@ -22645,7 +22680,7 @@
         <v>59</v>
       </c>
       <c r="B406" s="1">
-        <v>45017.47215277778</v>
+        <v>45017.472152777802</v>
       </c>
       <c r="C406">
         <v>57</v>
@@ -22823,7 +22858,7 @@
         <v>48</v>
       </c>
       <c r="B408" s="1">
-        <v>45017.48646990741</v>
+        <v>45017.486469907402</v>
       </c>
       <c r="D408" t="s">
         <v>38</v>
@@ -22926,7 +22961,7 @@
         <v>48</v>
       </c>
       <c r="B410" s="1">
-        <v>45017.496631944443</v>
+        <v>45017.496631944399</v>
       </c>
       <c r="D410" t="s">
         <v>38</v>
@@ -22967,7 +23002,7 @@
         <v>48</v>
       </c>
       <c r="B411" s="1">
-        <v>45017.498912037037</v>
+        <v>45017.498912037001</v>
       </c>
       <c r="D411" t="s">
         <v>38</v>
@@ -23008,7 +23043,7 @@
         <v>48</v>
       </c>
       <c r="B412" s="1">
-        <v>45017.499259259261</v>
+        <v>45017.499259259297</v>
       </c>
       <c r="D412" t="s">
         <v>57</v>
@@ -23049,7 +23084,7 @@
         <v>48</v>
       </c>
       <c r="B413" s="1">
-        <v>45017.499710648153</v>
+        <v>45017.499710648197</v>
       </c>
       <c r="D413" t="s">
         <v>57</v>
@@ -23090,7 +23125,7 @@
         <v>48</v>
       </c>
       <c r="B414" s="1">
-        <v>45017.512974537043</v>
+        <v>45017.512974537</v>
       </c>
       <c r="D414" t="s">
         <v>38</v>
@@ -23131,7 +23166,7 @@
         <v>59</v>
       </c>
       <c r="B415" s="1">
-        <v>45017.521087962959</v>
+        <v>45017.521087963003</v>
       </c>
       <c r="C415">
         <v>39</v>
@@ -23196,7 +23231,7 @@
         <v>48</v>
       </c>
       <c r="B416" s="1">
-        <v>45017.529583333337</v>
+        <v>45017.5295833333</v>
       </c>
       <c r="D416" t="s">
         <v>38</v>
@@ -23237,7 +23272,7 @@
         <v>48</v>
       </c>
       <c r="B417" s="1">
-        <v>45017.530763888892</v>
+        <v>45017.530763888899</v>
       </c>
       <c r="D417" t="s">
         <v>38</v>
@@ -23305,7 +23340,7 @@
         <v>48</v>
       </c>
       <c r="B418" s="1">
-        <v>45017.531331018523</v>
+        <v>45017.531331018501</v>
       </c>
       <c r="D418" t="s">
         <v>62</v>
@@ -23387,7 +23422,7 @@
         <v>48</v>
       </c>
       <c r="B420" s="1">
-        <v>45017.531840277778</v>
+        <v>45017.531840277799</v>
       </c>
       <c r="D420" t="s">
         <v>38</v>
@@ -23455,7 +23490,7 @@
         <v>48</v>
       </c>
       <c r="B421" s="1">
-        <v>45017.532361111109</v>
+        <v>45017.532361111102</v>
       </c>
       <c r="D421" t="s">
         <v>38</v>
@@ -23523,7 +23558,7 @@
         <v>59</v>
       </c>
       <c r="B422" s="1">
-        <v>45017.544791666667</v>
+        <v>45017.544791666704</v>
       </c>
       <c r="C422">
         <v>2</v>
@@ -23588,7 +23623,7 @@
         <v>48</v>
       </c>
       <c r="B423" s="1">
-        <v>45017.56795138889</v>
+        <v>45017.567951388897</v>
       </c>
       <c r="D423" t="s">
         <v>58</v>
@@ -23629,7 +23664,7 @@
         <v>48</v>
       </c>
       <c r="B424" s="1">
-        <v>45017.569722222222</v>
+        <v>45017.569722222201</v>
       </c>
       <c r="D424" t="s">
         <v>58</v>
@@ -23670,7 +23705,7 @@
         <v>48</v>
       </c>
       <c r="B425" s="1">
-        <v>45017.570520833331</v>
+        <v>45017.570520833302</v>
       </c>
       <c r="D425" t="s">
         <v>38</v>
@@ -23711,7 +23746,7 @@
         <v>37</v>
       </c>
       <c r="B426" s="1">
-        <v>45017.786828703713</v>
+        <v>45017.786828703698</v>
       </c>
       <c r="C426">
         <v>126</v>
@@ -23773,7 +23808,7 @@
         <v>37</v>
       </c>
       <c r="B427" s="1">
-        <v>45017.796759259261</v>
+        <v>45017.796759259298</v>
       </c>
       <c r="C427">
         <v>142</v>
@@ -23897,7 +23932,7 @@
         <v>37</v>
       </c>
       <c r="B429" s="1">
-        <v>45017.812141203707</v>
+        <v>45017.8121412037</v>
       </c>
       <c r="C429">
         <v>3720</v>
@@ -23959,7 +23994,7 @@
         <v>59</v>
       </c>
       <c r="B430" s="1">
-        <v>45017.81689814815</v>
+        <v>45017.816898148201</v>
       </c>
       <c r="C430">
         <v>43</v>
@@ -24024,7 +24059,7 @@
         <v>59</v>
       </c>
       <c r="B431" s="1">
-        <v>45017.823611111111</v>
+        <v>45017.823611111096</v>
       </c>
       <c r="C431">
         <v>293</v>
@@ -24089,7 +24124,7 @@
         <v>37</v>
       </c>
       <c r="B432" s="1">
-        <v>45017.871331018519</v>
+        <v>45017.871331018498</v>
       </c>
       <c r="C432">
         <v>43</v>
@@ -24151,7 +24186,7 @@
         <v>37</v>
       </c>
       <c r="B433" s="1">
-        <v>45017.881469907406</v>
+        <v>45017.881469907399</v>
       </c>
       <c r="C433">
         <v>13</v>
@@ -24213,7 +24248,7 @@
         <v>37</v>
       </c>
       <c r="B434" s="1">
-        <v>45017.88962962963</v>
+        <v>45017.889629629601</v>
       </c>
       <c r="C434">
         <v>5502</v>
@@ -24275,7 +24310,7 @@
         <v>48</v>
       </c>
       <c r="B435" s="1">
-        <v>45017.906886574077</v>
+        <v>45017.906886574099</v>
       </c>
       <c r="D435" t="s">
         <v>38</v>
@@ -24343,7 +24378,7 @@
         <v>48</v>
       </c>
       <c r="B436" s="1">
-        <v>45017.908726851849</v>
+        <v>45017.9087268519</v>
       </c>
       <c r="D436" t="s">
         <v>63</v>
@@ -24411,7 +24446,7 @@
         <v>48</v>
       </c>
       <c r="B437" s="1">
-        <v>45017.90902777778</v>
+        <v>45017.909027777801</v>
       </c>
       <c r="D437" t="s">
         <v>38</v>
@@ -24479,7 +24514,7 @@
         <v>48</v>
       </c>
       <c r="B438" s="1">
-        <v>45017.909583333327</v>
+        <v>45017.909583333298</v>
       </c>
       <c r="D438" t="s">
         <v>63</v>
@@ -24547,7 +24582,7 @@
         <v>48</v>
       </c>
       <c r="B439" s="1">
-        <v>45017.910011574073</v>
+        <v>45017.910011574102</v>
       </c>
       <c r="D439" t="s">
         <v>38</v>
@@ -24615,7 +24650,7 @@
         <v>48</v>
       </c>
       <c r="B440" s="1">
-        <v>45017.910324074073</v>
+        <v>45017.910324074102</v>
       </c>
       <c r="D440" t="s">
         <v>63</v>
@@ -24751,7 +24786,7 @@
         <v>48</v>
       </c>
       <c r="B442" s="1">
-        <v>45017.917974537027</v>
+        <v>45017.917974536998</v>
       </c>
       <c r="D442" t="s">
         <v>38</v>
@@ -24792,7 +24827,7 @@
         <v>48</v>
       </c>
       <c r="B443" s="1">
-        <v>45017.920138888891</v>
+        <v>45017.920138888898</v>
       </c>
       <c r="D443" t="s">
         <v>38</v>
@@ -24874,7 +24909,7 @@
         <v>48</v>
       </c>
       <c r="B445" s="1">
-        <v>45017.921319444453</v>
+        <v>45017.921319444496</v>
       </c>
       <c r="D445" t="s">
         <v>61</v>
@@ -24956,7 +24991,7 @@
         <v>48</v>
       </c>
       <c r="B447" s="1">
-        <v>45017.922615740739</v>
+        <v>45017.922615740703</v>
       </c>
       <c r="D447" t="s">
         <v>38</v>
@@ -24997,7 +25032,7 @@
         <v>48</v>
       </c>
       <c r="B448" s="1">
-        <v>45017.922824074078</v>
+        <v>45017.922824074099</v>
       </c>
       <c r="D448" t="s">
         <v>61</v>
@@ -25038,7 +25073,7 @@
         <v>37</v>
       </c>
       <c r="B449" s="1">
-        <v>45017.980729166673</v>
+        <v>45017.980729166702</v>
       </c>
       <c r="C449">
         <v>785</v>
@@ -25100,7 +25135,7 @@
         <v>37</v>
       </c>
       <c r="B450" s="1">
-        <v>45018.005011574067</v>
+        <v>45018.005011574103</v>
       </c>
       <c r="C450">
         <v>2323</v>
@@ -25162,7 +25197,7 @@
         <v>48</v>
       </c>
       <c r="B451" s="1">
-        <v>45018.02175925926</v>
+        <v>45018.021759259304</v>
       </c>
       <c r="D451" t="s">
         <v>38</v>
@@ -25203,7 +25238,7 @@
         <v>48</v>
       </c>
       <c r="B452" s="1">
-        <v>45018.023506944453</v>
+        <v>45018.023506944497</v>
       </c>
       <c r="D452" t="s">
         <v>38</v>
@@ -25244,7 +25279,7 @@
         <v>48</v>
       </c>
       <c r="B453" s="1">
-        <v>45018.024097222216</v>
+        <v>45018.024097222202</v>
       </c>
       <c r="D453" t="s">
         <v>61</v>
@@ -25326,7 +25361,7 @@
         <v>48</v>
       </c>
       <c r="B455" s="1">
-        <v>45018.025092592587</v>
+        <v>45018.025092592601</v>
       </c>
       <c r="D455" t="s">
         <v>38</v>
@@ -25367,7 +25402,7 @@
         <v>48</v>
       </c>
       <c r="B456" s="1">
-        <v>45018.025381944448</v>
+        <v>45018.025381944499</v>
       </c>
       <c r="D456" t="s">
         <v>61</v>
@@ -25408,7 +25443,7 @@
         <v>48</v>
       </c>
       <c r="B457" s="1">
-        <v>45018.026099537034</v>
+        <v>45018.026099536997</v>
       </c>
       <c r="D457" t="s">
         <v>38</v>
@@ -25449,7 +25484,7 @@
         <v>48</v>
       </c>
       <c r="B458" s="1">
-        <v>45018.026446759257</v>
+        <v>45018.026446759301</v>
       </c>
       <c r="D458" t="s">
         <v>38</v>
@@ -25490,7 +25525,7 @@
         <v>37</v>
       </c>
       <c r="B459" s="1">
-        <v>45018.044861111113</v>
+        <v>45018.044861111099</v>
       </c>
       <c r="C459">
         <v>16</v>
@@ -25552,7 +25587,7 @@
         <v>48</v>
       </c>
       <c r="B460" s="1">
-        <v>45018.052314814813</v>
+        <v>45018.052314814799</v>
       </c>
       <c r="D460" t="s">
         <v>38</v>
@@ -25593,7 +25628,7 @@
         <v>48</v>
       </c>
       <c r="B461" s="1">
-        <v>45018.05332175926</v>
+        <v>45018.053321759297</v>
       </c>
       <c r="D461" t="s">
         <v>38</v>
@@ -25634,7 +25669,7 @@
         <v>48</v>
       </c>
       <c r="B462" s="1">
-        <v>45018.053530092591</v>
+        <v>45018.053530092599</v>
       </c>
       <c r="D462" t="s">
         <v>72</v>
@@ -25675,7 +25710,7 @@
         <v>48</v>
       </c>
       <c r="B463" s="1">
-        <v>45018.054201388892</v>
+        <v>45018.054201388899</v>
       </c>
       <c r="D463" t="s">
         <v>38</v>
@@ -25716,7 +25751,7 @@
         <v>48</v>
       </c>
       <c r="B464" s="1">
-        <v>45018.054398148153</v>
+        <v>45018.054398148197</v>
       </c>
       <c r="D464" t="s">
         <v>72</v>
@@ -25757,7 +25792,7 @@
         <v>48</v>
       </c>
       <c r="B465" s="1">
-        <v>45018.054548611108</v>
+        <v>45018.0545486111</v>
       </c>
       <c r="D465" t="s">
         <v>72</v>
@@ -25798,7 +25833,7 @@
         <v>48</v>
       </c>
       <c r="B466" s="1">
-        <v>45018.054895833331</v>
+        <v>45018.054895833302</v>
       </c>
       <c r="D466" t="s">
         <v>38</v>
@@ -25839,7 +25874,7 @@
         <v>48</v>
       </c>
       <c r="B467" s="1">
-        <v>45018.055092592593</v>
+        <v>45018.0550925926</v>
       </c>
       <c r="D467" t="s">
         <v>38</v>
@@ -25880,7 +25915,7 @@
         <v>48</v>
       </c>
       <c r="B468" s="1">
-        <v>45018.055983796286</v>
+        <v>45018.055983796301</v>
       </c>
       <c r="D468" t="s">
         <v>72</v>
@@ -25921,7 +25956,7 @@
         <v>37</v>
       </c>
       <c r="B469" s="1">
-        <v>45018.056261574071</v>
+        <v>45018.0562615741</v>
       </c>
       <c r="C469">
         <v>6</v>
@@ -25983,7 +26018,7 @@
         <v>48</v>
       </c>
       <c r="B470" s="1">
-        <v>45018.056284722217</v>
+        <v>45018.056284722203</v>
       </c>
       <c r="D470" t="s">
         <v>38</v>
@@ -26024,7 +26059,7 @@
         <v>48</v>
       </c>
       <c r="B471" s="1">
-        <v>45018.05636574074</v>
+        <v>45018.056365740696</v>
       </c>
       <c r="D471" t="s">
         <v>38</v>
@@ -26092,7 +26127,7 @@
         <v>48</v>
       </c>
       <c r="B472" s="1">
-        <v>45018.056932870371</v>
+        <v>45018.0569328704</v>
       </c>
       <c r="D472" t="s">
         <v>38</v>
@@ -26133,7 +26168,7 @@
         <v>48</v>
       </c>
       <c r="B473" s="1">
-        <v>45018.057349537034</v>
+        <v>45018.057349536997</v>
       </c>
       <c r="D473" t="s">
         <v>72</v>
@@ -26174,7 +26209,7 @@
         <v>37</v>
       </c>
       <c r="B474" s="1">
-        <v>45018.057754629634</v>
+        <v>45018.057754629597</v>
       </c>
       <c r="C474">
         <v>8</v>
@@ -26236,7 +26271,7 @@
         <v>37</v>
       </c>
       <c r="B475" s="1">
-        <v>45018.06759259259</v>
+        <v>45018.067592592597</v>
       </c>
       <c r="C475">
         <v>7362</v>
@@ -26298,7 +26333,7 @@
         <v>48</v>
       </c>
       <c r="B476" s="1">
-        <v>45018.071469907409</v>
+        <v>45018.071469907401</v>
       </c>
       <c r="D476" t="s">
         <v>38</v>
@@ -26339,7 +26374,7 @@
         <v>48</v>
       </c>
       <c r="B477" s="1">
-        <v>45018.080127314817</v>
+        <v>45018.080127314803</v>
       </c>
       <c r="D477" t="s">
         <v>58</v>
@@ -26380,7 +26415,7 @@
         <v>59</v>
       </c>
       <c r="B478" s="1">
-        <v>45018.086736111109</v>
+        <v>45018.086736111101</v>
       </c>
       <c r="C478">
         <v>188</v>
@@ -26623,7 +26658,7 @@
         <v>59</v>
       </c>
       <c r="B481" s="1">
-        <v>45018.118333333332</v>
+        <v>45018.118333333303</v>
       </c>
       <c r="C481">
         <v>475</v>
@@ -26688,7 +26723,7 @@
         <v>59</v>
       </c>
       <c r="B482" s="1">
-        <v>45018.146493055552</v>
+        <v>45018.146493055603</v>
       </c>
       <c r="C482">
         <v>76</v>
@@ -26753,7 +26788,7 @@
         <v>48</v>
       </c>
       <c r="B483" s="1">
-        <v>45018.147986111107</v>
+        <v>45018.1479861111</v>
       </c>
       <c r="D483" t="s">
         <v>38</v>
@@ -26794,7 +26829,7 @@
         <v>59</v>
       </c>
       <c r="B484" s="1">
-        <v>45018.152986111112</v>
+        <v>45018.152986111098</v>
       </c>
       <c r="C484">
         <v>361</v>
@@ -26859,7 +26894,7 @@
         <v>59</v>
       </c>
       <c r="B485" s="1">
-        <v>45018.15415509259</v>
+        <v>45018.154155092598</v>
       </c>
       <c r="C485">
         <v>523</v>
@@ -26972,7 +27007,7 @@
         <v>48</v>
       </c>
       <c r="B486" s="1">
-        <v>45018.158136574071</v>
+        <v>45018.1581365741</v>
       </c>
       <c r="D486" t="s">
         <v>38</v>
@@ -27040,7 +27075,7 @@
         <v>48</v>
       </c>
       <c r="B487" s="1">
-        <v>45018.158206018517</v>
+        <v>45018.158206018503</v>
       </c>
       <c r="D487" t="s">
         <v>61</v>
@@ -27081,7 +27116,7 @@
         <v>48</v>
       </c>
       <c r="B488" s="1">
-        <v>45018.159918981481</v>
+        <v>45018.159918981502</v>
       </c>
       <c r="D488" t="s">
         <v>38</v>
@@ -27163,7 +27198,7 @@
         <v>48</v>
       </c>
       <c r="B490" s="1">
-        <v>45018.160856481481</v>
+        <v>45018.160856481503</v>
       </c>
       <c r="D490" t="s">
         <v>61</v>
@@ -27204,7 +27239,7 @@
         <v>48</v>
       </c>
       <c r="B491" s="1">
-        <v>45018.161006944443</v>
+        <v>45018.1610069444</v>
       </c>
       <c r="D491" t="s">
         <v>61</v>
@@ -27245,7 +27280,7 @@
         <v>48</v>
       </c>
       <c r="B492" s="1">
-        <v>45018.161805555559</v>
+        <v>45018.161805555603</v>
       </c>
       <c r="D492" t="s">
         <v>38</v>
@@ -27286,7 +27321,7 @@
         <v>48</v>
       </c>
       <c r="B493" s="1">
-        <v>45018.162673611107</v>
+        <v>45018.162673611099</v>
       </c>
       <c r="D493" t="s">
         <v>61</v>
@@ -27327,7 +27362,7 @@
         <v>37</v>
       </c>
       <c r="B494" s="1">
-        <v>45018.162743055553</v>
+        <v>45018.162743055596</v>
       </c>
       <c r="C494">
         <v>2</v>
@@ -27389,7 +27424,7 @@
         <v>37</v>
       </c>
       <c r="B495" s="1">
-        <v>45018.16302083333</v>
+        <v>45018.163020833301</v>
       </c>
       <c r="C495">
         <v>503</v>
@@ -27451,7 +27486,7 @@
         <v>48</v>
       </c>
       <c r="B496" s="1">
-        <v>45018.163344907407</v>
+        <v>45018.1633449074</v>
       </c>
       <c r="D496" t="s">
         <v>61</v>
@@ -27492,7 +27527,7 @@
         <v>48</v>
       </c>
       <c r="B497" s="1">
-        <v>45018.164189814823</v>
+        <v>45018.164189814801</v>
       </c>
       <c r="D497" t="s">
         <v>38</v>
@@ -27533,7 +27568,7 @@
         <v>48</v>
       </c>
       <c r="B498" s="1">
-        <v>45018.164814814823</v>
+        <v>45018.164814814802</v>
       </c>
       <c r="D498" t="s">
         <v>61</v>
@@ -27574,7 +27609,7 @@
         <v>48</v>
       </c>
       <c r="B499" s="1">
-        <v>45018.165439814817</v>
+        <v>45018.165439814802</v>
       </c>
       <c r="D499" t="s">
         <v>38</v>
@@ -27656,7 +27691,7 @@
         <v>48</v>
       </c>
       <c r="B501" s="1">
-        <v>45018.16746527778</v>
+        <v>45018.167465277802</v>
       </c>
       <c r="D501" t="s">
         <v>38</v>
@@ -27697,7 +27732,7 @@
         <v>48</v>
       </c>
       <c r="B502" s="1">
-        <v>45018.167731481481</v>
+        <v>45018.167731481502</v>
       </c>
       <c r="D502" t="s">
         <v>72</v>
@@ -27779,7 +27814,7 @@
         <v>48</v>
       </c>
       <c r="B504" s="1">
-        <v>45018.169270833343</v>
+        <v>45018.169270833299</v>
       </c>
       <c r="D504" t="s">
         <v>72</v>
@@ -27820,7 +27855,7 @@
         <v>48</v>
       </c>
       <c r="B505" s="1">
-        <v>45018.169895833344</v>
+        <v>45018.1698958333</v>
       </c>
       <c r="D505" t="s">
         <v>72</v>
@@ -27861,7 +27896,7 @@
         <v>48</v>
       </c>
       <c r="B506" s="1">
-        <v>45018.170486111107</v>
+        <v>45018.170486111099</v>
       </c>
       <c r="D506" t="s">
         <v>38</v>
@@ -27902,7 +27937,7 @@
         <v>48</v>
       </c>
       <c r="B507" s="1">
-        <v>45018.172256944446</v>
+        <v>45018.172256944497</v>
       </c>
       <c r="D507" t="s">
         <v>38</v>
@@ -27970,7 +28005,7 @@
         <v>48</v>
       </c>
       <c r="B508" s="1">
-        <v>45018.172731481478</v>
+        <v>45018.1727314815</v>
       </c>
       <c r="D508" t="s">
         <v>96</v>
@@ -28038,7 +28073,7 @@
         <v>37</v>
       </c>
       <c r="B509" s="1">
-        <v>45018.176180555558</v>
+        <v>45018.176180555602</v>
       </c>
       <c r="C509">
         <v>8</v>
@@ -28100,7 +28135,7 @@
         <v>37</v>
       </c>
       <c r="B510" s="1">
-        <v>45018.182372685187</v>
+        <v>45018.182372685202</v>
       </c>
       <c r="C510">
         <v>49</v>
@@ -28162,7 +28197,7 @@
         <v>37</v>
       </c>
       <c r="B511" s="1">
-        <v>45018.187303240738</v>
+        <v>45018.187303240702</v>
       </c>
       <c r="C511">
         <v>33</v>
@@ -28224,7 +28259,7 @@
         <v>37</v>
       </c>
       <c r="B512" s="1">
-        <v>45018.198680555557</v>
+        <v>45018.198680555601</v>
       </c>
       <c r="C512">
         <v>3</v>
@@ -28286,7 +28321,7 @@
         <v>37</v>
       </c>
       <c r="B513" s="1">
-        <v>45018.202488425923</v>
+        <v>45018.202488425901</v>
       </c>
       <c r="C513">
         <v>138</v>
@@ -28348,7 +28383,7 @@
         <v>37</v>
       </c>
       <c r="B514" s="1">
-        <v>45018.205324074072</v>
+        <v>45018.205324074101</v>
       </c>
       <c r="C514">
         <v>10</v>
@@ -28410,7 +28445,7 @@
         <v>37</v>
       </c>
       <c r="B515" s="1">
-        <v>45018.206273148149</v>
+        <v>45018.2062731482</v>
       </c>
       <c r="C515">
         <v>267</v>
@@ -28472,7 +28507,7 @@
         <v>48</v>
       </c>
       <c r="B516" s="1">
-        <v>45018.208773148152</v>
+        <v>45018.208773148202</v>
       </c>
       <c r="D516" t="s">
         <v>38</v>
@@ -28575,7 +28610,7 @@
         <v>37</v>
       </c>
       <c r="B518" s="1">
-        <v>45018.222384259258</v>
+        <v>45018.222384259301</v>
       </c>
       <c r="C518">
         <v>89</v>
@@ -28637,7 +28672,7 @@
         <v>37</v>
       </c>
       <c r="B519" s="1">
-        <v>45018.232129629629</v>
+        <v>45018.2321296296</v>
       </c>
       <c r="C519">
         <v>7</v>
@@ -28761,7 +28796,7 @@
         <v>37</v>
       </c>
       <c r="B521" s="1">
-        <v>45018.24459490741</v>
+        <v>45018.244594907403</v>
       </c>
       <c r="C521">
         <v>130</v>
@@ -28823,7 +28858,7 @@
         <v>48</v>
       </c>
       <c r="B522" s="1">
-        <v>45018.248692129629</v>
+        <v>45018.2486921296</v>
       </c>
       <c r="D522" t="s">
         <v>96</v>
@@ -28891,7 +28926,7 @@
         <v>37</v>
       </c>
       <c r="B523" s="1">
-        <v>45018.255555555559</v>
+        <v>45018.255555555603</v>
       </c>
       <c r="C523">
         <v>339</v>
@@ -28953,7 +28988,7 @@
         <v>48</v>
       </c>
       <c r="B524" s="1">
-        <v>45018.259398148148</v>
+        <v>45018.259398148199</v>
       </c>
       <c r="D524" t="s">
         <v>58</v>
@@ -28994,7 +29029,7 @@
         <v>48</v>
       </c>
       <c r="B525" s="1">
-        <v>45018.262002314812</v>
+        <v>45018.262002314797</v>
       </c>
       <c r="D525" t="s">
         <v>38</v>
@@ -29035,7 +29070,7 @@
         <v>37</v>
       </c>
       <c r="B526" s="1">
-        <v>45018.272476851853</v>
+        <v>45018.272476851896</v>
       </c>
       <c r="C526">
         <v>746</v>
@@ -29097,7 +29132,7 @@
         <v>48</v>
       </c>
       <c r="B527" s="1">
-        <v>45018.273078703707</v>
+        <v>45018.2730787037</v>
       </c>
       <c r="D527" t="s">
         <v>58</v>
@@ -29138,7 +29173,7 @@
         <v>48</v>
       </c>
       <c r="B528" s="1">
-        <v>45018.274224537039</v>
+        <v>45018.274224537003</v>
       </c>
       <c r="D528" t="s">
         <v>58</v>
@@ -29179,7 +29214,7 @@
         <v>48</v>
       </c>
       <c r="B529" s="1">
-        <v>45018.27449074074</v>
+        <v>45018.274490740703</v>
       </c>
       <c r="D529" t="s">
         <v>58</v>
@@ -29220,7 +29255,7 @@
         <v>48</v>
       </c>
       <c r="B530" s="1">
-        <v>45018.274675925917</v>
+        <v>45018.274675925903</v>
       </c>
       <c r="D530" t="s">
         <v>38</v>
@@ -29261,7 +29296,7 @@
         <v>48</v>
       </c>
       <c r="B531" s="1">
-        <v>45018.275347222218</v>
+        <v>45018.275347222203</v>
       </c>
       <c r="D531" t="s">
         <v>38</v>
@@ -29302,7 +29337,7 @@
         <v>48</v>
       </c>
       <c r="B532" s="1">
-        <v>45018.276134259257</v>
+        <v>45018.2761342593</v>
       </c>
       <c r="D532" t="s">
         <v>58</v>
@@ -29343,7 +29378,7 @@
         <v>48</v>
       </c>
       <c r="B533" s="1">
-        <v>45018.276597222219</v>
+        <v>45018.276597222197</v>
       </c>
       <c r="D533" t="s">
         <v>38</v>
@@ -29425,7 +29460,7 @@
         <v>48</v>
       </c>
       <c r="B535" s="1">
-        <v>45018.277118055557</v>
+        <v>45018.277118055601</v>
       </c>
       <c r="D535" t="s">
         <v>38</v>
@@ -29466,7 +29501,7 @@
         <v>48</v>
       </c>
       <c r="B536" s="1">
-        <v>45018.277708333328</v>
+        <v>45018.277708333299</v>
       </c>
       <c r="D536" t="s">
         <v>38</v>
@@ -29507,7 +29542,7 @@
         <v>48</v>
       </c>
       <c r="B537" s="1">
-        <v>45018.277789351851</v>
+        <v>45018.277789351901</v>
       </c>
       <c r="D537" t="s">
         <v>58</v>
@@ -29548,7 +29583,7 @@
         <v>48</v>
       </c>
       <c r="B538" s="1">
-        <v>45018.277974537043</v>
+        <v>45018.277974536999</v>
       </c>
       <c r="D538" t="s">
         <v>58</v>
@@ -29589,7 +29624,7 @@
         <v>48</v>
       </c>
       <c r="B539" s="1">
-        <v>45018.278379629628</v>
+        <v>45018.278379629599</v>
       </c>
       <c r="D539" t="s">
         <v>38</v>
@@ -29630,7 +29665,7 @@
         <v>48</v>
       </c>
       <c r="B540" s="1">
-        <v>45018.278726851851</v>
+        <v>45018.278726851902</v>
       </c>
       <c r="D540" t="s">
         <v>38</v>
@@ -29671,7 +29706,7 @@
         <v>48</v>
       </c>
       <c r="B541" s="1">
-        <v>45018.278819444437</v>
+        <v>45018.2788194444</v>
       </c>
       <c r="D541" t="s">
         <v>58</v>
@@ -29712,7 +29747,7 @@
         <v>48</v>
       </c>
       <c r="B542" s="1">
-        <v>45018.279097222221</v>
+        <v>45018.279097222199</v>
       </c>
       <c r="D542" t="s">
         <v>38</v>
@@ -29753,7 +29788,7 @@
         <v>48</v>
       </c>
       <c r="B543" s="1">
-        <v>45018.279479166667</v>
+        <v>45018.279479166697</v>
       </c>
       <c r="D543" t="s">
         <v>38</v>
@@ -29794,7 +29829,7 @@
         <v>48</v>
       </c>
       <c r="B544" s="1">
-        <v>45018.27988425926</v>
+        <v>45018.279884259297</v>
       </c>
       <c r="D544" t="s">
         <v>38</v>
@@ -29835,7 +29870,7 @@
         <v>48</v>
       </c>
       <c r="B545" s="1">
-        <v>45018.280231481483</v>
+        <v>45018.280231481498</v>
       </c>
       <c r="D545" t="s">
         <v>38</v>
@@ -29876,7 +29911,7 @@
         <v>48</v>
       </c>
       <c r="B546" s="1">
-        <v>45018.280509259261</v>
+        <v>45018.280509259297</v>
       </c>
       <c r="D546" t="s">
         <v>58</v>
@@ -29917,7 +29952,7 @@
         <v>48</v>
       </c>
       <c r="B547" s="1">
-        <v>45018.280891203707</v>
+        <v>45018.2808912037</v>
       </c>
       <c r="D547" t="s">
         <v>58</v>
@@ -29958,7 +29993,7 @@
         <v>48</v>
       </c>
       <c r="B548" s="1">
-        <v>45018.281006944453</v>
+        <v>45018.281006944497</v>
       </c>
       <c r="D548" t="s">
         <v>38</v>
@@ -29999,7 +30034,7 @@
         <v>48</v>
       </c>
       <c r="B549" s="1">
-        <v>45018.281539351847</v>
+        <v>45018.281539351898</v>
       </c>
       <c r="D549" t="s">
         <v>38</v>
@@ -30040,7 +30075,7 @@
         <v>48</v>
       </c>
       <c r="B550" s="1">
-        <v>45018.282233796293</v>
+        <v>45018.282233796301</v>
       </c>
       <c r="D550" t="s">
         <v>38</v>
@@ -30081,7 +30116,7 @@
         <v>37</v>
       </c>
       <c r="B551" s="1">
-        <v>45018.29415509259</v>
+        <v>45018.294155092597</v>
       </c>
       <c r="C551">
         <v>6</v>
@@ -30143,7 +30178,7 @@
         <v>37</v>
       </c>
       <c r="B552" s="1">
-        <v>45018.297581018523</v>
+        <v>45018.297581018502</v>
       </c>
       <c r="C552">
         <v>139</v>
@@ -30205,7 +30240,7 @@
         <v>48</v>
       </c>
       <c r="B553" s="1">
-        <v>45018.298310185193</v>
+        <v>45018.298310185201</v>
       </c>
       <c r="D553" t="s">
         <v>72</v>
@@ -30246,7 +30281,7 @@
         <v>48</v>
       </c>
       <c r="B554" s="1">
-        <v>45018.300509259258</v>
+        <v>45018.300509259301</v>
       </c>
       <c r="D554" t="s">
         <v>38</v>
@@ -30287,7 +30322,7 @@
         <v>37</v>
       </c>
       <c r="B555" s="1">
-        <v>45018.30064814815</v>
+        <v>45018.300648148201</v>
       </c>
       <c r="C555">
         <v>9</v>
@@ -30349,7 +30384,7 @@
         <v>48</v>
       </c>
       <c r="B556" s="1">
-        <v>45018.301076388889</v>
+        <v>45018.301076388903</v>
       </c>
       <c r="D556" t="s">
         <v>38</v>
@@ -30390,7 +30425,7 @@
         <v>48</v>
       </c>
       <c r="B557" s="1">
-        <v>45018.301423611112</v>
+        <v>45018.301423611098</v>
       </c>
       <c r="D557" t="s">
         <v>38</v>
@@ -30431,7 +30466,7 @@
         <v>48</v>
       </c>
       <c r="B558" s="1">
-        <v>45018.301840277767</v>
+        <v>45018.301840277803</v>
       </c>
       <c r="D558" t="s">
         <v>72</v>
@@ -30472,7 +30507,7 @@
         <v>48</v>
       </c>
       <c r="B559" s="1">
-        <v>45018.302615740737</v>
+        <v>45018.3026157407</v>
       </c>
       <c r="D559" t="s">
         <v>38</v>
@@ -30513,7 +30548,7 @@
         <v>37</v>
       </c>
       <c r="B560" s="1">
-        <v>45018.302997685183</v>
+        <v>45018.302997685198</v>
       </c>
       <c r="C560">
         <v>984</v>
@@ -30575,7 +30610,7 @@
         <v>48</v>
       </c>
       <c r="B561" s="1">
-        <v>45018.303055555552</v>
+        <v>45018.303055555603</v>
       </c>
       <c r="D561" t="s">
         <v>38</v>
@@ -30616,7 +30651,7 @@
         <v>48</v>
       </c>
       <c r="B562" s="1">
-        <v>45018.303657407407</v>
+        <v>45018.303657407399</v>
       </c>
       <c r="D562" t="s">
         <v>72</v>
@@ -30657,7 +30692,7 @@
         <v>48</v>
       </c>
       <c r="B563" s="1">
-        <v>45018.303981481477</v>
+        <v>45018.303981481498</v>
       </c>
       <c r="D563" t="s">
         <v>38</v>
@@ -30698,7 +30733,7 @@
         <v>48</v>
       </c>
       <c r="B564" s="1">
-        <v>45018.304583333331</v>
+        <v>45018.304583333302</v>
       </c>
       <c r="D564" t="s">
         <v>38</v>
@@ -30739,7 +30774,7 @@
         <v>48</v>
       </c>
       <c r="B565" s="1">
-        <v>45018.305208333331</v>
+        <v>45018.305208333302</v>
       </c>
       <c r="D565" t="s">
         <v>72</v>
@@ -30780,7 +30815,7 @@
         <v>48</v>
       </c>
       <c r="B566" s="1">
-        <v>45018.305613425917</v>
+        <v>45018.305613425902</v>
       </c>
       <c r="D566" t="s">
         <v>38</v>
@@ -30862,7 +30897,7 @@
         <v>48</v>
       </c>
       <c r="B568" s="1">
-        <v>45018.307233796288</v>
+        <v>45018.307233796302</v>
       </c>
       <c r="D568" t="s">
         <v>72</v>
@@ -30903,7 +30938,7 @@
         <v>48</v>
       </c>
       <c r="B569" s="1">
-        <v>45018.325231481482</v>
+        <v>45018.325231481504</v>
       </c>
       <c r="D569" t="s">
         <v>61</v>
@@ -30944,7 +30979,7 @@
         <v>37</v>
       </c>
       <c r="B570" s="1">
-        <v>45018.329340277778</v>
+        <v>45018.3293402778</v>
       </c>
       <c r="C570">
         <v>423</v>
@@ -31047,7 +31082,7 @@
         <v>37</v>
       </c>
       <c r="B572" s="1">
-        <v>45018.339224537027</v>
+        <v>45018.339224536998</v>
       </c>
       <c r="C572">
         <v>2</v>
@@ -31171,7 +31206,7 @@
         <v>37</v>
       </c>
       <c r="B574" s="1">
-        <v>45018.349398148152</v>
+        <v>45018.349398148202</v>
       </c>
       <c r="C574">
         <v>87</v>
@@ -31233,7 +31268,7 @@
         <v>37</v>
       </c>
       <c r="B575" s="1">
-        <v>45018.361284722218</v>
+        <v>45018.361284722203</v>
       </c>
       <c r="C575">
         <v>5</v>
@@ -31357,7 +31392,7 @@
         <v>59</v>
       </c>
       <c r="B577" s="1">
-        <v>45018.375474537039</v>
+        <v>45018.375474537002</v>
       </c>
       <c r="C577">
         <v>578</v>
@@ -31422,7 +31457,7 @@
         <v>37</v>
       </c>
       <c r="B578" s="1">
-        <v>45018.380694444437</v>
+        <v>45018.3806944444</v>
       </c>
       <c r="C578">
         <v>8</v>
@@ -31484,7 +31519,7 @@
         <v>37</v>
       </c>
       <c r="B579" s="1">
-        <v>45018.38177083333</v>
+        <v>45018.381770833301</v>
       </c>
       <c r="C579">
         <v>17</v>
@@ -31546,7 +31581,7 @@
         <v>37</v>
       </c>
       <c r="B580" s="1">
-        <v>45018.384895833333</v>
+        <v>45018.384895833296</v>
       </c>
       <c r="C580">
         <v>2</v>
@@ -31608,7 +31643,7 @@
         <v>37</v>
       </c>
       <c r="B581" s="1">
-        <v>45018.396331018521</v>
+        <v>45018.396331018499</v>
       </c>
       <c r="C581">
         <v>55</v>
@@ -31670,7 +31705,7 @@
         <v>59</v>
       </c>
       <c r="B582" s="1">
-        <v>45018.396527777782</v>
+        <v>45018.396527777797</v>
       </c>
       <c r="C582">
         <v>532</v>
@@ -31735,7 +31770,7 @@
         <v>48</v>
       </c>
       <c r="B583" s="1">
-        <v>45018.396585648137</v>
+        <v>45018.396585648101</v>
       </c>
       <c r="D583" t="s">
         <v>58</v>
@@ -31776,7 +31811,7 @@
         <v>37</v>
       </c>
       <c r="B584" s="1">
-        <v>45018.398148148153</v>
+        <v>45018.398148148197</v>
       </c>
       <c r="C584">
         <v>11</v>
@@ -31838,7 +31873,7 @@
         <v>59</v>
       </c>
       <c r="B585" s="1">
-        <v>45018.405810185177</v>
+        <v>45018.405810185199</v>
       </c>
       <c r="C585">
         <v>190</v>
@@ -31951,7 +31986,7 @@
         <v>37</v>
       </c>
       <c r="B586" s="1">
-        <v>45018.407881944448</v>
+        <v>45018.407881944499</v>
       </c>
       <c r="C586">
         <v>10</v>
@@ -32013,7 +32048,7 @@
         <v>37</v>
       </c>
       <c r="B587" s="1">
-        <v>45018.411990740737</v>
+        <v>45018.4119907407</v>
       </c>
       <c r="C587">
         <v>7</v>
@@ -32137,7 +32172,7 @@
         <v>37</v>
       </c>
       <c r="B589" s="1">
-        <v>45018.423668981479</v>
+        <v>45018.423668981501</v>
       </c>
       <c r="C589">
         <v>7097</v>
@@ -32199,7 +32234,7 @@
         <v>48</v>
       </c>
       <c r="B590" s="1">
-        <v>45018.431041666663</v>
+        <v>45018.431041666699</v>
       </c>
       <c r="D590" t="s">
         <v>38</v>
@@ -32240,7 +32275,7 @@
         <v>48</v>
       </c>
       <c r="B591" s="1">
-        <v>45018.432395833333</v>
+        <v>45018.432395833297</v>
       </c>
       <c r="D591" t="s">
         <v>72</v>
@@ -32281,7 +32316,7 @@
         <v>48</v>
       </c>
       <c r="B592" s="1">
-        <v>45018.433263888888</v>
+        <v>45018.433263888903</v>
       </c>
       <c r="D592" t="s">
         <v>38</v>
@@ -32322,7 +32357,7 @@
         <v>48</v>
       </c>
       <c r="B593" s="1">
-        <v>45018.433680555558</v>
+        <v>45018.433680555601</v>
       </c>
       <c r="D593" t="s">
         <v>72</v>
@@ -32363,7 +32398,7 @@
         <v>48</v>
       </c>
       <c r="B594" s="1">
-        <v>45018.433831018519</v>
+        <v>45018.433831018498</v>
       </c>
       <c r="D594" t="s">
         <v>72</v>
@@ -32445,7 +32480,7 @@
         <v>48</v>
       </c>
       <c r="B596" s="1">
-        <v>45018.435219907413</v>
+        <v>45018.435219907398</v>
       </c>
       <c r="D596" t="s">
         <v>72</v>
@@ -32486,7 +32521,7 @@
         <v>48</v>
       </c>
       <c r="B597" s="1">
-        <v>45018.435486111113</v>
+        <v>45018.435486111099</v>
       </c>
       <c r="D597" t="s">
         <v>72</v>
@@ -32527,7 +32562,7 @@
         <v>48</v>
       </c>
       <c r="B598" s="1">
-        <v>45018.436331018522</v>
+        <v>45018.4363310185</v>
       </c>
       <c r="D598" t="s">
         <v>38</v>
@@ -32568,7 +32603,7 @@
         <v>48</v>
       </c>
       <c r="B599" s="1">
-        <v>45018.436689814807</v>
+        <v>45018.4366898148</v>
       </c>
       <c r="D599" t="s">
         <v>72</v>
@@ -32609,7 +32644,7 @@
         <v>48</v>
       </c>
       <c r="B600" s="1">
-        <v>45018.436932870369</v>
+        <v>45018.436932870398</v>
       </c>
       <c r="D600" t="s">
         <v>72</v>
@@ -32650,7 +32685,7 @@
         <v>48</v>
       </c>
       <c r="B601" s="1">
-        <v>45018.437511574077</v>
+        <v>45018.437511574099</v>
       </c>
       <c r="D601" t="s">
         <v>72</v>
@@ -32691,7 +32726,7 @@
         <v>48</v>
       </c>
       <c r="B602" s="1">
-        <v>45018.437824074077</v>
+        <v>45018.437824074099</v>
       </c>
       <c r="D602" t="s">
         <v>38</v>
@@ -32732,7 +32767,7 @@
         <v>48</v>
       </c>
       <c r="B603" s="1">
-        <v>45018.437986111108</v>
+        <v>45018.437986111101</v>
       </c>
       <c r="D603" t="s">
         <v>38</v>
@@ -32773,7 +32808,7 @@
         <v>48</v>
       </c>
       <c r="B604" s="1">
-        <v>45018.455613425933</v>
+        <v>45018.455613425896</v>
       </c>
       <c r="D604" t="s">
         <v>38</v>
@@ -32814,7 +32849,7 @@
         <v>48</v>
       </c>
       <c r="B605" s="1">
-        <v>45018.45716435185</v>
+        <v>45018.457164351901</v>
       </c>
       <c r="D605" t="s">
         <v>38</v>
@@ -32855,7 +32890,7 @@
         <v>48</v>
       </c>
       <c r="B606" s="1">
-        <v>45018.45752314815</v>
+        <v>45018.457523148201</v>
       </c>
       <c r="D606" t="s">
         <v>58</v>
@@ -32896,7 +32931,7 @@
         <v>48</v>
       </c>
       <c r="B607" s="1">
-        <v>45018.458148148151</v>
+        <v>45018.458148148202</v>
       </c>
       <c r="D607" t="s">
         <v>58</v>
@@ -32937,7 +32972,7 @@
         <v>48</v>
       </c>
       <c r="B608" s="1">
-        <v>45018.470972222232</v>
+        <v>45018.470972222203</v>
       </c>
       <c r="D608" t="s">
         <v>38</v>
@@ -32978,7 +33013,7 @@
         <v>48</v>
       </c>
       <c r="B609" s="1">
-        <v>45018.472094907411</v>
+        <v>45018.472094907404</v>
       </c>
       <c r="D609" t="s">
         <v>38</v>
@@ -33019,7 +33054,7 @@
         <v>48</v>
       </c>
       <c r="B610" s="1">
-        <v>45018.472962962973</v>
+        <v>45018.472962963002</v>
       </c>
       <c r="D610" t="s">
         <v>61</v>
@@ -33060,7 +33095,7 @@
         <v>48</v>
       </c>
       <c r="B611" s="1">
-        <v>45018.473321759258</v>
+        <v>45018.473321759302</v>
       </c>
       <c r="D611" t="s">
         <v>61</v>
@@ -33101,7 +33136,7 @@
         <v>48</v>
       </c>
       <c r="B612" s="1">
-        <v>45018.479212962957</v>
+        <v>45018.479212963</v>
       </c>
       <c r="D612" t="s">
         <v>61</v>
@@ -33142,7 +33177,7 @@
         <v>48</v>
       </c>
       <c r="B613" s="1">
-        <v>45018.481030092589</v>
+        <v>45018.481030092596</v>
       </c>
       <c r="D613" t="s">
         <v>38</v>
@@ -33183,7 +33218,7 @@
         <v>48</v>
       </c>
       <c r="B614" s="1">
-        <v>45018.481111111112</v>
+        <v>45018.481111111098</v>
       </c>
       <c r="D614" t="s">
         <v>38</v>
@@ -33224,7 +33259,7 @@
         <v>48</v>
       </c>
       <c r="B615" s="1">
-        <v>45018.481631944444</v>
+        <v>45018.4816319444</v>
       </c>
       <c r="D615" t="s">
         <v>61</v>
@@ -33265,7 +33300,7 @@
         <v>48</v>
       </c>
       <c r="B616" s="1">
-        <v>45018.482060185182</v>
+        <v>45018.482060185197</v>
       </c>
       <c r="D616" t="s">
         <v>38</v>
@@ -33306,7 +33341,7 @@
         <v>48</v>
       </c>
       <c r="B617" s="1">
-        <v>45018.482476851852</v>
+        <v>45018.482476851903</v>
       </c>
       <c r="D617" t="s">
         <v>38</v>
@@ -33347,7 +33382,7 @@
         <v>48</v>
       </c>
       <c r="B618" s="1">
-        <v>45018.482662037037</v>
+        <v>45018.482662037</v>
       </c>
       <c r="D618" t="s">
         <v>61</v>
@@ -33388,7 +33423,7 @@
         <v>48</v>
       </c>
       <c r="B619" s="1">
-        <v>45018.482916666668</v>
+        <v>45018.482916666697</v>
       </c>
       <c r="D619" t="s">
         <v>38</v>
@@ -33429,7 +33464,7 @@
         <v>48</v>
       </c>
       <c r="B620" s="1">
-        <v>45018.483576388891</v>
+        <v>45018.483576388899</v>
       </c>
       <c r="D620" t="s">
         <v>38</v>
@@ -33470,7 +33505,7 @@
         <v>37</v>
       </c>
       <c r="B621" s="1">
-        <v>45018.590763888889</v>
+        <v>45018.590763888897</v>
       </c>
       <c r="C621">
         <v>16200</v>
@@ -33532,7 +33567,7 @@
         <v>59</v>
       </c>
       <c r="B622" s="1">
-        <v>45018.642129629632</v>
+        <v>45018.642129629603</v>
       </c>
       <c r="D622" t="s">
         <v>61</v>
@@ -33573,7 +33608,7 @@
         <v>48</v>
       </c>
       <c r="B623" s="1">
-        <v>45018.90016203704</v>
+        <v>45018.900162037004</v>
       </c>
       <c r="D623" t="s">
         <v>38</v>
@@ -33614,7 +33649,7 @@
         <v>48</v>
       </c>
       <c r="B624" s="1">
-        <v>45018.900925925933</v>
+        <v>45018.900925925896</v>
       </c>
       <c r="D624" t="s">
         <v>118</v>
@@ -33655,7 +33690,7 @@
         <v>48</v>
       </c>
       <c r="B625" s="1">
-        <v>45018.900983796288</v>
+        <v>45018.900983796302</v>
       </c>
       <c r="D625" t="s">
         <v>118</v>
@@ -33696,7 +33731,7 @@
         <v>37</v>
       </c>
       <c r="B626" s="1">
-        <v>45018.929155092592</v>
+        <v>45018.929155092599</v>
       </c>
       <c r="C626">
         <v>2</v>
@@ -33758,7 +33793,7 @@
         <v>37</v>
       </c>
       <c r="B627" s="1">
-        <v>45018.936539351853</v>
+        <v>45018.936539351896</v>
       </c>
       <c r="C627">
         <v>1085</v>
@@ -33820,7 +33855,7 @@
         <v>37</v>
       </c>
       <c r="B628" s="1">
-        <v>45018.963900462957</v>
+        <v>45018.963900463001</v>
       </c>
       <c r="C628">
         <v>1840</v>
@@ -33882,7 +33917,7 @@
         <v>37</v>
       </c>
       <c r="B629" s="1">
-        <v>45019.003368055557</v>
+        <v>45019.003368055601</v>
       </c>
       <c r="C629">
         <v>5257</v>
@@ -33944,7 +33979,7 @@
         <v>59</v>
       </c>
       <c r="B630" s="1">
-        <v>45019.063194444447</v>
+        <v>45019.063194444498</v>
       </c>
       <c r="C630">
         <v>53</v>
@@ -34009,7 +34044,7 @@
         <v>37</v>
       </c>
       <c r="B631" s="1">
-        <v>45019.093043981477</v>
+        <v>45019.093043981498</v>
       </c>
       <c r="C631">
         <v>115</v>
@@ -34071,7 +34106,7 @@
         <v>37</v>
       </c>
       <c r="B632" s="1">
-        <v>45019.102361111109</v>
+        <v>45019.102361111101</v>
       </c>
       <c r="C632">
         <v>3</v>
@@ -34195,7 +34230,7 @@
         <v>37</v>
       </c>
       <c r="B634" s="1">
-        <v>45019.122418981482</v>
+        <v>45019.122418981497</v>
       </c>
       <c r="C634">
         <v>6</v>
@@ -34257,7 +34292,7 @@
         <v>37</v>
       </c>
       <c r="B635" s="1">
-        <v>45019.128877314812</v>
+        <v>45019.128877314797</v>
       </c>
       <c r="C635">
         <v>1058</v>
@@ -34319,7 +34354,7 @@
         <v>37</v>
       </c>
       <c r="B636" s="1">
-        <v>45019.152939814812</v>
+        <v>45019.152939814798</v>
       </c>
       <c r="C636">
         <v>11</v>
@@ -34381,7 +34416,7 @@
         <v>37</v>
       </c>
       <c r="B637" s="1">
-        <v>45019.156504629631</v>
+        <v>45019.156504629602</v>
       </c>
       <c r="C637">
         <v>309</v>
@@ -34443,7 +34478,7 @@
         <v>37</v>
       </c>
       <c r="B638" s="1">
-        <v>45019.170138888891</v>
+        <v>45019.170138888898</v>
       </c>
       <c r="C638">
         <v>4</v>
@@ -34505,7 +34540,7 @@
         <v>37</v>
       </c>
       <c r="B639" s="1">
-        <v>45019.171631944453</v>
+        <v>45019.171631944497</v>
       </c>
       <c r="C639">
         <v>685</v>
@@ -34567,7 +34602,7 @@
         <v>37</v>
       </c>
       <c r="B640" s="1">
-        <v>45019.193912037037</v>
+        <v>45019.193912037001</v>
       </c>
       <c r="C640">
         <v>7916</v>
@@ -34629,7 +34664,7 @@
         <v>37</v>
       </c>
       <c r="B641" s="1">
-        <v>45019.325682870367</v>
+        <v>45019.325682870403</v>
       </c>
       <c r="C641">
         <v>47</v>
@@ -34691,7 +34726,7 @@
         <v>37</v>
       </c>
       <c r="B642" s="1">
-        <v>45019.328321759262</v>
+        <v>45019.328321759298</v>
       </c>
       <c r="C642">
         <v>309</v>
@@ -34753,7 +34788,7 @@
         <v>37</v>
       </c>
       <c r="B643" s="1">
-        <v>45019.336655092593</v>
+        <v>45019.3366550926</v>
       </c>
       <c r="C643">
         <v>27</v>
@@ -34815,7 +34850,7 @@
         <v>37</v>
       </c>
       <c r="B644" s="1">
-        <v>45019.345347222217</v>
+        <v>45019.345347222203</v>
       </c>
       <c r="C644">
         <v>13</v>
@@ -34939,7 +34974,7 @@
         <v>37</v>
       </c>
       <c r="B646" s="1">
-        <v>45019.360439814824</v>
+        <v>45019.360439814802</v>
       </c>
       <c r="C646">
         <v>55</v>
@@ -35125,7 +35160,7 @@
         <v>37</v>
       </c>
       <c r="B649" s="1">
-        <v>45019.385462962957</v>
+        <v>45019.385462963</v>
       </c>
       <c r="C649">
         <v>2076</v>
@@ -35187,7 +35222,7 @@
         <v>37</v>
       </c>
       <c r="B650" s="1">
-        <v>45019.423935185187</v>
+        <v>45019.423935185201</v>
       </c>
       <c r="C650">
         <v>1114</v>
@@ -35249,7 +35284,7 @@
         <v>37</v>
       </c>
       <c r="B651" s="1">
-        <v>45019.442754629628</v>
+        <v>45019.442754629599</v>
       </c>
       <c r="C651">
         <v>8</v>
@@ -35311,7 +35346,7 @@
         <v>37</v>
       </c>
       <c r="B652" s="1">
-        <v>45019.444016203714</v>
+        <v>45019.444016203699</v>
       </c>
       <c r="C652">
         <v>63</v>
@@ -35373,7 +35408,7 @@
         <v>37</v>
       </c>
       <c r="B653" s="1">
-        <v>45019.456226851849</v>
+        <v>45019.4562268519</v>
       </c>
       <c r="C653">
         <v>6964</v>
@@ -35435,7 +35470,7 @@
         <v>59</v>
       </c>
       <c r="B654" s="1">
-        <v>45019.537407407413</v>
+        <v>45019.537407407399</v>
       </c>
       <c r="C654">
         <v>19</v>
@@ -35500,7 +35535,7 @@
         <v>59</v>
       </c>
       <c r="B655" s="1">
-        <v>45019.538194444453</v>
+        <v>45019.538194444503</v>
       </c>
       <c r="C655">
         <v>19</v>
@@ -35565,7 +35600,7 @@
         <v>59</v>
       </c>
       <c r="B656" s="1">
-        <v>45019.541666666657</v>
+        <v>45019.541666666701</v>
       </c>
       <c r="C656">
         <v>82</v>
@@ -35630,7 +35665,7 @@
         <v>37</v>
       </c>
       <c r="B657" s="1">
-        <v>45019.614548611113</v>
+        <v>45019.614548611098</v>
       </c>
       <c r="C657">
         <v>329</v>
@@ -35692,7 +35727,7 @@
         <v>37</v>
       </c>
       <c r="B658" s="1">
-        <v>45019.628900462973</v>
+        <v>45019.628900463002</v>
       </c>
       <c r="C658">
         <v>332</v>
@@ -35754,7 +35789,7 @@
         <v>37</v>
       </c>
       <c r="B659" s="1">
-        <v>45019.639027777783</v>
+        <v>45019.639027777797</v>
       </c>
       <c r="C659">
         <v>60</v>
@@ -35816,7 +35851,7 @@
         <v>37</v>
       </c>
       <c r="B660" s="1">
-        <v>45019.645474537043</v>
+        <v>45019.645474536999</v>
       </c>
       <c r="C660">
         <v>8</v>
@@ -35878,7 +35913,7 @@
         <v>37</v>
       </c>
       <c r="B661" s="1">
-        <v>45019.646944444437</v>
+        <v>45019.646944444401</v>
       </c>
       <c r="C661">
         <v>13</v>
@@ -35940,7 +35975,7 @@
         <v>37</v>
       </c>
       <c r="B662" s="1">
-        <v>45019.647592592592</v>
+        <v>45019.647592592599</v>
       </c>
       <c r="C662">
         <v>243</v>
@@ -36002,7 +36037,7 @@
         <v>48</v>
       </c>
       <c r="B663" s="1">
-        <v>45019.690949074073</v>
+        <v>45019.690949074102</v>
       </c>
       <c r="D663" t="s">
         <v>38</v>
@@ -36138,7 +36173,7 @@
         <v>48</v>
       </c>
       <c r="B665" s="1">
-        <v>45019.753344907411</v>
+        <v>45019.753344907404</v>
       </c>
       <c r="D665" t="s">
         <v>38</v>
@@ -36179,7 +36214,7 @@
         <v>48</v>
       </c>
       <c r="B666" s="1">
-        <v>45019.755324074067</v>
+        <v>45019.755324074104</v>
       </c>
       <c r="D666" t="s">
         <v>61</v>
@@ -36215,7 +36250,9 @@
         <v>45</v>
       </c>
     </row>
+    <row r="667" spans="1:30" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>